--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF22D217-A3AF-7B4B-813E-9A7651A7B17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C146E48C-FEAD-0546-BF26-352C996FA3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Number</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Array and String #1</t>
   </si>
   <si>
-    <t>Concept/Algo</t>
-  </si>
-  <si>
     <t>Sliding Window</t>
   </si>
   <si>
@@ -88,16 +85,91 @@
   </si>
   <si>
     <t>slide and take substring</t>
+  </si>
+  <si>
+    <t>Two Sum II-Input array is sorted</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>HashMap #1</t>
+  </si>
+  <si>
+    <t>Two pointer</t>
+  </si>
+  <si>
+    <t>two pointer, start, end</t>
+  </si>
+  <si>
+    <t>sorted + two pointer</t>
+  </si>
+  <si>
+    <t>improved coding</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>modify array in place</t>
+  </si>
+  <si>
+    <t>1 iterate, 1 modify array, no extra array</t>
+  </si>
+  <si>
+    <t>Time Complexity</t>
+  </si>
+  <si>
+    <t>Space Complexity</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>Math.max</t>
+  </si>
+  <si>
+    <t>Concept/Algo/Key</t>
+  </si>
+  <si>
+    <t>count number, Math.max(max, count), set count to 0</t>
+  </si>
+  <si>
+    <t>reset count and find max</t>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>Array and String #2</t>
+  </si>
+  <si>
+    <t>two pointer, sliding window, sum to right, delete left number</t>
+  </si>
+  <si>
+    <t>loop to modify sum and win size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -440,28 +512,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C767-CD55-E64E-9BDE-3714FF4A145E}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="6" max="6" width="51.5" customWidth="1"/>
+    <col min="7" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" customWidth="1"/>
-    <col min="12" max="12" width="28" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" customWidth="1"/>
+    <col min="14" max="14" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,31 +549,37 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1291</v>
       </c>
@@ -513,19 +593,160 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44584</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1">
-        <v>44584</v>
-      </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44570</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1">
+        <v>44585</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44585</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>485</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44585</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>209</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44585</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C146E48C-FEAD-0546-BF26-352C996FA3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35101CA3-648C-D74D-9A9D-4BDA87D1F3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
+    <workbookView xWindow="240" yWindow="1480" windowWidth="28040" windowHeight="16060" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>Number</t>
   </si>
@@ -147,13 +147,34 @@
     <t>Minimum Size Subarray Sum</t>
   </si>
   <si>
-    <t>Array and String #2</t>
-  </si>
-  <si>
     <t>two pointer, sliding window, sum to right, delete left number</t>
   </si>
   <si>
     <t>loop to modify sum and win size</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
+  </si>
+  <si>
+    <t>Rotate array</t>
+  </si>
+  <si>
+    <t>Reverse array, reverse array in certain range</t>
+  </si>
+  <si>
+    <t>reverse to simulate rotation</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle II</t>
+  </si>
+  <si>
+    <t>Combination(Math)</t>
+  </si>
+  <si>
+    <t>Sum of previous ones, math, combination c(m,n)</t>
+  </si>
+  <si>
+    <t>2D array then add to arraylist</t>
   </si>
 </sst>
 </file>
@@ -512,11 +533,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C767-CD55-E64E-9BDE-3714FF4A145E}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -724,13 +745,13 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
         <v>29</v>
@@ -742,7 +763,71 @@
         <v>44585</v>
       </c>
       <c r="J6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>189</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44586</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1">
+        <v>44586</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35101CA3-648C-D74D-9A9D-4BDA87D1F3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3893FB2-077D-EE41-9997-0BF6A0642E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1480" windowWidth="28040" windowHeight="16060" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Number</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>2D array then add to arraylist</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String</t>
+  </si>
+  <si>
+    <t>String builder</t>
+  </si>
+  <si>
+    <t>Use string builder, trim, split, built-in reverse method</t>
+  </si>
+  <si>
+    <t>string array with string builder</t>
   </si>
 </sst>
 </file>
@@ -533,11 +545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C767-CD55-E64E-9BDE-3714FF4A145E}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -830,6 +842,38 @@
         <v>46</v>
       </c>
     </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1">
+        <v>44586</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3893FB2-077D-EE41-9997-0BF6A0642E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61928AC8-0492-3645-8B96-AABB7CE1D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>Number</t>
   </si>
@@ -187,6 +187,33 @@
   </si>
   <si>
     <t>string array with string builder</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String III</t>
+  </si>
+  <si>
+    <t>string builder reverse method, string buffer, trim</t>
+  </si>
+  <si>
+    <t>arrays.aslist, rever, string builder</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>two pointer, slow fast runner</t>
+  </si>
+  <si>
+    <t>two pointer, slow fast runner, solve in place</t>
+  </si>
+  <si>
+    <t>Move Zeros</t>
+  </si>
+  <si>
+    <t>set slow runner to specific num</t>
+  </si>
+  <si>
+    <t>two pointer, slow fast runner, solve in place, swap</t>
   </si>
 </sst>
 </file>
@@ -545,23 +572,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C767-CD55-E64E-9BDE-3714FF4A145E}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="51.5" customWidth="1"/>
     <col min="7" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
-    <col min="10" max="10" width="29.83203125" customWidth="1"/>
+    <col min="10" max="10" width="49.33203125" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" customWidth="1"/>
     <col min="12" max="12" width="27.6640625" customWidth="1"/>
     <col min="13" max="13" width="16.83203125" customWidth="1"/>
@@ -874,6 +901,102 @@
         <v>50</v>
       </c>
     </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>557</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1">
+        <v>44587</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44587</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>283</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1">
+        <v>44587</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61928AC8-0492-3645-8B96-AABB7CE1D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF7A021-53C7-9345-ABB4-D69CD8CB8F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>Number</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>GitHub Classification</t>
-  </si>
-  <si>
     <t>Array and String #1</t>
   </si>
   <si>
@@ -214,6 +211,36 @@
   </si>
   <si>
     <t>two pointer, slow fast runner, solve in place, swap</t>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Tutorial</t>
+  </si>
+  <si>
+    <t>GitHub Note</t>
+  </si>
+  <si>
+    <t>Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>recursion with preorder, careful of iteration</t>
+  </si>
+  <si>
+    <t>postorder, recursion, iteration-reverse, stack, morris traversal</t>
+  </si>
+  <si>
+    <t>inorder, recursion, iteration, morris traversal, stack</t>
+  </si>
+  <si>
+    <t>preorder, recursion, iteration, stack, morris traversal</t>
   </si>
 </sst>
 </file>
@@ -572,11 +599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C767-CD55-E64E-9BDE-3714FF4A145E}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,19 +633,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -650,25 +677,25 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1">
         <v>44584</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -676,37 +703,37 @@
         <v>167</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
       <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
       </c>
       <c r="I3" s="1">
         <v>44570</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1">
         <v>44585</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -714,31 +741,31 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
       </c>
       <c r="I4" s="1">
         <v>44585</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -746,31 +773,31 @@
         <v>485</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
       </c>
       <c r="I5" s="1">
         <v>44585</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -778,31 +805,31 @@
         <v>209</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
         <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
       </c>
       <c r="I6" s="1">
         <v>44585</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -810,31 +837,31 @@
         <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
       <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
       </c>
       <c r="I7" s="1">
         <v>44586</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -842,31 +869,31 @@
         <v>119</v>
       </c>
       <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
       <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
         <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
       </c>
       <c r="I8" s="1">
         <v>44586</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -874,31 +901,31 @@
         <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="1">
         <v>44586</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -906,31 +933,31 @@
         <v>557</v>
       </c>
       <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="1">
         <v>44587</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -938,31 +965,31 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
         <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
       </c>
       <c r="I11" s="1">
         <v>44587</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -970,31 +997,127 @@
         <v>283</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
         <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
       </c>
       <c r="I12" s="1">
         <v>44587</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1">
+        <v>44588</v>
+      </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>145</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1">
+        <v>44588</v>
+      </c>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1">
+        <v>44588</v>
+      </c>
+      <c r="J15" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF7A021-53C7-9345-ABB4-D69CD8CB8F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72D3C1B-6A3B-F447-BAB7-19E200E5F887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
   <si>
     <t>Number</t>
   </si>
@@ -241,6 +241,45 @@
   </si>
   <si>
     <t>preorder, recursion, iteration, stack, morris traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>BFS, recursion, iteration, queue, levels</t>
+  </si>
+  <si>
+    <t>recursion with queue, count levels with queue size</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree #1</t>
+  </si>
+  <si>
+    <t>Traversal/Recursion</t>
+  </si>
+  <si>
+    <t>recursion, root is null, math.max + 1, left and right height</t>
+  </si>
+  <si>
+    <t>O(n)/O(log n)</t>
+  </si>
+  <si>
+    <t>recursion similar to preorder, iteration also works</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>recursion, mirror, left and right, helper method, null cases</t>
+  </si>
+  <si>
+    <t>recursion return &amp;&amp; to link results, iteration + queue</t>
   </si>
 </sst>
 </file>
@@ -599,11 +638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C767-CD55-E64E-9BDE-3714FF4A145E}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1120,6 +1159,102 @@
         <v>65</v>
       </c>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="1">
+        <v>44589</v>
+      </c>
+      <c r="J16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="1">
+        <v>44590</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="1">
+        <v>44590</v>
+      </c>
+      <c r="J18" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72D3C1B-6A3B-F447-BAB7-19E200E5F887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DDA7E6-028F-DA42-8399-EF658D78C626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
   <si>
     <t>Number</t>
   </si>
@@ -280,6 +280,15 @@
   </si>
   <si>
     <t>recursion return &amp;&amp; to link results, iteration + queue</t>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>recursion, sum, null cases, or operator</t>
+  </si>
+  <si>
+    <t>recursion return || to link results, iteration + stack</t>
   </si>
 </sst>
 </file>
@@ -638,11 +647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C767-CD55-E64E-9BDE-3714FF4A145E}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1255,6 +1264,38 @@
         <v>81</v>
       </c>
     </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="1">
+        <v>44590</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DDA7E6-028F-DA42-8399-EF658D78C626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C01756-9319-EC4B-8807-85E867CC2858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="89">
   <si>
     <t>Number</t>
   </si>
@@ -289,6 +289,18 @@
   </si>
   <si>
     <t>recursion return || to link results, iteration + stack</t>
+  </si>
+  <si>
+    <t>Count Univalue Subtrees</t>
+  </si>
+  <si>
+    <t>recursion, pass parent value, count, &amp;&amp; or |</t>
+  </si>
+  <si>
+    <t>O(H) height of tree</t>
+  </si>
+  <si>
+    <t>recursion pass value, &amp;&amp;, |, null case</t>
   </si>
 </sst>
 </file>
@@ -647,11 +659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C767-CD55-E64E-9BDE-3714FF4A145E}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1296,6 +1308,38 @@
         <v>84</v>
       </c>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>250</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="1">
+        <v>44591</v>
+      </c>
+      <c r="J20" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C01756-9319-EC4B-8807-85E867CC2858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C3956D-F609-FC44-AEF5-59C74FF74B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="99">
   <si>
     <t>Number</t>
   </si>
@@ -301,6 +301,36 @@
   </si>
   <si>
     <t>recursion pass value, &amp;&amp;, |, null case</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>Stack #1</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>stack, pop two numbers when operator, lambda function</t>
+  </si>
+  <si>
+    <t>stack, switch case, string to integer</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Inorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t>use inorder to determine left, right subtree/ postorder find root</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>use inorder to determine left, right subtree/ preorder find root</t>
+  </si>
+  <si>
+    <t>recusion, iteration with hashmap for inorder, global field</t>
   </si>
 </sst>
 </file>
@@ -659,20 +689,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C767-CD55-E64E-9BDE-3714FF4A145E}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="51.5" customWidth="1"/>
+    <col min="6" max="6" width="53.33203125" customWidth="1"/>
     <col min="7" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
     <col min="10" max="10" width="49.33203125" customWidth="1"/>
@@ -1340,6 +1370,102 @@
         <v>88</v>
       </c>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>150</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="1">
+        <v>44594</v>
+      </c>
+      <c r="J21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="1">
+        <v>44594</v>
+      </c>
+      <c r="J22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="1">
+        <v>44594</v>
+      </c>
+      <c r="J23" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C3956D-F609-FC44-AEF5-59C74FF74B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54715B71-C610-C944-A6E7-6155A41AAAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="105">
   <si>
     <t>Number</t>
   </si>
@@ -331,6 +331,24 @@
   </si>
   <si>
     <t>recusion, iteration with hashmap for inorder, global field</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>two connect situations, use pointer point to leftmost node</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node II</t>
+  </si>
+  <si>
+    <t>leftmost node, find next node helper method, left, right, next</t>
+  </si>
+  <si>
+    <t>recusion, nested while loop, pointers, BFS, queue</t>
+  </si>
+  <si>
+    <t>recusion, pointers, BFS, queue, connect next level</t>
   </si>
 </sst>
 </file>
@@ -689,11 +707,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C767-CD55-E64E-9BDE-3714FF4A145E}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1466,6 +1484,70 @@
         <v>98</v>
       </c>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="1">
+        <v>44595</v>
+      </c>
+      <c r="J24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="1">
+        <v>44595</v>
+      </c>
+      <c r="J25" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54715B71-C610-C944-A6E7-6155A41AAAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F08E8F-A924-CF4E-93F2-3E577FF7533C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="113">
   <si>
     <t>Number</t>
   </si>
@@ -349,6 +349,30 @@
   </si>
   <si>
     <t>recusion, pointers, BFS, queue, connect next level</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>use int as boolean flag once find node, &gt;2 branches</t>
+  </si>
+  <si>
+    <t>recursion(boolean flag, helper), iteration(pointer, stack)</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>BFS/DFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recursion + list, mid - left - right , BFS + queue + loop, </t>
+  </si>
+  <si>
+    <t>recursion + list, string separation, BFS + queue</t>
   </si>
 </sst>
 </file>
@@ -707,11 +731,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C767-CD55-E64E-9BDE-3714FF4A145E}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1548,6 +1572,70 @@
         <v>104</v>
       </c>
     </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>236</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="1">
+        <v>44596</v>
+      </c>
+      <c r="J26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>297</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="1">
+        <v>44596</v>
+      </c>
+      <c r="J27" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F08E8F-A924-CF4E-93F2-3E577FF7533C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FBE4D9-0B13-F64E-B05B-CC0866D662F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="133">
   <si>
     <t>Number</t>
   </si>
@@ -373,6 +373,66 @@
   </si>
   <si>
     <t>recursion + list, string separation, BFS + queue</t>
+  </si>
+  <si>
+    <t>Reformat Date</t>
+  </si>
+  <si>
+    <t>HashMap #2</t>
+  </si>
+  <si>
+    <t>Create month hashmap, string builder connect</t>
+  </si>
+  <si>
+    <t>Precreate a hashmap and call it in main method, build string</t>
+  </si>
+  <si>
+    <t>Permutation</t>
+  </si>
+  <si>
+    <t>Backtracking #1</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>swap digit, slicing digit, swap back, helper method</t>
+  </si>
+  <si>
+    <t>O(∑k=1N​P(N,k))</t>
+  </si>
+  <si>
+    <t>O(N!)</t>
+  </si>
+  <si>
+    <t>backtracking, slicing digit, swap</t>
+  </si>
+  <si>
+    <t>Permutation in String</t>
+  </si>
+  <si>
+    <t>Array and String #2</t>
+  </si>
+  <si>
+    <t>Use int array as indicator(26 letters), slice window</t>
+  </si>
+  <si>
+    <t>O(L1 + 26*(L2-L1)</t>
+  </si>
+  <si>
+    <t>int array comparison, sliding window</t>
+  </si>
+  <si>
+    <t>Find the Difference</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>Use int array as indicator(26 letters), compare two arrays</t>
+  </si>
+  <si>
+    <t>use hashmap to store and put to change value</t>
   </si>
 </sst>
 </file>
@@ -731,11 +791,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C767-CD55-E64E-9BDE-3714FF4A145E}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -747,7 +807,7 @@
     <col min="6" max="6" width="53.33203125" customWidth="1"/>
     <col min="7" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
-    <col min="10" max="10" width="49.33203125" customWidth="1"/>
+    <col min="10" max="10" width="50.5" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" customWidth="1"/>
     <col min="12" max="12" width="27.6640625" customWidth="1"/>
     <col min="13" max="13" width="16.83203125" customWidth="1"/>
@@ -1636,6 +1696,134 @@
         <v>112</v>
       </c>
     </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="1">
+        <v>44596</v>
+      </c>
+      <c r="J28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1507</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="1">
+        <v>44597</v>
+      </c>
+      <c r="J29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>567</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="1">
+        <v>44597</v>
+      </c>
+      <c r="J30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>389</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="1">
+        <v>44598</v>
+      </c>
+      <c r="J31" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FBE4D9-0B13-F64E-B05B-CC0866D662F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940424DF-69C6-8D42-968A-F195D8FD9523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="146">
   <si>
     <t>Number</t>
   </si>
@@ -433,6 +433,45 @@
   </si>
   <si>
     <t>use hashmap to store and put to change value</t>
+  </si>
+  <si>
+    <t>Reverse String</t>
+  </si>
+  <si>
+    <t>Array and String</t>
+  </si>
+  <si>
+    <t>Swap</t>
+  </si>
+  <si>
+    <t>Swap char array, use helper method</t>
+  </si>
+  <si>
+    <t>use swap helper method, two pointer</t>
+  </si>
+  <si>
+    <t>use recursion, but a slower method</t>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>Recursion + swap, iteration + swap, link nodes</t>
+  </si>
+  <si>
+    <t>Iteration has fewer space complexity than recursion</t>
+  </si>
+  <si>
+    <t>Zigzag Conversion</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>find pattern, arraylist, mod operation</t>
+  </si>
+  <si>
+    <t>stringbuilder, direction indicator, visit row by row, cycle</t>
   </si>
 </sst>
 </file>
@@ -791,11 +830,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C767-CD55-E64E-9BDE-3714FF4A145E}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -809,7 +848,7 @@
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
     <col min="10" max="10" width="50.5" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" customWidth="1"/>
+    <col min="12" max="12" width="43.83203125" customWidth="1"/>
     <col min="13" max="13" width="16.83203125" customWidth="1"/>
     <col min="14" max="14" width="28" customWidth="1"/>
   </cols>
@@ -1344,7 +1383,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>104</v>
       </c>
@@ -1376,7 +1415,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>101</v>
       </c>
@@ -1408,7 +1447,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>112</v>
       </c>
@@ -1440,7 +1479,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>250</v>
       </c>
@@ -1472,7 +1511,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>150</v>
       </c>
@@ -1504,7 +1543,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>106</v>
       </c>
@@ -1536,7 +1575,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>105</v>
       </c>
@@ -1568,7 +1607,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>116</v>
       </c>
@@ -1600,7 +1639,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>117</v>
       </c>
@@ -1632,7 +1671,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>236</v>
       </c>
@@ -1664,7 +1703,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>297</v>
       </c>
@@ -1696,7 +1735,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>46</v>
       </c>
@@ -1728,7 +1767,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1507</v>
       </c>
@@ -1760,7 +1799,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>567</v>
       </c>
@@ -1792,7 +1831,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>389</v>
       </c>
@@ -1822,6 +1861,108 @@
       </c>
       <c r="J31" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>344</v>
+      </c>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="1">
+        <v>44584</v>
+      </c>
+      <c r="J32" t="s">
+        <v>137</v>
+      </c>
+      <c r="K32" s="1">
+        <v>44598</v>
+      </c>
+      <c r="L32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="1">
+        <v>44599</v>
+      </c>
+      <c r="J33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="1">
+        <v>44599</v>
+      </c>
+      <c r="J34" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940424DF-69C6-8D42-968A-F195D8FD9523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E329260C-460D-CC47-8827-83F515454E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="158">
   <si>
     <t>Number</t>
   </si>
@@ -472,6 +472,42 @@
   </si>
   <si>
     <t>stringbuilder, direction indicator, visit row by row, cycle</t>
+  </si>
+  <si>
+    <t>Search in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Recursion to end then backward, iteration two pointers</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Recursion/Iteration</t>
+  </si>
+  <si>
+    <t>Binary Search Tree, left and right</t>
+  </si>
+  <si>
+    <t>O(H)</t>
+  </si>
+  <si>
+    <t>Iteration has less space complexity</t>
+  </si>
+  <si>
+    <t>recursion but exceed time limit, use array or arrylist</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Math #1</t>
+  </si>
+  <si>
+    <t>Brute force exceed time, use two pointer</t>
+  </si>
+  <si>
+    <t>Two pointer, move the lower bar</t>
   </si>
 </sst>
 </file>
@@ -830,11 +866,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C767-CD55-E64E-9BDE-3714FF4A145E}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1126,6 +1162,12 @@
       <c r="J8" t="s">
         <v>45</v>
       </c>
+      <c r="K8" s="1">
+        <v>44600</v>
+      </c>
+      <c r="L8" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1965,8 +2007,105 @@
         <v>145</v>
       </c>
     </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>206</v>
+      </c>
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="1">
+        <v>44600</v>
+      </c>
+      <c r="J35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>700</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="1">
+        <v>44600</v>
+      </c>
+      <c r="J36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="1">
+        <v>44600</v>
+      </c>
+      <c r="J37" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E329260C-460D-CC47-8827-83F515454E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4A57B2-CB4E-D34E-B50F-7BC673277FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{0F2C00F9-BAFE-FE48-9AB8-1F0A6C5C6F96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="167">
   <si>
     <t>Number</t>
   </si>
@@ -508,6 +508,33 @@
   </si>
   <si>
     <t>Two pointer, move the lower bar</t>
+  </si>
+  <si>
+    <t>Fibonacci Number</t>
+  </si>
+  <si>
+    <t>Hashmap store calculated value, or use two pointer</t>
+  </si>
+  <si>
+    <t>Directly use recursion increases time complexity</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>Basically, it is the same as Fibonacci Number</t>
+  </si>
+  <si>
+    <t>Same idea as last question</t>
+  </si>
+  <si>
+    <t>K-diff Pairs in an Array</t>
+  </si>
+  <si>
+    <t>Many methods apply, two pointer, hash map works better</t>
+  </si>
+  <si>
+    <t>Hashmap to store counts, compare key value is best</t>
   </si>
 </sst>
 </file>
@@ -866,11 +893,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C767-CD55-E64E-9BDE-3714FF4A145E}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2103,6 +2130,102 @@
         <v>157</v>
       </c>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>509</v>
+      </c>
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="1">
+        <v>44601</v>
+      </c>
+      <c r="J38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="1">
+        <v>44601</v>
+      </c>
+      <c r="J39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>532</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="1">
+        <v>44601</v>
+      </c>
+      <c r="J40" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF68E72-8933-2B4C-97DC-2A9A68BDA2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51EE2D8-9D91-F744-8D92-334531EFE578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="181">
   <si>
     <t>Number</t>
   </si>
@@ -547,6 +547,27 @@
   </si>
   <si>
     <t>Split to half, mod, previous ^ 10</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Tail recursion, compare value and connect to next</t>
+  </si>
+  <si>
+    <t>If use iteration, space complexity is O(1)</t>
+  </si>
+  <si>
+    <t>K-th Symbol in Grammar</t>
+  </si>
+  <si>
+    <t>Find pattern, recursion and compare half round before, round</t>
+  </si>
+  <si>
+    <t>O(log k)</t>
+  </si>
+  <si>
+    <t>Use single string instead of array or other data structure</t>
   </si>
 </sst>
 </file>
@@ -809,9 +830,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J49" sqref="J48:J49"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2212,8 +2233,70 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>21</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="2">
+        <v>44603</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>779</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" s="2">
+        <v>44603</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51EE2D8-9D91-F744-8D92-334531EFE578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC66997-45C9-E244-8C6B-81769E000D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="187">
   <si>
     <t>Number</t>
   </si>
@@ -568,6 +568,24 @@
   </si>
   <si>
     <t>Use single string instead of array or other data structure</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>Three Pointers</t>
+  </si>
+  <si>
+    <t>Paste array to another, use three pointers, two read, 1 write</t>
+  </si>
+  <si>
+    <t>O(m + n)</t>
+  </si>
+  <si>
+    <t>O(m)</t>
+  </si>
+  <si>
+    <t>Three pointers</t>
   </si>
 </sst>
 </file>
@@ -830,9 +848,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2297,7 +2315,38 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>88</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="2">
+        <v>44604</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC66997-45C9-E244-8C6B-81769E000D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C9486D-66BC-714E-B971-ECC081E8EE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="194">
   <si>
     <t>Number</t>
   </si>
@@ -586,6 +586,27 @@
   </si>
   <si>
     <t>Three pointers</t>
+  </si>
+  <si>
+    <t>Solve it faster</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Compare character in string, use array with 256 length(ASCII)</t>
+  </si>
+  <si>
+    <t>O(N)</t>
+  </si>
+  <si>
+    <t>Containskey, add to the map, check if map the same</t>
+  </si>
+  <si>
+    <t>two word maps, put if absent, compare</t>
   </si>
 </sst>
 </file>
@@ -625,12 +646,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,8 +871,8 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L50" sqref="L50"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -955,7 +977,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>23</v>
@@ -983,6 +1005,12 @@
       </c>
       <c r="L3" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="M3" s="5">
+        <v>44605</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1931,7 +1959,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>24</v>
       </c>
@@ -1963,7 +1991,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>6</v>
       </c>
@@ -1995,7 +2023,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>206</v>
       </c>
@@ -2027,7 +2055,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>700</v>
       </c>
@@ -2059,7 +2087,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -2091,7 +2119,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>509</v>
       </c>
@@ -2123,7 +2151,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>70</v>
       </c>
@@ -2155,7 +2183,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>532</v>
       </c>
@@ -2187,7 +2215,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>50</v>
       </c>
@@ -2219,7 +2247,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>372</v>
       </c>
@@ -2251,7 +2279,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>21</v>
       </c>
@@ -2283,7 +2311,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>779</v>
       </c>
@@ -2315,7 +2343,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>88</v>
       </c>
@@ -2347,9 +2375,46 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>205</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="2">
+        <v>44568</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K46" s="5">
+        <v>44606</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C9486D-66BC-714E-B971-ECC081E8EE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8213D6C4-43F4-DA4B-96AE-CF6C0ABEF951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="199">
   <si>
     <t>Number</t>
   </si>
@@ -607,13 +607,28 @@
   </si>
   <si>
     <t>two word maps, put if absent, compare</t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>Has Set #2</t>
+  </si>
+  <si>
+    <t>Hashmap loop, list loop or bit operation</t>
+  </si>
+  <si>
+    <t>Hashset add and remove</t>
+  </si>
+  <si>
+    <t>Bit operations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -624,6 +639,10 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -870,9 +889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2413,7 +2432,44 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>136</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="2">
+        <v>44564</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K47" s="5">
+        <v>44607</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3368,6 +3424,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8213D6C4-43F4-DA4B-96AE-CF6C0ABEF951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED452D1-C92C-6842-BEC2-89E4C63DF007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="208">
   <si>
     <t>Number</t>
   </si>
@@ -622,6 +622,33 @@
   </si>
   <si>
     <t>Bit operations</t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees II</t>
+  </si>
+  <si>
+    <t>Helper method, recursion, for loop, left(i - 1), right(n-i)</t>
+  </si>
+  <si>
+    <t>O(4^n/n^(1/2)</t>
+  </si>
+  <si>
+    <t>Very hard problem, for + recursion, nested for, build trees then connect</t>
+  </si>
+  <si>
+    <t>Sort an Array</t>
+  </si>
+  <si>
+    <t>Recursion #2</t>
+  </si>
+  <si>
+    <t>Merge sort, top-down solution, using pivot</t>
+  </si>
+  <si>
+    <t>O(N log N)</t>
+  </si>
+  <si>
+    <t>A classic merge sort problem and solution</t>
   </si>
 </sst>
 </file>
@@ -889,9 +916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -904,7 +931,7 @@
     <col min="6" max="6" width="53.33203125" customWidth="1"/>
     <col min="7" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
-    <col min="10" max="10" width="50.5" customWidth="1"/>
+    <col min="10" max="10" width="60.33203125" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" customWidth="1"/>
     <col min="12" max="12" width="43.83203125" customWidth="1"/>
     <col min="13" max="13" width="16.83203125" customWidth="1"/>
@@ -2470,23 +2497,85 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I48" s="5">
+        <v>44609</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>912</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I49" s="5">
+        <v>44609</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED452D1-C92C-6842-BEC2-89E4C63DF007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ABB2A9-0DDF-8443-9665-9D6D691DB8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="217">
   <si>
     <t>Number</t>
   </si>
@@ -649,6 +649,33 @@
   </si>
   <si>
     <t>A classic merge sort problem and solution</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Recursion #3</t>
+  </si>
+  <si>
+    <t>Recursion, set up low and high range, null at start</t>
+  </si>
+  <si>
+    <t>Recursion or iteration, low and high range, Inorder traversal</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>From bottom to top, each time move up or move right</t>
+  </si>
+  <si>
+    <t>O(n + m)</t>
+  </si>
+  <si>
+    <t>Continuously go up, dp, loop through shortest dim</t>
   </si>
 </sst>
 </file>
@@ -670,6 +697,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -916,9 +944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -927,7 +955,7 @@
     <col min="2" max="2" width="52" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
     <col min="6" max="6" width="53.33203125" customWidth="1"/>
     <col min="7" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
@@ -2561,8 +2589,70 @@
         <v>207</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>98</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="5">
+        <v>44610</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>240</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="5">
+        <v>44610</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ABB2A9-0DDF-8443-9665-9D6D691DB8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588A0CD4-F7B1-5F4D-86C8-6BE4BCA24410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="226">
   <si>
     <t>Number</t>
   </si>
@@ -676,6 +676,33 @@
   </si>
   <si>
     <t>Continuously go up, dp, loop through shortest dim</t>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>Hashmap store values, subtract order, limited number length</t>
+  </si>
+  <si>
+    <t>Hashmap, for loop but O(1)</t>
+  </si>
+  <si>
+    <t>Greedy #1</t>
+  </si>
+  <si>
+    <t>Remove Covered Intervals</t>
+  </si>
+  <si>
+    <t>Greedy Algorithm</t>
+  </si>
+  <si>
+    <t>Use comparator compare start, if same start, longer comes first</t>
+  </si>
+  <si>
+    <t>O(log N)</t>
+  </si>
+  <si>
+    <t>Customize comparator</t>
   </si>
 </sst>
 </file>
@@ -944,9 +971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -956,7 +983,7 @@
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="6" width="53.33203125" customWidth="1"/>
+    <col min="6" max="6" width="53.83203125" customWidth="1"/>
     <col min="7" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
     <col min="10" max="10" width="60.33203125" customWidth="1"/>
@@ -2653,8 +2680,70 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>13</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="5">
+        <v>44611</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>1288</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I53" s="5">
+        <v>44612</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588A0CD4-F7B1-5F4D-86C8-6BE4BCA24410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD60F53-08ED-5443-A1DA-76043B987928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="233">
   <si>
     <t>Number</t>
   </si>
@@ -703,6 +703,27 @@
   </si>
   <si>
     <t>Customize comparator</t>
+  </si>
+  <si>
+    <t>N-Queens</t>
+  </si>
+  <si>
+    <t>Hashset of col, diagonal, anti-diagonal, find patterns</t>
+  </si>
+  <si>
+    <t>Recursion, backtrack, delete hashset content</t>
+  </si>
+  <si>
+    <t>N-Queens II</t>
+  </si>
+  <si>
+    <t>Same as 52, 2D array, array to list, modify result backtrack</t>
+  </si>
+  <si>
+    <t>O(N^2)</t>
+  </si>
+  <si>
+    <t>Recursion, backtrack, delete hashset content, I more helper method</t>
   </si>
 </sst>
 </file>
@@ -971,9 +992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2744,8 +2765,70 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="5">
+        <v>44613</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>51</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I55" s="5">
+        <v>44613</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD60F53-08ED-5443-A1DA-76043B987928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305D0BE8-E527-9240-AAD6-C6A1E4A9DAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="237">
   <si>
     <t>Number</t>
   </si>
@@ -724,6 +724,18 @@
   </si>
   <si>
     <t>Recursion, backtrack, delete hashset content, I more helper method</t>
+  </si>
+  <si>
+    <t>Robot Room Cleaner</t>
+  </si>
+  <si>
+    <t>Always go right, define go back, 4 directions, visited in hashmap</t>
+  </si>
+  <si>
+    <t>O(N-M)</t>
+  </si>
+  <si>
+    <t>Create a class to do the cleaning, define direction in 2D array</t>
   </si>
 </sst>
 </file>
@@ -993,8 +1005,8 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2829,7 +2841,38 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>489</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I56" s="5">
+        <v>44614</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305D0BE8-E527-9240-AAD6-C6A1E4A9DAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A82DD9-E6D5-574A-B5E5-3A51D4E87C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="241">
   <si>
     <t>Number</t>
   </si>
@@ -736,6 +736,18 @@
   </si>
   <si>
     <t>Create a class to do the cleaning, define direction in 2D array</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t>Breakdown problem, 2D array, for 1-9, place number, remove</t>
+  </si>
+  <si>
+    <t>O(1)(fixed number)</t>
+  </si>
+  <si>
+    <t>for loop through all loc on the board, multiple methods divide problem</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J62" sqref="J62"/>
     </sheetView>
@@ -2873,7 +2885,38 @@
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>37</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="5">
+        <v>44615</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A82DD9-E6D5-574A-B5E5-3A51D4E87C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621701EF-3FEE-9849-AA2D-DF48539D9C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34960" yWindow="5120" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="246">
   <si>
     <t>Number</t>
   </si>
@@ -748,6 +748,21 @@
   </si>
   <si>
     <t>for loop through all loc on the board, multiple methods divide problem</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>Recursion, base case add solution, other backtrack</t>
+  </si>
+  <si>
+    <t>O(kC^k_N)</t>
+  </si>
+  <si>
+    <t>O(C^k_N)</t>
+  </si>
+  <si>
+    <t>loop through numbers and +1 for backtrack, remove from list</t>
   </si>
 </sst>
 </file>
@@ -1016,9 +1031,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J62" sqref="J62"/>
+      <selection pane="bottomLeft" activeCell="W63" sqref="W63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2917,7 +2932,38 @@
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>77</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I58" s="5">
+        <v>44616</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621701EF-3FEE-9849-AA2D-DF48539D9C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D4CA45-9D6F-3144-9873-8AA02D76B70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34960" yWindow="5120" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="1360" windowWidth="23520" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="252">
   <si>
     <t>Number</t>
   </si>
@@ -763,6 +763,24 @@
   </si>
   <si>
     <t>loop through numbers and +1 for backtrack, remove from list</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>Recursion, null and compare value, or iteration + queue</t>
+  </si>
+  <si>
+    <t>Simple recursion works well</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>Backtracking under conditions, open flag, close flag</t>
+  </si>
+  <si>
+    <t>Backtracking, string builder, open and close flag</t>
   </si>
 </sst>
 </file>
@@ -1031,9 +1049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W63" sqref="W63"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2964,8 +2982,70 @@
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>100</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I59" s="5">
+        <v>44617</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>22</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I60" s="5">
+        <v>44617</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D4CA45-9D6F-3144-9873-8AA02D76B70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2993B7E-C1B0-EA40-8460-0BF528023EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1360" windowWidth="23520" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="1120" windowWidth="23520" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="257">
   <si>
     <t>Number</t>
   </si>
@@ -781,6 +781,21 @@
   </si>
   <si>
     <t>Backtracking, string builder, open and close flag</t>
+  </si>
+  <si>
+    <t>recursion method, improved coding</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map char and string, backtrack, for loop the char array of map </t>
+  </si>
+  <si>
+    <t>O(4^N*N)</t>
+  </si>
+  <si>
+    <t>Backtracking, hashmap, letter character array</t>
   </si>
 </sst>
 </file>
@@ -1049,9 +1064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1581,6 +1596,12 @@
       <c r="J15" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="K15" s="5">
+        <v>44618</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1613,6 +1634,12 @@
       <c r="J16" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="K16" s="5">
+        <v>44618</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -3025,7 +3052,7 @@
         <v>15</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>116</v>
@@ -3046,7 +3073,38 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>17</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="5">
+        <v>44618</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2993B7E-C1B0-EA40-8460-0BF528023EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4868AB3-B34E-3646-9620-B23BA2269E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="1120" windowWidth="23520" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="260">
   <si>
     <t>Number</t>
   </si>
@@ -796,6 +796,15 @@
   </si>
   <si>
     <t>Backtracking, hashmap, letter character array</t>
+  </si>
+  <si>
+    <t>Convert Binary Search Tree to Sorted Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Circle linked list, set first node and last node, set leftmost as first</t>
+  </si>
+  <si>
+    <t>Go to leftmost, each time set node to last, recursion helper void</t>
   </si>
 </sst>
 </file>
@@ -1064,9 +1073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1085,7 @@
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="6" width="53.83203125" customWidth="1"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
     <col min="7" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
     <col min="10" max="10" width="60.33203125" customWidth="1"/>
@@ -3105,7 +3114,38 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>426</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="5">
+        <v>44619</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4868AB3-B34E-3646-9620-B23BA2269E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C57A40-EC9A-C14F-97C8-EB28591818E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$62</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="263">
   <si>
     <t>Number</t>
   </si>
@@ -805,6 +808,15 @@
   </si>
   <si>
     <t>Go to leftmost, each time set node to last, recursion helper void</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>Stack store index, compare when right larger than left</t>
+  </si>
+  <si>
+    <t>Brute force is also good but exceed limit time, same as recursion method</t>
   </si>
 </sst>
 </file>
@@ -1073,9 +1085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3146,7 +3158,38 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>84</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="5">
+        <v>44620</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C57A40-EC9A-C14F-97C8-EB28591818E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE03D109-14B8-6749-A710-88A89C97059B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="269">
   <si>
     <t>Number</t>
   </si>
@@ -817,6 +817,24 @@
   </si>
   <si>
     <t>Brute force is also good but exceed limit time, same as recursion method</t>
+  </si>
+  <si>
+    <t>better coding</t>
+  </si>
+  <si>
+    <t>Word Search</t>
+  </si>
+  <si>
+    <t>word limit-true, exceed bound-false, compare char, loop to backtrack, mark visited</t>
+  </si>
+  <si>
+    <t>O(N*3^L)</t>
+  </si>
+  <si>
+    <t>O(L)</t>
+  </si>
+  <si>
+    <t>Nested loop to backtrack ensure each cell can be the starting point</t>
   </si>
 </sst>
 </file>
@@ -1086,8 +1104,8 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1097,7 +1115,7 @@
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="6" width="56" customWidth="1"/>
+    <col min="6" max="6" width="72" customWidth="1"/>
     <col min="7" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
     <col min="10" max="10" width="60.33203125" customWidth="1"/>
@@ -2051,6 +2069,12 @@
       <c r="J28" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="K28" s="5">
+        <v>44621</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -2710,7 +2734,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>912</v>
       </c>
@@ -2742,7 +2766,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>98</v>
       </c>
@@ -2774,7 +2798,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>240</v>
       </c>
@@ -2806,7 +2830,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>13</v>
       </c>
@@ -2838,7 +2862,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>1288</v>
       </c>
@@ -2870,7 +2894,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -2902,7 +2926,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>51</v>
       </c>
@@ -2934,7 +2958,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>489</v>
       </c>
@@ -2966,7 +2990,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>37</v>
       </c>
@@ -2998,7 +3022,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>77</v>
       </c>
@@ -3030,7 +3054,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>100</v>
       </c>
@@ -3062,7 +3086,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>22</v>
       </c>
@@ -3094,7 +3118,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>17</v>
       </c>
@@ -3125,8 +3149,14 @@
       <c r="J61" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K61" s="5">
+        <v>44621</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>426</v>
       </c>
@@ -3158,7 +3188,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>84</v>
       </c>
@@ -3190,7 +3220,38 @@
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>79</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I64" s="5">
+        <v>44621</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE03D109-14B8-6749-A710-88A89C97059B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072ED904-F8F6-0945-BA31-3E19E9E1EE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="276">
   <si>
     <t>Number</t>
   </si>
@@ -835,6 +835,27 @@
   </si>
   <si>
     <t>Nested loop to backtrack ensure each cell can be the starting point</t>
+  </si>
+  <si>
+    <t>The Skyline Problem</t>
+  </si>
+  <si>
+    <t>Divde and conquer, similar to merge sort, divide and merge, only left top, right bottom</t>
+  </si>
+  <si>
+    <t>Very hard probem, need to do it second time</t>
+  </si>
+  <si>
+    <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>Two pointer + for loop to compare</t>
+  </si>
+  <si>
+    <t>O(T)</t>
+  </si>
+  <si>
+    <t>A simple for loop comparison, two pointers</t>
   </si>
 </sst>
 </file>
@@ -1103,9 +1124,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
+      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3199,7 +3220,7 @@
         <v>110</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>92</v>
@@ -3252,22 +3273,84 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>218</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" s="5">
+        <v>44622</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>392</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="5">
+        <v>44622</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072ED904-F8F6-0945-BA31-3E19E9E1EE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA863FC-72C2-4144-B9CF-4BFF19464374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="281">
   <si>
     <t>Number</t>
   </si>
@@ -856,6 +856,21 @@
   </si>
   <si>
     <t>A simple for loop comparison, two pointers</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>Backtracking + for loop, condition return</t>
+  </si>
+  <si>
+    <t>O(N^{T/M + 1})</t>
+  </si>
+  <si>
+    <t>O(T/M)</t>
+  </si>
+  <si>
+    <t>Backtracking classical problem</t>
   </si>
 </sst>
 </file>
@@ -1124,9 +1139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3337,7 +3352,38 @@
         <v>275</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>39</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I67" s="5">
+        <v>44623</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA863FC-72C2-4144-B9CF-4BFF19464374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE27186-27AA-AF42-856E-506C66B099D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="284">
   <si>
     <t>Number</t>
   </si>
@@ -871,6 +871,15 @@
   </si>
   <si>
     <t>Backtracking classical problem</t>
+  </si>
+  <si>
+    <t>Combination Sum II</t>
+  </si>
+  <si>
+    <t>Backtracking + for loop, condition return, sort, skip positions</t>
+  </si>
+  <si>
+    <t>O(2^N)</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1150,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
+      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3384,7 +3393,38 @@
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>40</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I68" s="5">
+        <v>44624</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE27186-27AA-AF42-856E-506C66B099D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B115F7B8-FE71-8D49-A3EE-02275776EA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="290">
   <si>
     <t>Number</t>
   </si>
@@ -880,6 +880,24 @@
   </si>
   <si>
     <t>O(2^N)</t>
+  </si>
+  <si>
+    <t>Fully understand inorder traversal implementation</t>
+  </si>
+  <si>
+    <t>Inorder Sucessor in BST</t>
+  </si>
+  <si>
+    <t>BST Tutorial</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>Use BST properties, iterative solution, change root to left or right</t>
+  </si>
+  <si>
+    <t>Simple solution, base case with null, very elegant solution</t>
   </si>
 </sst>
 </file>
@@ -1148,9 +1166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2842,6 +2860,12 @@
       <c r="J50" s="4" t="s">
         <v>211</v>
       </c>
+      <c r="K50" s="5">
+        <v>44625</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
@@ -3425,7 +3449,38 @@
         <v>280</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>285</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="5">
+        <v>44625</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B115F7B8-FE71-8D49-A3EE-02275776EA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4989CF-B39C-E34A-AA28-7DA7676CFE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="293">
   <si>
     <t>Number</t>
   </si>
@@ -898,6 +898,15 @@
   </si>
   <si>
     <t>Simple solution, base case with null, very elegant solution</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>Inorder, recursion, pop and peek, use stack to store value, reverse of inorder</t>
+  </si>
+  <si>
+    <t>Classical problem of inorder traversal with stack</t>
   </si>
 </sst>
 </file>
@@ -1166,9 +1175,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
+      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3481,7 +3490,38 @@
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>173</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I70" s="5">
+        <v>44626</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4989CF-B39C-E34A-AA28-7DA7676CFE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73501285-CAD3-F04C-8061-32FBF88C557F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="298">
   <si>
     <t>Number</t>
   </si>
@@ -907,6 +907,21 @@
   </si>
   <si>
     <t>Classical problem of inorder traversal with stack</t>
+  </si>
+  <si>
+    <t>Delete Node in a BST</t>
+  </si>
+  <si>
+    <t>Recursion, BST properties, children cases</t>
+  </si>
+  <si>
+    <t>Classical problem of removing node</t>
+  </si>
+  <si>
+    <t>Insert into a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>BST properties, compare value and go to right, left tree</t>
   </si>
 </sst>
 </file>
@@ -1175,9 +1190,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3522,8 +3537,70 @@
         <v>292</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>701</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="5">
+        <v>44627</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>450</v>
+      </c>
+      <c r="B72" t="s">
+        <v>293</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I72" s="5">
+        <v>44629</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73501285-CAD3-F04C-8061-32FBF88C557F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9529EA6-AE0C-6A42-B0A1-14A510669727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="303">
   <si>
     <t>Number</t>
   </si>
@@ -922,6 +922,21 @@
   </si>
   <si>
     <t>BST properties, compare value and go to right, left tree</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in a Stream</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Heap-priority queue, offer and poll, no need to build the structure</t>
+  </si>
+  <si>
+    <t>O(Nlog(N) + Mlog(k))</t>
+  </si>
+  <si>
+    <t>Heap structure and properties, keep k element in heap</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1207,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3601,7 +3616,38 @@
         <v>295</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>703</v>
+      </c>
+      <c r="B73" t="s">
+        <v>298</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" s="5">
+        <v>44630</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9529EA6-AE0C-6A42-B0A1-14A510669727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921F64D3-5CC9-B847-91C1-DAD5E1508940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="306">
   <si>
     <t>Number</t>
   </si>
@@ -937,6 +937,15 @@
   </si>
   <si>
     <t>Heap structure and properties, keep k element in heap</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Find node value in between, recursion</t>
+  </si>
+  <si>
+    <t>BST value in between, smaller, larger</t>
   </si>
 </sst>
 </file>
@@ -1205,9 +1214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
+      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3648,8 +3657,41 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>235</v>
+      </c>
+      <c r="B74" t="s">
+        <v>303</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" s="5">
+        <v>44631</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D75" s="4"/>
+    </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921F64D3-5CC9-B847-91C1-DAD5E1508940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443601AC-E032-694F-8683-01E9FCB0A0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="313">
   <si>
     <t>Number</t>
   </si>
@@ -946,6 +946,27 @@
   </si>
   <si>
     <t>BST value in between, smaller, larger</t>
+  </si>
+  <si>
+    <t>Contains Duplicate III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree Set </t>
+  </si>
+  <si>
+    <t>Use Tree set ceiling and floor, compare the difference, keep sliding window</t>
+  </si>
+  <si>
+    <t>O(nlog(min(n, k)))</t>
+  </si>
+  <si>
+    <t>O(min(n, k))</t>
+  </si>
+  <si>
+    <t>Treeset, bucket sort, nested for loop</t>
+  </si>
+  <si>
+    <t>Treeset</t>
   </si>
 </sst>
 </file>
@@ -1214,9 +1235,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3369,7 +3390,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>218</v>
       </c>
@@ -3401,7 +3422,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>392</v>
       </c>
@@ -3433,7 +3454,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>39</v>
       </c>
@@ -3465,7 +3486,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>40</v>
       </c>
@@ -3497,7 +3518,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>285</v>
       </c>
@@ -3529,7 +3550,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>173</v>
       </c>
@@ -3561,7 +3582,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>701</v>
       </c>
@@ -3593,7 +3614,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>450</v>
       </c>
@@ -3625,7 +3646,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>703</v>
       </c>
@@ -3657,7 +3678,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>235</v>
       </c>
@@ -3689,14 +3710,49 @@
         <v>305</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>220</v>
+      </c>
+      <c r="B75" t="s">
+        <v>306</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I75" s="5">
+        <v>44572</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="K75" s="5">
+        <v>44632</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443601AC-E032-694F-8683-01E9FCB0A0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F1CAB6-D270-3D41-B833-EAB72C5FD1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="316">
   <si>
     <t>Number</t>
   </si>
@@ -967,6 +967,15 @@
   </si>
   <si>
     <t>Treeset</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>Recursion find height for subtrees, and compare abs value</t>
+  </si>
+  <si>
+    <t>Find tree height, max left and right subtree</t>
   </si>
 </sst>
 </file>
@@ -1235,9 +1244,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L79" sqref="L79"/>
+      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3748,7 +3757,38 @@
         <v>312</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>110</v>
+      </c>
+      <c r="B76" t="s">
+        <v>313</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" s="5">
+        <v>44633</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
     <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F1CAB6-D270-3D41-B833-EAB72C5FD1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF8D638-71C7-654F-9934-153F5A764985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="319">
   <si>
     <t>Number</t>
   </si>
@@ -976,6 +976,15 @@
   </si>
   <si>
     <t>Find tree height, max left and right subtree</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Always insert the middle node as the root to tree</t>
+  </si>
+  <si>
+    <t>Find middle node</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1255,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
+      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3789,7 +3798,38 @@
         <v>315</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>108</v>
+      </c>
+      <c r="B77" t="s">
+        <v>316</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I77" s="5">
+        <v>44634</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
     <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF8D638-71C7-654F-9934-153F5A764985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A736B4-D9BB-7544-9082-FC1188CD8D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="322">
   <si>
     <t>Number</t>
   </si>
@@ -985,6 +985,15 @@
   </si>
   <si>
     <t>Find middle node</t>
+  </si>
+  <si>
+    <t>Minimum Remove to Make Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Stack to store index, pop index, use set to store removed items, string builder</t>
+  </si>
+  <si>
+    <t>Stack push and pop</t>
   </si>
 </sst>
 </file>
@@ -1253,9 +1262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
+      <selection pane="bottomLeft" activeCell="J82" sqref="J82:J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3830,7 +3839,38 @@
         <v>318</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1249</v>
+      </c>
+      <c r="B78" t="s">
+        <v>319</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="5">
+        <v>44635</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
     <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A736B4-D9BB-7544-9082-FC1188CD8D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223F7493-74FD-7B4B-AE80-96EF79231760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="329">
   <si>
     <t>Number</t>
   </si>
@@ -994,6 +994,27 @@
   </si>
   <si>
     <t>Stack push and pop</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Binary Search is more efficient than linear search</t>
+  </si>
+  <si>
+    <t>Integer to Roman</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Predefine value 0-9 in roman numeral using static final mapping</t>
+  </si>
+  <si>
+    <t>Private static final for all possibilities</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1285,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J82" sqref="J82:J83"/>
+      <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3871,8 +3892,70 @@
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>322</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="5">
+        <v>44636</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>325</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="5">
+        <v>44637</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223F7493-74FD-7B4B-AE80-96EF79231760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092CB896-DEA7-A542-B2F9-D4DE9935F23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="336">
   <si>
     <t>Number</t>
   </si>
@@ -1015,6 +1015,27 @@
   </si>
   <si>
     <t>Private static final for all possibilities</t>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>Recursion and move pointer</t>
+  </si>
+  <si>
+    <t>Recursion, leftmost</t>
+  </si>
+  <si>
+    <t>Permutation II</t>
+  </si>
+  <si>
+    <t>Similar to Permutation I but need to use hashset to find unique solution</t>
+  </si>
+  <si>
+    <t>O(P(N,k)) ~ O(n!)</t>
+  </si>
+  <si>
+    <t>Backtracking, collections swap, hashset</t>
   </si>
 </sst>
 </file>
@@ -1283,9 +1304,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
+      <selection pane="bottomLeft" activeCell="I87" sqref="I87:I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3956,22 +3977,84 @@
         <v>328</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>316</v>
+      </c>
+      <c r="B81" t="s">
+        <v>329</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="5">
+        <v>44638</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>47</v>
+      </c>
+      <c r="B82" t="s">
+        <v>332</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" s="5">
+        <v>44639</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092CB896-DEA7-A542-B2F9-D4DE9935F23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CBEE9C-7B22-AD43-8CED-69EFC6006343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="339">
   <si>
     <t>Number</t>
   </si>
@@ -1036,6 +1036,15 @@
   </si>
   <si>
     <t>Backtracking, collections swap, hashset</t>
+  </si>
+  <si>
+    <t>Minimum Domino Rotations For Equal Row</t>
+  </si>
+  <si>
+    <t>For loop, only need to check the first element of both int array</t>
+  </si>
+  <si>
+    <t>For loop, math.min</t>
   </si>
 </sst>
 </file>
@@ -1304,9 +1313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I87" sqref="I87:I88"/>
+      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4041,7 +4050,38 @@
         <v>335</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1007</v>
+      </c>
+      <c r="B83" t="s">
+        <v>336</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" s="5">
+        <v>44640</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CBEE9C-7B22-AD43-8CED-69EFC6006343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B046C04F-AFF3-9A44-9071-A49534521D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="342">
   <si>
     <t>Number</t>
   </si>
@@ -1045,6 +1045,15 @@
   </si>
   <si>
     <t>For loop, math.min</t>
+  </si>
+  <si>
+    <t>Partition Labels</t>
+  </si>
+  <si>
+    <t>Each time record last location, int[26], reach max location then add to solution</t>
+  </si>
+  <si>
+    <t>int[26] to record last location,use anchor to count length</t>
   </si>
 </sst>
 </file>
@@ -1313,9 +1322,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
+      <selection pane="bottomLeft" activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4082,7 +4091,38 @@
         <v>338</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>763</v>
+      </c>
+      <c r="B84" t="s">
+        <v>339</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" s="5">
+        <v>44641</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B046C04F-AFF3-9A44-9071-A49534521D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436F0E1D-B9E1-4B4E-80E7-62ECBDC47AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="346">
   <si>
     <t>Number</t>
   </si>
@@ -1054,6 +1054,18 @@
   </si>
   <si>
     <t>int[26] to record last location,use anchor to count length</t>
+  </si>
+  <si>
+    <t>Smallest String with a Given Numeric Value</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Put as many z to the end as possible, from last position to the start position</t>
+  </si>
+  <si>
+    <t>One for loop, end to start, math.min</t>
   </si>
 </sst>
 </file>
@@ -1323,8 +1335,8 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J84" sqref="J84"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4123,7 +4135,38 @@
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1663</v>
+      </c>
+      <c r="B85" t="s">
+        <v>342</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="5">
+        <v>44642</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436F0E1D-B9E1-4B4E-80E7-62ECBDC47AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139578A5-7530-704D-94D9-1D626ECCCBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="350">
   <si>
     <t>Number</t>
   </si>
@@ -1066,6 +1066,18 @@
   </si>
   <si>
     <t>One for loop, end to start, math.min</t>
+  </si>
+  <si>
+    <t>Broken Calculator</t>
+  </si>
+  <si>
+    <t>Start from the end value, each time divide two</t>
+  </si>
+  <si>
+    <t>O(log target)</t>
+  </si>
+  <si>
+    <t>While target larger than the start value, keep divide two</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1348,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
+      <selection pane="bottomLeft" activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4167,7 +4179,38 @@
         <v>345</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>991</v>
+      </c>
+      <c r="B86" t="s">
+        <v>346</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="5">
+        <v>44643</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139578A5-7530-704D-94D9-1D626ECCCBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483AC826-E993-2542-9BC1-DD591D58F2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="353">
   <si>
     <t>Number</t>
   </si>
@@ -1078,6 +1078,15 @@
   </si>
   <si>
     <t>While target larger than the start value, keep divide two</t>
+  </si>
+  <si>
+    <t>Boats to Save People</t>
+  </si>
+  <si>
+    <t>Each loop count a boat, from start and end</t>
+  </si>
+  <si>
+    <t>Two pointer problem, sort the array</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J91" sqref="J91"/>
     </sheetView>
@@ -4211,7 +4220,38 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>881</v>
+      </c>
+      <c r="B87" t="s">
+        <v>350</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I87" s="5">
+        <v>44644</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483AC826-E993-2542-9BC1-DD591D58F2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8025E632-115D-D049-B534-6B1FCEF0ACF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="375">
   <si>
     <t>Number</t>
   </si>
@@ -1087,6 +1087,72 @@
   </si>
   <si>
     <t>Two pointer problem, sort the array</t>
+  </si>
+  <si>
+    <t>Two City Scheduling</t>
+  </si>
+  <si>
+    <t>Sort arrays by the difference between them, assign group A and B</t>
+  </si>
+  <si>
+    <t>Sort array, greedy, comparator</t>
+  </si>
+  <si>
+    <t>The K Weakest Rows in a Matrix</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>Hashmap store values, or search by column then row</t>
+  </si>
+  <si>
+    <t>O(m * n)</t>
+  </si>
+  <si>
+    <t>Regard it as a grid, search by column then row</t>
+  </si>
+  <si>
+    <t>Binary search, two pointers, always low + (high - low)/2 as pivot</t>
+  </si>
+  <si>
+    <t>Classical binary search</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Heap #1</t>
+  </si>
+  <si>
+    <t>Max heap, priority queue, comparator in lambda expression</t>
+  </si>
+  <si>
+    <t>O(N log K)</t>
+  </si>
+  <si>
+    <t>O(k)</t>
+  </si>
+  <si>
+    <t>Max heap problem</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>Heap/HashMap</t>
+  </si>
+  <si>
+    <t>Hashmap + write comparator or priority queue with max heap</t>
+  </si>
+  <si>
+    <t>O(N + k)</t>
+  </si>
+  <si>
+    <t>hashmap + comparator and sort</t>
+  </si>
+  <si>
+    <t>Maintain k min heap</t>
   </si>
 </sst>
 </file>
@@ -1355,9 +1421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J91" sqref="J91"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1372,7 +1438,7 @@
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
     <col min="10" max="10" width="60.33203125" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="43.83203125" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" customWidth="1"/>
     <col min="13" max="13" width="16.83203125" customWidth="1"/>
     <col min="14" max="14" width="28" customWidth="1"/>
     <col min="15" max="26" width="10.5" customWidth="1"/>
@@ -3797,6 +3863,12 @@
       <c r="J73" s="4" t="s">
         <v>302</v>
       </c>
+      <c r="K73" s="5">
+        <v>44648</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -4028,7 +4100,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>316</v>
       </c>
@@ -4060,7 +4132,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>47</v>
       </c>
@@ -4092,7 +4164,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1007</v>
       </c>
@@ -4124,7 +4196,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>763</v>
       </c>
@@ -4156,7 +4228,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1663</v>
       </c>
@@ -4188,7 +4260,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>991</v>
       </c>
@@ -4220,7 +4292,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>881</v>
       </c>
@@ -4252,15 +4324,176 @@
         <v>352</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1029</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="5">
+        <v>44645</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1337</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="5">
+        <v>44646</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>704</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="5">
+        <v>44647</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>215</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I91" s="5">
+        <v>44648</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>347</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I92" s="5">
+        <v>44577</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K92" s="5">
+        <v>44648</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8025E632-115D-D049-B534-6B1FCEF0ACF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3482A802-3608-4848-8718-CB76C7FA0F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="381">
   <si>
     <t>Number</t>
   </si>
@@ -1153,6 +1153,24 @@
   </si>
   <si>
     <t>Maintain k min heap</t>
+  </si>
+  <si>
+    <t>Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>Hash Set #1</t>
+  </si>
+  <si>
+    <t>HashSet/HashMap</t>
+  </si>
+  <si>
+    <t>Multiple way to solve it, easy</t>
+  </si>
+  <si>
+    <t>Hashmap</t>
+  </si>
+  <si>
+    <t>Hashset, slower than hashmap</t>
   </si>
 </sst>
 </file>
@@ -1421,9 +1439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
+      <selection pane="bottomLeft" activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4490,7 +4508,44 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>287</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="5">
+        <v>44566</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="K93" s="5">
+        <v>44649</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
     <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3482A802-3608-4848-8718-CB76C7FA0F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB45B201-B25F-364A-B614-E72DD1CA78CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="385">
   <si>
     <t>Number</t>
   </si>
@@ -1171,6 +1171,18 @@
   </si>
   <si>
     <t>Hashset, slower than hashmap</t>
+  </si>
+  <si>
+    <t>Last Stone Weight</t>
+  </si>
+  <si>
+    <t>Heap/Bucket Sort</t>
+  </si>
+  <si>
+    <t>Heap and set the array list</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
   </si>
 </sst>
 </file>
@@ -1439,9 +1451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K97" sqref="K97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4405,6 +4417,12 @@
       <c r="J89" s="4" t="s">
         <v>360</v>
       </c>
+      <c r="K89" s="5">
+        <v>44650</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
@@ -4546,8 +4564,55 @@
         <v>380</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1046</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I94" s="5">
+        <v>44650</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>378</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
     <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB45B201-B25F-364A-B614-E72DD1CA78CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC7DAC7-5C8F-834A-90C2-D91B0757FB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="395">
   <si>
     <t>Number</t>
   </si>
@@ -1183,6 +1183,36 @@
   </si>
   <si>
     <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Min heap with custom node, content, row and column</t>
+  </si>
+  <si>
+    <t>O(X)</t>
+  </si>
+  <si>
+    <t>Nested for loop with heap</t>
+  </si>
+  <si>
+    <t>Min heap with meeting ending time, custom comparator</t>
+  </si>
+  <si>
+    <t>min heap problem</t>
+  </si>
+  <si>
+    <t>K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t>Sort with custom comparator, or create sturcture store index and distance, with heap</t>
+  </si>
+  <si>
+    <t>O(N log k)</t>
+  </si>
+  <si>
+    <t>Check quickselect solution</t>
   </si>
 </sst>
 </file>
@@ -1451,9 +1481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
+      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4612,24 +4642,101 @@
       <c r="E95" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F95" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I95" s="5">
+        <v>44650</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>253</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I96" s="5">
+        <v>44651</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>973</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I97" s="5">
+        <v>44651</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC7DAC7-5C8F-834A-90C2-D91B0757FB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AE19F4-3BC8-EF48-8EE1-3EE94815D535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="409">
   <si>
     <t>Number</t>
   </si>
@@ -1213,6 +1213,48 @@
   </si>
   <si>
     <t>Check quickselect solution</t>
+  </si>
+  <si>
+    <t>swap method</t>
+  </si>
+  <si>
+    <t>Count Complete Tree Nodes</t>
+  </si>
+  <si>
+    <t>Recursion #1</t>
+  </si>
+  <si>
+    <t>Basic recursion problem</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Find the pattern, swap element, while loop, reverse the array using swap</t>
+  </si>
+  <si>
+    <t>Swap and array</t>
+  </si>
+  <si>
+    <t>Need to find pattern</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Connect Sticks</t>
+  </si>
+  <si>
+    <t>Create min heap, each time poll two elements and put back to min heap</t>
+  </si>
+  <si>
+    <t>Min heap basic problem</t>
+  </si>
+  <si>
+    <t>Furthest Building You Can Reach</t>
+  </si>
+  <si>
+    <t>Heap #2</t>
+  </si>
+  <si>
+    <t>Heap/Binary Search</t>
   </si>
 </sst>
 </file>
@@ -1481,9 +1523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2058,7 +2100,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>104</v>
       </c>
@@ -2096,7 +2138,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>101</v>
       </c>
@@ -2128,7 +2170,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>112</v>
       </c>
@@ -2160,7 +2202,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>250</v>
       </c>
@@ -2192,7 +2234,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>150</v>
       </c>
@@ -2224,7 +2266,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>106</v>
       </c>
@@ -2256,7 +2298,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>105</v>
       </c>
@@ -2288,7 +2330,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>116</v>
       </c>
@@ -2320,7 +2362,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>117</v>
       </c>
@@ -2352,7 +2394,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>236</v>
       </c>
@@ -2384,7 +2426,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>297</v>
       </c>
@@ -2416,7 +2458,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>46</v>
       </c>
@@ -2454,7 +2496,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1507</v>
       </c>
@@ -2486,7 +2528,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>567</v>
       </c>
@@ -2518,7 +2560,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>389</v>
       </c>
@@ -2550,7 +2592,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>344</v>
       </c>
@@ -2586,6 +2628,12 @@
       </c>
       <c r="L32" s="1" t="s">
         <v>139</v>
+      </c>
+      <c r="M32" s="5">
+        <v>44652</v>
+      </c>
+      <c r="N32" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4690,7 +4738,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>973</v>
       </c>
@@ -4722,21 +4770,137 @@
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>222</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I98" s="5">
+        <v>44652</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>31</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="5">
+        <v>44579</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="K99" s="5">
+        <v>44653</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1167</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I100" s="5">
+        <v>44653</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1642</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AE19F4-3BC8-EF48-8EE1-3EE94815D535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFF65E4-65CE-B449-8EE0-C53E27AFB5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="414">
   <si>
     <t>Number</t>
   </si>
@@ -1251,10 +1251,25 @@
     <t>Furthest Building You Can Reach</t>
   </si>
   <si>
-    <t>Heap #2</t>
-  </si>
-  <si>
     <t>Heap/Binary Search</t>
+  </si>
+  <si>
+    <t>Find Medium from Data Stream</t>
+  </si>
+  <si>
+    <t>Two heap</t>
+  </si>
+  <si>
+    <t>Two max heap and min heap, add to max heap, balance two heap size</t>
+  </si>
+  <si>
+    <t>Two heap solution</t>
+  </si>
+  <si>
+    <t>Create a heap to store ladder number, poll smallest one to use bricks</t>
+  </si>
+  <si>
+    <t>Poll heap elements then deduct brick number</t>
   </si>
 </sst>
 </file>
@@ -1523,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
@@ -4883,14 +4898,59 @@
         <v>15</v>
       </c>
       <c r="D101" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="F101" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I101" s="5">
+        <v>44653</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>295</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="G101" s="4"/>
-    </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C102" t="s">
+        <v>110</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I102" s="5">
+        <v>44654</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
     <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFF65E4-65CE-B449-8EE0-C53E27AFB5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810512E9-21F3-3042-B4AA-7ED173FE93CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="429">
   <si>
     <t>Number</t>
   </si>
@@ -1270,6 +1270,51 @@
   </si>
   <si>
     <t>Poll heap elements then deduct brick number</t>
+  </si>
+  <si>
+    <t>Swapping Nodes in a Linked List</t>
+  </si>
+  <si>
+    <t>LinkedList #1</t>
+  </si>
+  <si>
+    <t>Use 1,2 or 3 pass to loop through the linked list, find length then find kth node</t>
+  </si>
+  <si>
+    <t>Loop through the linked list</t>
+  </si>
+  <si>
+    <t>Faster speed to solve the problem</t>
+  </si>
+  <si>
+    <t>Sqrt(x)</t>
+  </si>
+  <si>
+    <t>Binary search to compare the target, return the high pointer, or use math</t>
+  </si>
+  <si>
+    <t>Binary search</t>
+  </si>
+  <si>
+    <t>Binary search or math</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t>Basic binary search problem or brute force</t>
+  </si>
+  <si>
+    <t>Straight forward binary search problem</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Find the rotate index, then sort subarray/one-pass binary search with conditions</t>
+  </si>
+  <si>
+    <t>Find rotate index, sort all the array, then find the index using bs</t>
   </si>
 </sst>
 </file>
@@ -1538,9 +1583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4548,6 +4593,12 @@
       <c r="J90" s="4" t="s">
         <v>362</v>
       </c>
+      <c r="K90" s="5">
+        <v>44656</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
@@ -4951,10 +5002,140 @@
         <v>411</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1721</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" s="5">
+        <v>44655</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>69</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C104" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" s="5">
+        <v>44595</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="K104" s="5">
+        <v>44656</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>374</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C105" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" s="5">
+        <v>44656</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>33</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" s="5">
+        <v>44656</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
     <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810512E9-21F3-3042-B4AA-7ED173FE93CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2246A3BA-28B7-E949-B9D2-5104D6BCF6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="438">
   <si>
     <t>Number</t>
   </si>
@@ -1315,6 +1315,33 @@
   </si>
   <si>
     <t>Find rotate index, sort all the array, then find the index using bs</t>
+  </si>
+  <si>
+    <t>First Bad Version</t>
+  </si>
+  <si>
+    <t>Binary search template 2, while left == right</t>
+  </si>
+  <si>
+    <t>A twisted version of basic binary search</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Binary search, find element larger than next element, recursively or iteratively</t>
+  </si>
+  <si>
+    <t>Binary search or other multiple ways to solve</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Binary search compare current value with the edge value in the array</t>
+  </si>
+  <si>
+    <t>Binary search compare mid with left, right edge case</t>
   </si>
 </sst>
 </file>
@@ -1583,9 +1610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J112" sqref="J112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5136,9 +5163,102 @@
         <v>428</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>278</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" s="5">
+        <v>44657</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>162</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" s="5">
+        <v>44657</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>153</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" s="5">
+        <v>44657</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
     <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2246A3BA-28B7-E949-B9D2-5104D6BCF6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F1299C-D8A4-744F-A453-194AACC59687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="443">
   <si>
     <t>Number</t>
   </si>
@@ -1342,6 +1342,21 @@
   </si>
   <si>
     <t>Binary search compare mid with left, right edge case</t>
+  </si>
+  <si>
+    <t>Max Area of Island</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>Search grids, one by one, search grids in 4 directions</t>
+  </si>
+  <si>
+    <t>O(R*C)</t>
+  </si>
+  <si>
+    <t>DFS basic problem</t>
   </si>
 </sst>
 </file>
@@ -1610,9 +1625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I112" sqref="I112"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5259,7 +5274,38 @@
         <v>437</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>695</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="I110" s="5">
+        <v>44666</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
     <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F1299C-D8A4-744F-A453-194AACC59687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8ADC77-E077-344D-81C2-2BEA76CD03A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="445">
   <si>
     <t>Number</t>
   </si>
@@ -1357,6 +1357,12 @@
   </si>
   <si>
     <t>DFS basic problem</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>O(M*N)</t>
   </si>
 </sst>
 </file>
@@ -1625,9 +1631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J110" sqref="J110"/>
+      <selection pane="bottomLeft" activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5306,7 +5312,38 @@
         <v>442</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>200</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="I111" s="5">
+        <v>44669</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
     <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8ADC77-E077-344D-81C2-2BEA76CD03A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CE665B-6A30-734F-90C6-C81A191D68F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="454">
   <si>
     <t>Number</t>
   </si>
@@ -1363,6 +1363,33 @@
   </si>
   <si>
     <t>O(M*N)</t>
+  </si>
+  <si>
+    <t>Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>Binary search in first and last condition, use boolean flag, mid have to equal to edge</t>
+  </si>
+  <si>
+    <t>O(logN)</t>
+  </si>
+  <si>
+    <t>Two pointer also works well and easier to write</t>
+  </si>
+  <si>
+    <t>Find K Closest Elements</t>
+  </si>
+  <si>
+    <t>Binary Search/Comparator</t>
+  </si>
+  <si>
+    <t>Use binary search to find target, then expand the window size until reach k</t>
+  </si>
+  <si>
+    <t>O(logN + k)</t>
+  </si>
+  <si>
+    <t>Use customized comparator would be easier to write</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1660,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J117" sqref="J117"/>
+      <selection pane="bottomLeft" activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5344,23 +5371,85 @@
         <v>442</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>34</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" s="5">
+        <v>44670</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>658</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" s="5">
+        <v>44670</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CE665B-6A30-734F-90C6-C81A191D68F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACEF901-EFCF-C345-8894-4CFB363E602A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="457">
   <si>
     <t>Number</t>
   </si>
@@ -1390,6 +1390,15 @@
   </si>
   <si>
     <t>Use customized comparator would be easier to write</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value</t>
+  </si>
+  <si>
+    <t>Fully use BST properties, record the closest value, compare with root</t>
+  </si>
+  <si>
+    <t>To array list + comparator/Binary search/recursion</t>
   </si>
 </sst>
 </file>
@@ -1659,8 +1668,8 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J122" sqref="J122"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5274,6 +5283,12 @@
       <c r="J108" s="4" t="s">
         <v>434</v>
       </c>
+      <c r="K108" s="5">
+        <v>44671</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109">
@@ -5435,7 +5450,38 @@
         <v>453</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>270</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" s="5">
+        <v>44671</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACEF901-EFCF-C345-8894-4CFB363E602A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3B8A7C-F94C-2040-859D-87F4E929034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="464">
   <si>
     <t>Number</t>
   </si>
@@ -1399,6 +1399,27 @@
   </si>
   <si>
     <t>To array list + comparator/Binary search/recursion</t>
+  </si>
+  <si>
+    <t>Search in a Sorted Array of Unknown Size</t>
+  </si>
+  <si>
+    <t>O(log T)</t>
+  </si>
+  <si>
+    <t>Binary search, but need to set up right limit</t>
+  </si>
+  <si>
+    <t>Valid Perfect Square</t>
+  </si>
+  <si>
+    <t>Set up range, find mid and get value / bit operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find mid and square, compare square value, use long </t>
+  </si>
+  <si>
+    <t>Binary search, but need to cast int to long</t>
   </si>
 </sst>
 </file>
@@ -1667,9 +1688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3067,6 +3088,9 @@
       <c r="J41" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="K41" s="5">
+        <v>44672</v>
+      </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
@@ -5482,8 +5506,70 @@
         <v>456</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>702</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" s="5">
+        <v>44672</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>367</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C116" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" s="5">
+        <v>44672</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
     <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="487">
   <si>
     <t>Number</t>
   </si>
@@ -1456,6 +1456,27 @@
   </si>
   <si>
     <t>The most easiest way is to combine them, but slower</t>
+  </si>
+  <si>
+    <t>Find k-th Smallest Pair Distance</t>
+  </si>
+  <si>
+    <t>Sort array and count the number of pairs with distance smaller than middle</t>
+  </si>
+  <si>
+    <t>O(NlogW + NlogN)</t>
+  </si>
+  <si>
+    <t>Use binary search in value, not only index</t>
+  </si>
+  <si>
+    <t>Split Array Largest Sum</t>
+  </si>
+  <si>
+    <t>Find required splits number, binary search compare sum value, search sum value binary search</t>
+  </si>
+  <si>
+    <t>O(NlogS)</t>
   </si>
 </sst>
 </file>
@@ -5732,8 +5753,70 @@
         <v>479</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="5">
+        <v>719.0</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" s="4">
+        <v>44675.0</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="5">
+        <v>410.0</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" s="4">
+        <v>44676.0</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
     <row r="123" ht="15.75" customHeight="1"/>
     <row r="124" ht="15.75" customHeight="1"/>
     <row r="125" ht="15.75" customHeight="1"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D535B479-B2CB-0E4A-B4A1-BA1D56B18CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi+hMlvfB7GdMfNrlMCKwmVhmX/og=="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="490">
   <si>
     <t>Number</t>
   </si>
@@ -1477,26 +1486,41 @@
   </si>
   <si>
     <t>O(NlogS)</t>
+  </si>
+  <si>
+    <t>3Sum Closest</t>
+  </si>
+  <si>
+    <t>Actually two pointer method is better, use for loop, high and low to finds diff</t>
+  </si>
+  <si>
+    <t>Two pointers to calculate sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -1506,45 +1530,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1734,39 +1761,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.44"/>
-    <col customWidth="1" min="2" max="2" width="52.0"/>
-    <col customWidth="1" min="3" max="3" width="17.78"/>
-    <col customWidth="1" min="4" max="4" width="18.44"/>
-    <col customWidth="1" min="5" max="5" width="24.11"/>
-    <col customWidth="1" min="6" max="6" width="72.0"/>
-    <col customWidth="1" min="7" max="8" width="19.44"/>
-    <col customWidth="1" min="9" max="9" width="19.33"/>
-    <col customWidth="1" min="10" max="10" width="60.33"/>
-    <col customWidth="1" min="11" max="11" width="19.33"/>
-    <col customWidth="1" min="12" max="12" width="44.11"/>
-    <col customWidth="1" min="13" max="13" width="16.78"/>
-    <col customWidth="1" min="14" max="14" width="28.0"/>
-    <col customWidth="1" min="15" max="26" width="10.44"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="72" customWidth="1"/>
+    <col min="7" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="60.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" customWidth="1"/>
+    <col min="14" max="14" width="28" customWidth="1"/>
+    <col min="15" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1810,9 +1837,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1291.0</v>
+        <v>1291</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -1836,15 +1863,15 @@
         <v>19</v>
       </c>
       <c r="I2" s="2">
-        <v>44584.0</v>
+        <v>44584</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -1868,27 +1895,27 @@
         <v>19</v>
       </c>
       <c r="I3" s="2">
-        <v>44570.0</v>
+        <v>44570</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="2">
-        <v>44585.0</v>
+        <v>44585</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="2">
-        <v>44605.0</v>
+        <v>44605</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
@@ -1912,15 +1939,15 @@
         <v>19</v>
       </c>
       <c r="I4" s="2">
-        <v>44585.0</v>
+        <v>44585</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>485.0</v>
+        <v>485</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -1944,15 +1971,15 @@
         <v>19</v>
       </c>
       <c r="I5" s="2">
-        <v>44585.0</v>
+        <v>44585</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>37</v>
@@ -1976,15 +2003,15 @@
         <v>19</v>
       </c>
       <c r="I6" s="2">
-        <v>44585.0</v>
+        <v>44585</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>40</v>
@@ -2008,15 +2035,15 @@
         <v>19</v>
       </c>
       <c r="I7" s="2">
-        <v>44586.0</v>
+        <v>44586</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>44</v>
@@ -2040,21 +2067,21 @@
         <v>19</v>
       </c>
       <c r="I8" s="2">
-        <v>44586.0</v>
+        <v>44586</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K8" s="2">
-        <v>44600.0</v>
+        <v>44600</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>49</v>
@@ -2078,15 +2105,15 @@
         <v>25</v>
       </c>
       <c r="I9" s="2">
-        <v>44586.0</v>
+        <v>44586</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>557.0</v>
+        <v>557</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>53</v>
@@ -2110,15 +2137,15 @@
         <v>25</v>
       </c>
       <c r="I10" s="2">
-        <v>44587.0</v>
+        <v>44587</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>56</v>
@@ -2142,15 +2169,15 @@
         <v>19</v>
       </c>
       <c r="I11" s="2">
-        <v>44587.0</v>
+        <v>44587</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>283.0</v>
+        <v>283</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>59</v>
@@ -2174,15 +2201,15 @@
         <v>19</v>
       </c>
       <c r="I12" s="2">
-        <v>44587.0</v>
+        <v>44587</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>62</v>
@@ -2206,15 +2233,15 @@
         <v>25</v>
       </c>
       <c r="I13" s="2">
-        <v>44588.0</v>
+        <v>44588</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>67</v>
@@ -2238,15 +2265,15 @@
         <v>25</v>
       </c>
       <c r="I14" s="2">
-        <v>44588.0</v>
+        <v>44588</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>69</v>
@@ -2270,21 +2297,21 @@
         <v>25</v>
       </c>
       <c r="I15" s="2">
-        <v>44588.0</v>
+        <v>44588</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K15" s="2">
-        <v>44618.0</v>
+        <v>44618</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>72</v>
@@ -2308,21 +2335,21 @@
         <v>25</v>
       </c>
       <c r="I16" s="2">
-        <v>44589.0</v>
+        <v>44589</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K16" s="2">
-        <v>44618.0</v>
+        <v>44618</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>75</v>
@@ -2346,21 +2373,21 @@
         <v>79</v>
       </c>
       <c r="I17" s="2">
-        <v>44590.0</v>
+        <v>44590</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K17" s="2">
-        <v>44602.0</v>
+        <v>44602</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>82</v>
@@ -2384,15 +2411,15 @@
         <v>79</v>
       </c>
       <c r="I18" s="2">
-        <v>44590.0</v>
+        <v>44590</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>86</v>
@@ -2416,15 +2443,15 @@
         <v>79</v>
       </c>
       <c r="I19" s="2">
-        <v>44590.0</v>
+        <v>44590</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>89</v>
@@ -2448,15 +2475,15 @@
         <v>91</v>
       </c>
       <c r="I20" s="2">
-        <v>44591.0</v>
+        <v>44591</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>93</v>
@@ -2480,15 +2507,15 @@
         <v>25</v>
       </c>
       <c r="I21" s="2">
-        <v>44594.0</v>
+        <v>44594</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>98</v>
@@ -2512,15 +2539,15 @@
         <v>25</v>
       </c>
       <c r="I22" s="2">
-        <v>44594.0</v>
+        <v>44594</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>101</v>
@@ -2544,15 +2571,15 @@
         <v>25</v>
       </c>
       <c r="I23" s="2">
-        <v>44594.0</v>
+        <v>44594</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>103</v>
@@ -2576,15 +2603,15 @@
         <v>19</v>
       </c>
       <c r="I24" s="2">
-        <v>44595.0</v>
+        <v>44595</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>106</v>
@@ -2608,15 +2635,15 @@
         <v>19</v>
       </c>
       <c r="I25" s="2">
-        <v>44595.0</v>
+        <v>44595</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>109</v>
@@ -2640,15 +2667,15 @@
         <v>25</v>
       </c>
       <c r="I26" s="2">
-        <v>44596.0</v>
+        <v>44596</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>112</v>
@@ -2672,15 +2699,15 @@
         <v>25</v>
       </c>
       <c r="I27" s="2">
-        <v>44596.0</v>
+        <v>44596</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>117</v>
@@ -2704,21 +2731,21 @@
         <v>122</v>
       </c>
       <c r="I28" s="2">
-        <v>44596.0</v>
+        <v>44596</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>123</v>
       </c>
       <c r="K28" s="2">
-        <v>44621.0</v>
+        <v>44621</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>1507.0</v>
+        <v>1507</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>125</v>
@@ -2742,15 +2769,15 @@
         <v>19</v>
       </c>
       <c r="I29" s="2">
-        <v>44597.0</v>
+        <v>44597</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>567.0</v>
+        <v>567</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>129</v>
@@ -2774,15 +2801,15 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
-        <v>44597.0</v>
+        <v>44597</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>389.0</v>
+        <v>389</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>134</v>
@@ -2806,15 +2833,15 @@
         <v>19</v>
       </c>
       <c r="I31" s="2">
-        <v>44598.0</v>
+        <v>44598</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>138</v>
@@ -2838,27 +2865,27 @@
         <v>19</v>
       </c>
       <c r="I32" s="2">
-        <v>44584.0</v>
+        <v>44584</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>142</v>
       </c>
       <c r="K32" s="2">
-        <v>44598.0</v>
+        <v>44598</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>143</v>
       </c>
       <c r="M32" s="2">
-        <v>44652.0</v>
+        <v>44652</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>145</v>
@@ -2882,15 +2909,15 @@
         <v>19</v>
       </c>
       <c r="I33" s="2">
-        <v>44599.0</v>
+        <v>44599</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>148</v>
@@ -2914,15 +2941,15 @@
         <v>25</v>
       </c>
       <c r="I34" s="2">
-        <v>44599.0</v>
+        <v>44599</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>152</v>
@@ -2946,15 +2973,15 @@
         <v>19</v>
       </c>
       <c r="I35" s="2">
-        <v>44600.0</v>
+        <v>44600</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>154</v>
@@ -2978,15 +3005,15 @@
         <v>19</v>
       </c>
       <c r="I36" s="2">
-        <v>44600.0</v>
+        <v>44600</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>159</v>
@@ -3010,15 +3037,15 @@
         <v>19</v>
       </c>
       <c r="I37" s="2">
-        <v>44600.0</v>
+        <v>44600</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>509.0</v>
+        <v>509</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>163</v>
@@ -3042,15 +3069,15 @@
         <v>19</v>
       </c>
       <c r="I38" s="2">
-        <v>44601.0</v>
+        <v>44601</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>166</v>
@@ -3074,15 +3101,15 @@
         <v>19</v>
       </c>
       <c r="I39" s="2">
-        <v>44601.0</v>
+        <v>44601</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>532.0</v>
+        <v>532</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>169</v>
@@ -3106,15 +3133,15 @@
         <v>25</v>
       </c>
       <c r="I40" s="2">
-        <v>44601.0</v>
+        <v>44601</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>172</v>
@@ -3138,18 +3165,18 @@
         <v>25</v>
       </c>
       <c r="I41" s="2">
-        <v>44602.0</v>
+        <v>44602</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>174</v>
       </c>
       <c r="K41" s="2">
-        <v>44672.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>44672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>372.0</v>
+        <v>372</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>175</v>
@@ -3173,15 +3200,15 @@
         <v>25</v>
       </c>
       <c r="I42" s="2">
-        <v>44602.0</v>
+        <v>44602</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>178</v>
@@ -3205,15 +3232,15 @@
         <v>19</v>
       </c>
       <c r="I43" s="2">
-        <v>44603.0</v>
+        <v>44603</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>779.0</v>
+        <v>779</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>181</v>
@@ -3237,15 +3264,15 @@
         <v>183</v>
       </c>
       <c r="I44" s="2">
-        <v>44603.0</v>
+        <v>44603</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>185</v>
@@ -3269,15 +3296,15 @@
         <v>189</v>
       </c>
       <c r="I45" s="2">
-        <v>44604.0</v>
+        <v>44604</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>191</v>
@@ -3301,21 +3328,21 @@
         <v>19</v>
       </c>
       <c r="I46" s="2">
-        <v>44568.0</v>
+        <v>44568</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>195</v>
       </c>
       <c r="K46" s="2">
-        <v>44606.0</v>
+        <v>44606</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>197</v>
@@ -3339,21 +3366,21 @@
         <v>19</v>
       </c>
       <c r="I47" s="2">
-        <v>44564.0</v>
+        <v>44564</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>200</v>
       </c>
       <c r="K47" s="2">
-        <v>44607.0</v>
+        <v>44607</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>202</v>
@@ -3377,15 +3404,15 @@
         <v>204</v>
       </c>
       <c r="I48" s="2">
-        <v>44609.0</v>
+        <v>44609</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>912.0</v>
+        <v>912</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>206</v>
@@ -3409,15 +3436,15 @@
         <v>194</v>
       </c>
       <c r="I49" s="2">
-        <v>44609.0</v>
+        <v>44609</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>211</v>
@@ -3441,21 +3468,21 @@
         <v>25</v>
       </c>
       <c r="I50" s="2">
-        <v>44610.0</v>
+        <v>44610</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>213</v>
       </c>
       <c r="K50" s="2">
-        <v>44625.0</v>
+        <v>44625</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>215</v>
@@ -3479,15 +3506,15 @@
         <v>19</v>
       </c>
       <c r="I51" s="2">
-        <v>44610.0</v>
+        <v>44610</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>221</v>
@@ -3511,15 +3538,15 @@
         <v>19</v>
       </c>
       <c r="I52" s="2">
-        <v>44611.0</v>
+        <v>44611</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>1288.0</v>
+        <v>1288</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>224</v>
@@ -3543,15 +3570,15 @@
         <v>228</v>
       </c>
       <c r="I53" s="2">
-        <v>44612.0</v>
+        <v>44612</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>230</v>
@@ -3575,15 +3602,15 @@
         <v>25</v>
       </c>
       <c r="I54" s="2">
-        <v>44613.0</v>
+        <v>44613</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>233</v>
@@ -3607,15 +3634,15 @@
         <v>235</v>
       </c>
       <c r="I55" s="2">
-        <v>44613.0</v>
+        <v>44613</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>489.0</v>
+        <v>489</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>237</v>
@@ -3639,15 +3666,15 @@
         <v>239</v>
       </c>
       <c r="I56" s="2">
-        <v>44614.0</v>
+        <v>44614</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>241</v>
@@ -3671,15 +3698,15 @@
         <v>19</v>
       </c>
       <c r="I57" s="2">
-        <v>44615.0</v>
+        <v>44615</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>245</v>
@@ -3703,15 +3730,15 @@
         <v>248</v>
       </c>
       <c r="I58" s="2">
-        <v>44616.0</v>
+        <v>44616</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>250</v>
@@ -3735,15 +3762,15 @@
         <v>228</v>
       </c>
       <c r="I59" s="2">
-        <v>44617.0</v>
+        <v>44617</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>253</v>
@@ -3767,15 +3794,15 @@
         <v>204</v>
       </c>
       <c r="I60" s="2">
-        <v>44617.0</v>
+        <v>44617</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>256</v>
@@ -3799,21 +3826,21 @@
         <v>25</v>
       </c>
       <c r="I61" s="2">
-        <v>44618.0</v>
+        <v>44618</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>259</v>
       </c>
       <c r="K61" s="2">
-        <v>44621.0</v>
+        <v>44621</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>426.0</v>
+        <v>426</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>260</v>
@@ -3837,15 +3864,15 @@
         <v>25</v>
       </c>
       <c r="I62" s="2">
-        <v>44619.0</v>
+        <v>44619</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>263</v>
@@ -3869,15 +3896,15 @@
         <v>25</v>
       </c>
       <c r="I63" s="2">
-        <v>44620.0</v>
+        <v>44620</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>266</v>
@@ -3901,15 +3928,15 @@
         <v>269</v>
       </c>
       <c r="I64" s="2">
-        <v>44621.0</v>
+        <v>44621</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>271</v>
@@ -3933,15 +3960,15 @@
         <v>25</v>
       </c>
       <c r="I65" s="2">
-        <v>44622.0</v>
+        <v>44622</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>392.0</v>
+        <v>392</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>274</v>
@@ -3965,15 +3992,15 @@
         <v>19</v>
       </c>
       <c r="I66" s="2">
-        <v>44622.0</v>
+        <v>44622</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>278</v>
@@ -3997,15 +4024,15 @@
         <v>281</v>
       </c>
       <c r="I67" s="2">
-        <v>44623.0</v>
+        <v>44623</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>283</v>
@@ -4029,15 +4056,15 @@
         <v>194</v>
       </c>
       <c r="I68" s="2">
-        <v>44624.0</v>
+        <v>44624</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>286</v>
@@ -4061,15 +4088,15 @@
         <v>19</v>
       </c>
       <c r="I69" s="2">
-        <v>44625.0</v>
+        <v>44625</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>291</v>
@@ -4093,15 +4120,15 @@
         <v>157</v>
       </c>
       <c r="I70" s="2">
-        <v>44626.0</v>
+        <v>44626</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>701.0</v>
+        <v>701</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>294</v>
@@ -4125,15 +4152,15 @@
         <v>19</v>
       </c>
       <c r="I71" s="2">
-        <v>44627.0</v>
+        <v>44627</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>296</v>
@@ -4157,15 +4184,15 @@
         <v>157</v>
       </c>
       <c r="I72" s="2">
-        <v>44629.0</v>
+        <v>44629</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>703.0</v>
+        <v>703</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>299</v>
@@ -4189,21 +4216,21 @@
         <v>25</v>
       </c>
       <c r="I73" s="2">
-        <v>44630.0</v>
+        <v>44630</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>303</v>
       </c>
       <c r="K73" s="2">
-        <v>44648.0</v>
+        <v>44648</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>305</v>
@@ -4227,15 +4254,15 @@
         <v>25</v>
       </c>
       <c r="I74" s="2">
-        <v>44631.0</v>
+        <v>44631</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>308</v>
@@ -4259,21 +4286,21 @@
         <v>312</v>
       </c>
       <c r="I75" s="2">
-        <v>44572.0</v>
+        <v>44572</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>313</v>
       </c>
       <c r="K75" s="2">
-        <v>44632.0</v>
+        <v>44632</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>315</v>
@@ -4297,15 +4324,15 @@
         <v>25</v>
       </c>
       <c r="I76" s="2">
-        <v>44633.0</v>
+        <v>44633</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>318</v>
@@ -4329,15 +4356,15 @@
         <v>228</v>
       </c>
       <c r="I77" s="2">
-        <v>44634.0</v>
+        <v>44634</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>1249.0</v>
+        <v>1249</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>321</v>
@@ -4361,15 +4388,15 @@
         <v>25</v>
       </c>
       <c r="I78" s="2">
-        <v>44635.0</v>
+        <v>44635</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>324</v>
@@ -4393,15 +4420,15 @@
         <v>19</v>
       </c>
       <c r="I79" s="2">
-        <v>44636.0</v>
+        <v>44636</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>327</v>
@@ -4425,15 +4452,15 @@
         <v>19</v>
       </c>
       <c r="I80" s="2">
-        <v>44637.0</v>
+        <v>44637</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>331</v>
@@ -4457,15 +4484,15 @@
         <v>25</v>
       </c>
       <c r="I81" s="2">
-        <v>44638.0</v>
+        <v>44638</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>334</v>
@@ -4489,15 +4516,15 @@
         <v>25</v>
       </c>
       <c r="I82" s="2">
-        <v>44639.0</v>
+        <v>44639</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>1007.0</v>
+        <v>1007</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>338</v>
@@ -4521,15 +4548,15 @@
         <v>19</v>
       </c>
       <c r="I83" s="2">
-        <v>44640.0</v>
+        <v>44640</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>763.0</v>
+        <v>763</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>341</v>
@@ -4553,15 +4580,15 @@
         <v>19</v>
       </c>
       <c r="I84" s="2">
-        <v>44641.0</v>
+        <v>44641</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>1663.0</v>
+        <v>1663</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>344</v>
@@ -4585,15 +4612,15 @@
         <v>19</v>
       </c>
       <c r="I85" s="2">
-        <v>44642.0</v>
+        <v>44642</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>991.0</v>
+        <v>991</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>348</v>
@@ -4617,15 +4644,15 @@
         <v>19</v>
       </c>
       <c r="I86" s="2">
-        <v>44643.0</v>
+        <v>44643</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>881.0</v>
+        <v>881</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>352</v>
@@ -4649,15 +4676,15 @@
         <v>194</v>
       </c>
       <c r="I87" s="2">
-        <v>44644.0</v>
+        <v>44644</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>1029.0</v>
+        <v>1029</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>355</v>
@@ -4681,15 +4708,15 @@
         <v>19</v>
       </c>
       <c r="I88" s="2">
-        <v>44645.0</v>
+        <v>44645</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>1337.0</v>
+        <v>1337</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>358</v>
@@ -4713,21 +4740,21 @@
         <v>19</v>
       </c>
       <c r="I89" s="2">
-        <v>44646.0</v>
+        <v>44646</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>362</v>
       </c>
       <c r="K89" s="2">
-        <v>44650.0</v>
+        <v>44650</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>704.0</v>
+        <v>704</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>325</v>
@@ -4751,21 +4778,21 @@
         <v>19</v>
       </c>
       <c r="I90" s="2">
-        <v>44647.0</v>
+        <v>44647</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>365</v>
       </c>
       <c r="K90" s="2">
-        <v>44656.0</v>
+        <v>44656</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>367</v>
@@ -4789,15 +4816,15 @@
         <v>371</v>
       </c>
       <c r="I91" s="2">
-        <v>44648.0</v>
+        <v>44648</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>347.0</v>
+        <v>347</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>373</v>
@@ -4821,21 +4848,21 @@
         <v>376</v>
       </c>
       <c r="I92" s="2">
-        <v>44577.0</v>
+        <v>44577</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>377</v>
       </c>
       <c r="K92" s="2">
-        <v>44648.0</v>
+        <v>44648</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>378</v>
@@ -4859,21 +4886,21 @@
         <v>19</v>
       </c>
       <c r="I93" s="2">
-        <v>44566.0</v>
+        <v>44566</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>382</v>
       </c>
       <c r="K93" s="2">
-        <v>44649.0</v>
+        <v>44649</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>1046.0</v>
+        <v>1046</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>384</v>
@@ -4897,15 +4924,15 @@
         <v>194</v>
       </c>
       <c r="I94" s="2">
-        <v>44650.0</v>
+        <v>44650</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>378.0</v>
+        <v>378</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>386</v>
@@ -4929,15 +4956,15 @@
         <v>388</v>
       </c>
       <c r="I95" s="2">
-        <v>44650.0</v>
+        <v>44650</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>390</v>
@@ -4961,15 +4988,15 @@
         <v>194</v>
       </c>
       <c r="I96" s="2">
-        <v>44651.0</v>
+        <v>44651</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>973.0</v>
+        <v>973</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>393</v>
@@ -4993,15 +5020,15 @@
         <v>371</v>
       </c>
       <c r="I97" s="2">
-        <v>44651.0</v>
+        <v>44651</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>397</v>
@@ -5025,15 +5052,15 @@
         <v>228</v>
       </c>
       <c r="I98" s="2">
-        <v>44652.0</v>
+        <v>44652</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>400</v>
@@ -5057,21 +5084,21 @@
         <v>19</v>
       </c>
       <c r="I99" s="2">
-        <v>44579.0</v>
+        <v>44579</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>402</v>
       </c>
       <c r="K99" s="2">
-        <v>44653.0</v>
+        <v>44653</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>1167.0</v>
+        <v>1167</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>404</v>
@@ -5095,15 +5122,15 @@
         <v>194</v>
       </c>
       <c r="I100" s="2">
-        <v>44653.0</v>
+        <v>44653</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>1642.0</v>
+        <v>1642</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>407</v>
@@ -5127,15 +5154,15 @@
         <v>194</v>
       </c>
       <c r="I101" s="2">
-        <v>44653.0</v>
+        <v>44653</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>411</v>
@@ -5159,15 +5186,15 @@
         <v>194</v>
       </c>
       <c r="I102" s="2">
-        <v>44654.0</v>
+        <v>44654</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>1721.0</v>
+        <v>1721</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>415</v>
@@ -5191,15 +5218,15 @@
         <v>19</v>
       </c>
       <c r="I103" s="2">
-        <v>44655.0</v>
+        <v>44655</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>419</v>
@@ -5223,21 +5250,21 @@
         <v>19</v>
       </c>
       <c r="I104" s="2">
-        <v>44595.0</v>
+        <v>44595</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>421</v>
       </c>
       <c r="K104" s="2">
-        <v>44656.0</v>
+        <v>44656</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>423</v>
@@ -5261,15 +5288,15 @@
         <v>19</v>
       </c>
       <c r="I105" s="2">
-        <v>44656.0</v>
+        <v>44656</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>426</v>
@@ -5293,15 +5320,15 @@
         <v>19</v>
       </c>
       <c r="I106" s="2">
-        <v>44656.0</v>
+        <v>44656</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>429</v>
@@ -5325,15 +5352,15 @@
         <v>19</v>
       </c>
       <c r="I107" s="2">
-        <v>44657.0</v>
+        <v>44657</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>432</v>
@@ -5357,21 +5384,21 @@
         <v>19</v>
       </c>
       <c r="I108" s="2">
-        <v>44657.0</v>
+        <v>44657</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>434</v>
       </c>
       <c r="K108" s="2">
-        <v>44671.0</v>
+        <v>44671</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>435</v>
@@ -5395,15 +5422,15 @@
         <v>19</v>
       </c>
       <c r="I109" s="2">
-        <v>44657.0</v>
+        <v>44657</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>695.0</v>
+        <v>695</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>438</v>
@@ -5427,15 +5454,15 @@
         <v>441</v>
       </c>
       <c r="I110" s="2">
-        <v>44666.0</v>
+        <v>44666</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>443</v>
@@ -5459,15 +5486,15 @@
         <v>444</v>
       </c>
       <c r="I111" s="2">
-        <v>44669.0</v>
+        <v>44669</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>445</v>
@@ -5491,15 +5518,15 @@
         <v>19</v>
       </c>
       <c r="I112" s="2">
-        <v>44670.0</v>
+        <v>44670</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>658.0</v>
+        <v>658</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>449</v>
@@ -5523,15 +5550,15 @@
         <v>19</v>
       </c>
       <c r="I113" s="2">
-        <v>44670.0</v>
+        <v>44670</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>454</v>
@@ -5555,15 +5582,15 @@
         <v>19</v>
       </c>
       <c r="I114" s="2">
-        <v>44671.0</v>
+        <v>44671</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>702.0</v>
+        <v>702</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>458</v>
@@ -5587,15 +5614,15 @@
         <v>19</v>
       </c>
       <c r="I115" s="2">
-        <v>44672.0</v>
+        <v>44672</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>367.0</v>
+        <v>367</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>462</v>
@@ -5619,15 +5646,15 @@
         <v>19</v>
       </c>
       <c r="I116" s="4">
-        <v>44672.0</v>
+        <v>44672</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>465</v>
@@ -5651,15 +5678,15 @@
         <v>19</v>
       </c>
       <c r="I117" s="4">
-        <v>44673.0</v>
+        <v>44673</v>
       </c>
       <c r="J117" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
-        <v>744.0</v>
+        <v>744</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>470</v>
@@ -5683,15 +5710,15 @@
         <v>19</v>
       </c>
       <c r="I118" s="4">
-        <v>44673.0</v>
+        <v>44673</v>
       </c>
       <c r="J118" s="5" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>473</v>
@@ -5715,15 +5742,15 @@
         <v>19</v>
       </c>
       <c r="I119" s="4">
-        <v>44673.0</v>
+        <v>44673</v>
       </c>
       <c r="J119" s="5" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>476</v>
@@ -5747,15 +5774,15 @@
         <v>194</v>
       </c>
       <c r="I120" s="4">
-        <v>44674.0</v>
+        <v>44674</v>
       </c>
       <c r="J120" s="5" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
-        <v>719.0</v>
+        <v>719</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>480</v>
@@ -5779,15 +5806,15 @@
         <v>19</v>
       </c>
       <c r="I121" s="4">
-        <v>44675.0</v>
+        <v>44675</v>
       </c>
       <c r="J121" s="5" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>484</v>
@@ -5811,894 +5838,924 @@
         <v>19</v>
       </c>
       <c r="I122" s="4">
-        <v>44676.0</v>
+        <v>44676</v>
       </c>
       <c r="J122" s="5" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>16</v>
+      </c>
+      <c r="B123" t="s">
+        <v>487</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I123" s="4">
+        <v>44677</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D535B479-B2CB-0E4A-B4A1-BA1D56B18CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A88D25C-4408-C540-AA38-05BB193CD7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="494">
   <si>
     <t>Number</t>
   </si>
@@ -1495,6 +1495,18 @@
   </si>
   <si>
     <t>Two pointers to calculate sum</t>
+  </si>
+  <si>
+    <t>Sort List</t>
+  </si>
+  <si>
+    <t>Sorting #1</t>
+  </si>
+  <si>
+    <t>Merge sort, split into halves, dummy head connection</t>
+  </si>
+  <si>
+    <t>Merge sort</t>
   </si>
 </sst>
 </file>
@@ -1770,9 +1782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5876,7 +5888,38 @@
         <v>489</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>148</v>
+      </c>
+      <c r="B124" t="s">
+        <v>490</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I124" s="4">
+        <v>44678</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
     <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A88D25C-4408-C540-AA38-05BB193CD7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367C2C4B-A6C5-7447-B2EC-EBDE9A96060C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="498">
   <si>
     <t>Number</t>
   </si>
@@ -1507,6 +1507,18 @@
   </si>
   <si>
     <t>Merge sort</t>
+  </si>
+  <si>
+    <t>Use recursion, dynamic programming ideas</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>For loop, record farthest each time, reach the farthest and add 1 to jumps</t>
+  </si>
+  <si>
+    <t>Greedy</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1565,6 +1577,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1783,8 +1796,8 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I132" sqref="I132"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I127" sqref="H127:I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3118,6 +3131,12 @@
       <c r="J39" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="K39" s="7">
+        <v>44679</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -5920,7 +5939,38 @@
         <v>493</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>45</v>
+      </c>
+      <c r="B125" t="s">
+        <v>495</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" s="4">
+        <v>44680</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
     <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367C2C4B-A6C5-7447-B2EC-EBDE9A96060C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D0D56A-F58F-194D-A4D2-8825F3BE8ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1320" yWindow="1040" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="502">
   <si>
     <t>Number</t>
   </si>
@@ -1519,6 +1519,18 @@
   </si>
   <si>
     <t>Greedy</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP </t>
+  </si>
+  <si>
+    <t>Define first two step, each step decide use last data or the current value</t>
+  </si>
+  <si>
+    <t>Separate to sub problem, each sub problem make a decision, cumulative</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1809,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I127" sqref="H127:I127"/>
+      <selection pane="bottomLeft" activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5971,7 +5983,38 @@
         <v>497</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>198</v>
+      </c>
+      <c r="B126" t="s">
+        <v>498</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I126" s="7">
+        <v>44690</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
     <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D0D56A-F58F-194D-A4D2-8825F3BE8ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DD9F47-9124-7A4A-9410-3767E3BD1A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1320" yWindow="1040" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="960" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="513">
   <si>
     <t>Number</t>
   </si>
@@ -1531,6 +1531,39 @@
   </si>
   <si>
     <t>Separate to sub problem, each sub problem make a decision, cumulative</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>String builder reverse the string/two pointer</t>
+  </si>
+  <si>
+    <t>Two pointer is faster</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>Use recursion to divide two, or iteration / bit operator</t>
+  </si>
+  <si>
+    <t>If use bit, the time and space complexity is O(1)</t>
+  </si>
+  <si>
+    <t>Implement Stack Using Queues</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>One queue or two queue, push or pop have to be O(N)</t>
+  </si>
+  <si>
+    <t>One queue is better, but each push need to dequeue and re-add to queue</t>
   </si>
 </sst>
 </file>
@@ -1805,11 +1838,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1000"/>
+  <dimension ref="A1:N1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J133" sqref="J133"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5985,54 +6018,147 @@
     </row>
     <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="B126" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>499</v>
+        <v>94</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>217</v>
+        <v>510</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>194</v>
       </c>
       <c r="H126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I126" s="4">
+        <v>44687</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>231</v>
+      </c>
+      <c r="B127" t="s">
+        <v>506</v>
+      </c>
+      <c r="C127" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I127" s="4">
+        <v>44688</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="B128" t="s">
+        <v>502</v>
+      </c>
+      <c r="C128" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="G128" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I126" s="7">
+      <c r="H128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I128" s="4">
+        <v>44689</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>198</v>
+      </c>
+      <c r="B129" t="s">
+        <v>498</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I129" s="7">
         <v>44690</v>
       </c>
-      <c r="J126" s="6" t="s">
+      <c r="J129" s="6" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6889,6 +7015,9 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DD9F47-9124-7A4A-9410-3767E3BD1A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4FE429-70E3-D340-86AF-17A198B1C941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="960" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32940" yWindow="3400" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="519">
   <si>
     <t>Number</t>
   </si>
@@ -1564,6 +1564,24 @@
   </si>
   <si>
     <t>One queue is better, but each push need to dequeue and re-add to queue</t>
+  </si>
+  <si>
+    <t>Min Cost Climbing Stairs</t>
+  </si>
+  <si>
+    <t>The cost to reach current step, add the previous cost together, create new array</t>
+  </si>
+  <si>
+    <t>Can also do in constant space</t>
+  </si>
+  <si>
+    <t>N-th Tribonacci Number</t>
+  </si>
+  <si>
+    <t>Use array and for loop, first three elements are defined</t>
+  </si>
+  <si>
+    <t>Space can be constant, only use x, y, and z to do window sliding</t>
   </si>
 </sst>
 </file>
@@ -1841,8 +1859,8 @@
   <dimension ref="A1:N1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6144,8 +6162,70 @@
         <v>501</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>746</v>
+      </c>
+      <c r="B130" t="s">
+        <v>513</v>
+      </c>
+      <c r="C130" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I130" s="7">
+        <v>44691</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1137</v>
+      </c>
+      <c r="B131" t="s">
+        <v>516</v>
+      </c>
+      <c r="C131" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I131" s="7">
+        <v>44691</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
     <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4FE429-70E3-D340-86AF-17A198B1C941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66537467-B443-5D42-8131-38D73A0E1808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32940" yWindow="3400" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="1320" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="522">
   <si>
     <t>Number</t>
   </si>
@@ -1582,6 +1582,15 @@
   </si>
   <si>
     <t>Space can be constant, only use x, y, and z to do window sliding</t>
+  </si>
+  <si>
+    <t>Delete and Earn</t>
+  </si>
+  <si>
+    <t>Start from the end value, use hash map to store points, dp to the base cases</t>
+  </si>
+  <si>
+    <t>A slightly different version of house robber problem</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1869,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B138" sqref="B138"/>
+      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6226,7 +6235,38 @@
         <v>518</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>740</v>
+      </c>
+      <c r="B132" t="s">
+        <v>519</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="I132" s="7">
+        <v>44693</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
     <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66537467-B443-5D42-8131-38D73A0E1808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9932AEB3-2463-CD48-B995-E506567971A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1320" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="529">
   <si>
     <t>Number</t>
   </si>
@@ -1591,6 +1591,27 @@
   </si>
   <si>
     <t>A slightly different version of house robber problem</t>
+  </si>
+  <si>
+    <t>Unique Paths</t>
+  </si>
+  <si>
+    <t>2D array to add left and upper value to the current position, fill all with 1</t>
+  </si>
+  <si>
+    <t>O(N*M)</t>
+  </si>
+  <si>
+    <t>Bottom-up dp solution</t>
+  </si>
+  <si>
+    <t>Maximal Square</t>
+  </si>
+  <si>
+    <t>Count previous number, record the min value of around</t>
+  </si>
+  <si>
+    <t>Bottom-up dp solution usually has nested loop if 2D array</t>
   </si>
 </sst>
 </file>
@@ -1865,11 +1886,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1003"/>
+  <dimension ref="A1:N1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6267,8 +6288,70 @@
         <v>521</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>221</v>
+      </c>
+      <c r="B133" t="s">
+        <v>526</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="I133" s="7">
+        <v>44698</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>62</v>
+      </c>
+      <c r="B134" t="s">
+        <v>522</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="I134" s="7">
+        <v>44698</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
     <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7138,6 +7221,7 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9932AEB3-2463-CD48-B995-E506567971A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1153399E-B25D-A24D-9FA5-57702066EDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="533">
   <si>
     <t>Number</t>
   </si>
@@ -1612,6 +1612,18 @@
   </si>
   <si>
     <t>Bottom-up dp solution usually has nested loop if 2D array</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>Use an array memoization, Math.min / recursion with memoization + 1</t>
+  </si>
+  <si>
+    <t>O(S*n)</t>
+  </si>
+  <si>
+    <t>Both top-down and bottom-up solutions are hard</t>
   </si>
 </sst>
 </file>
@@ -1888,9 +1900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
+      <selection pane="bottomLeft" activeCell="J143" sqref="J143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6352,7 +6364,38 @@
         <v>525</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>322</v>
+      </c>
+      <c r="B135" t="s">
+        <v>529</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="I135" s="7">
+        <v>44699</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
     <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1153399E-B25D-A24D-9FA5-57702066EDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47B1CAF-BBE0-B344-8107-ABB25DB0F1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="538">
   <si>
     <t>Number</t>
   </si>
@@ -1624,6 +1624,21 @@
   </si>
   <si>
     <t>Both top-down and bottom-up solutions are hard</t>
+  </si>
+  <si>
+    <t>Minimum Difficulty of a Job Schedule</t>
+  </si>
+  <si>
+    <t>2D array with two state variables, create hardest array</t>
+  </si>
+  <si>
+    <t>O(d*(n-d)^2)</t>
+  </si>
+  <si>
+    <t>O((n-d)*d)</t>
+  </si>
+  <si>
+    <t>Very hard, don't struggle too much</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1917,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J143" sqref="J143"/>
+      <selection pane="bottomLeft" activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6396,7 +6411,38 @@
         <v>532</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1335</v>
+      </c>
+      <c r="B136" t="s">
+        <v>533</v>
+      </c>
+      <c r="C136" t="s">
+        <v>113</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="I136" s="7">
+        <v>44700</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
     <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47B1CAF-BBE0-B344-8107-ABB25DB0F1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E45F5C6-BF46-514C-BB4C-EEC85ACCB85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="541">
   <si>
     <t>Number</t>
   </si>
@@ -1639,6 +1639,15 @@
   </si>
   <si>
     <t>Very hard, don't struggle too much</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>1D array memo, add from the previous j and keep recording the max/Binary search</t>
+  </si>
+  <si>
+    <t>Binary search can have O(nlogn) time complexity</t>
   </si>
 </sst>
 </file>
@@ -1917,7 +1926,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I145" sqref="I145"/>
+      <selection pane="bottomLeft" activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6443,7 +6452,38 @@
         <v>537</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>300</v>
+      </c>
+      <c r="B137" t="s">
+        <v>538</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I137" s="7">
+        <v>44701</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
     <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E45F5C6-BF46-514C-BB4C-EEC85ACCB85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0A1140-2B02-0648-9F25-54D5BB0FC025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="544">
   <si>
     <t>Number</t>
   </si>
@@ -1648,6 +1648,15 @@
   </si>
   <si>
     <t>Binary search can have O(nlogn) time complexity</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>For loop to record min and max</t>
+  </si>
+  <si>
+    <t>A single pass can work</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1935,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I142" sqref="I142"/>
+      <selection pane="bottomLeft" activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6484,7 +6493,38 @@
         <v>540</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>121</v>
+      </c>
+      <c r="B138" t="s">
+        <v>541</v>
+      </c>
+      <c r="C138" t="s">
+        <v>30</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I138" s="7">
+        <v>44702</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
     <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0A1140-2B02-0648-9F25-54D5BB0FC025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F55AF9B-1FE7-5A41-9616-E31D44A40E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="554">
   <si>
     <t>Number</t>
   </si>
@@ -1657,6 +1657,36 @@
   </si>
   <si>
     <t>A single pass can work</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock IV</t>
+  </si>
+  <si>
+    <t>3D array, find state variables, separate actions</t>
+  </si>
+  <si>
+    <t>O(nk)</t>
+  </si>
+  <si>
+    <t>Based on state variables to create memo array</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>2D state variable array / state machine</t>
+  </si>
+  <si>
+    <t>State machine can only use O(1) space complexity, less space</t>
+  </si>
+  <si>
+    <t>Paint Fence</t>
+  </si>
+  <si>
+    <t>Hashmap memoization, determine by previous two values</t>
+  </si>
+  <si>
+    <t>Classical dp problem</t>
   </si>
 </sst>
 </file>
@@ -1933,9 +1963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H144" sqref="H144"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6525,9 +6555,102 @@
         <v>543</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>188</v>
+      </c>
+      <c r="B139" t="s">
+        <v>544</v>
+      </c>
+      <c r="C139" t="s">
+        <v>113</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="I139" s="7">
+        <v>44703</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>309</v>
+      </c>
+      <c r="B140" t="s">
+        <v>548</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I140" s="7">
+        <v>44703</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>276</v>
+      </c>
+      <c r="B141" t="s">
+        <v>551</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I141" s="7">
+        <v>44704</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
     <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F55AF9B-1FE7-5A41-9616-E31D44A40E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719BFB5D-FAF4-3642-9D4B-2642A4517ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="562">
   <si>
     <t>Number</t>
   </si>
@@ -1687,6 +1687,30 @@
   </si>
   <si>
     <t>Classical dp problem</t>
+  </si>
+  <si>
+    <t>Coin Change 2</t>
+  </si>
+  <si>
+    <t>2 states but can reduce to 1D array, add on previous combiantions at amount - coin</t>
+  </si>
+  <si>
+    <t>O(n * amount)</t>
+  </si>
+  <si>
+    <t>O(amount)</t>
+  </si>
+  <si>
+    <t>Consider states array, and previous states</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>If two digits, can add dp[i - 2] to almost double the combinations</t>
+  </si>
+  <si>
+    <t>Add up the combinations</t>
   </si>
 </sst>
 </file>
@@ -1963,9 +1987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H150" sqref="H150"/>
+      <selection pane="bottomLeft" activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6651,8 +6675,70 @@
         <v>553</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>518</v>
+      </c>
+      <c r="B142" t="s">
+        <v>554</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="I142" s="7">
+        <v>44705</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>91</v>
+      </c>
+      <c r="B143" t="s">
+        <v>559</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I143" s="7">
+        <v>44705</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
     <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719BFB5D-FAF4-3642-9D4B-2642A4517ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83440DE5-2CFD-194E-9271-AAD5CE8AF1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="572">
   <si>
     <t>Number</t>
   </si>
@@ -1711,17 +1711,54 @@
   </si>
   <si>
     <t>Add up the combinations</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>DP #1</t>
+  </si>
+  <si>
+    <t>Kadene's algorithm, decision to abandon previous carry over value</t>
+  </si>
+  <si>
+    <t>Make decisions in the loop</t>
+  </si>
+  <si>
+    <t>Maximum Sum Circular Subarray</t>
+  </si>
+  <si>
+    <t>Kadene's algorithm, but min and max two sum</t>
+  </si>
+  <si>
+    <t>Use total - min Sum to find the max Sum</t>
+  </si>
+  <si>
+    <t>Unique Paths II</t>
+  </si>
+  <si>
+    <t>If we find it 1, change the count of path to 0, modify it on the given 2D array</t>
+  </si>
+  <si>
+    <t>Similar to unique paths I problem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1739,6 +1776,12 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1761,15 +1804,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1987,9 +2032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I149" sqref="I149"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6259,7 +6304,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>198</v>
       </c>
@@ -6291,7 +6336,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>746</v>
       </c>
@@ -6323,7 +6368,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1137</v>
       </c>
@@ -6355,7 +6400,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>740</v>
       </c>
@@ -6387,7 +6432,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>221</v>
       </c>
@@ -6419,7 +6464,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>62</v>
       </c>
@@ -6450,8 +6495,14 @@
       <c r="J134" s="6" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K134" s="7">
+        <v>44707</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>322</v>
       </c>
@@ -6483,7 +6534,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1335</v>
       </c>
@@ -6515,7 +6566,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>300</v>
       </c>
@@ -6547,7 +6598,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>121</v>
       </c>
@@ -6578,8 +6629,14 @@
       <c r="J138" s="6" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K138" s="7">
+        <v>44706</v>
+      </c>
+      <c r="L138" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>188</v>
       </c>
@@ -6611,7 +6668,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>309</v>
       </c>
@@ -6643,7 +6700,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>276</v>
       </c>
@@ -6675,7 +6732,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>518</v>
       </c>
@@ -6707,7 +6764,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>91</v>
       </c>
@@ -6739,23 +6796,116 @@
         <v>561</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>53</v>
+      </c>
+      <c r="B144" t="s">
+        <v>562</v>
+      </c>
+      <c r="C144" t="s">
+        <v>30</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" s="7">
+        <v>44706</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>918</v>
+      </c>
+      <c r="B145" t="s">
+        <v>566</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" s="7">
+        <v>44706</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>63</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" s="7">
+        <v>44707</v>
+      </c>
+      <c r="J146" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7601,7 +7751,7 @@
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83440DE5-2CFD-194E-9271-AAD5CE8AF1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi+hMlvfB7GdMfNrlMCKwmVhmX/og=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgkhbSZEKZq28n5KbZshaUz98yNsg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="578">
   <si>
     <t>Number</t>
   </si>
@@ -534,6 +525,9 @@
     <t>Same idea as last question</t>
   </si>
   <si>
+    <t>Use recursion, dynamic programming ideas</t>
+  </si>
+  <si>
     <t>K-diff Pairs in an Array</t>
   </si>
   <si>
@@ -1509,9 +1503,6 @@
     <t>Merge sort</t>
   </si>
   <si>
-    <t>Use recursion, dynamic programming ideas</t>
-  </si>
-  <si>
     <t>Jump Game II</t>
   </si>
   <si>
@@ -1521,6 +1512,39 @@
     <t>Greedy</t>
   </si>
   <si>
+    <t>Implement Stack Using Queues</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>One queue or two queue, push or pop have to be O(N)</t>
+  </si>
+  <si>
+    <t>One queue is better, but each push need to dequeue and re-add to queue</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>Use recursion to divide two, or iteration / bit operator</t>
+  </si>
+  <si>
+    <t>If use bit, the time and space complexity is O(1)</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>String builder reverse the string/two pointer</t>
+  </si>
+  <si>
+    <t>Two pointer is faster</t>
+  </si>
+  <si>
     <t>House Robber</t>
   </si>
   <si>
@@ -1533,39 +1557,6 @@
     <t>Separate to sub problem, each sub problem make a decision, cumulative</t>
   </si>
   <si>
-    <t>Valid Palindrome</t>
-  </si>
-  <si>
-    <t>Reverse</t>
-  </si>
-  <si>
-    <t>String builder reverse the string/two pointer</t>
-  </si>
-  <si>
-    <t>Two pointer is faster</t>
-  </si>
-  <si>
-    <t>Power of Two</t>
-  </si>
-  <si>
-    <t>Use recursion to divide two, or iteration / bit operator</t>
-  </si>
-  <si>
-    <t>If use bit, the time and space complexity is O(1)</t>
-  </si>
-  <si>
-    <t>Implement Stack Using Queues</t>
-  </si>
-  <si>
-    <t>Queue</t>
-  </si>
-  <si>
-    <t>One queue or two queue, push or pop have to be O(N)</t>
-  </si>
-  <si>
-    <t>One queue is better, but each push need to dequeue and re-add to queue</t>
-  </si>
-  <si>
     <t>Min Cost Climbing Stairs</t>
   </si>
   <si>
@@ -1593,27 +1584,27 @@
     <t>A slightly different version of house robber problem</t>
   </si>
   <si>
+    <t>Maximal Square</t>
+  </si>
+  <si>
+    <t>Count previous number, record the min value of around</t>
+  </si>
+  <si>
+    <t>O(N*M)</t>
+  </si>
+  <si>
+    <t>Bottom-up dp solution usually has nested loop if 2D array</t>
+  </si>
+  <si>
     <t>Unique Paths</t>
   </si>
   <si>
     <t>2D array to add left and upper value to the current position, fill all with 1</t>
   </si>
   <si>
-    <t>O(N*M)</t>
-  </si>
-  <si>
     <t>Bottom-up dp solution</t>
   </si>
   <si>
-    <t>Maximal Square</t>
-  </si>
-  <si>
-    <t>Count previous number, record the min value of around</t>
-  </si>
-  <si>
-    <t>Bottom-up dp solution usually has nested loop if 2D array</t>
-  </si>
-  <si>
     <t>Coin Change</t>
   </si>
   <si>
@@ -1741,47 +1732,46 @@
   </si>
   <si>
     <t>Similar to unique paths I problem</t>
+  </si>
+  <si>
+    <t>Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>Fill the edge column, then for each cell, compare upper path sum and left path sum</t>
+  </si>
+  <si>
+    <t>Modify the given 2D array in place</t>
+  </si>
+  <si>
+    <t>Minimum Falling Path Sum</t>
+  </si>
+  <si>
+    <t>Each cell calculate the min from three-way directions or two way if on the edge</t>
+  </si>
+  <si>
+    <t>Use top-down recursion also works, but way much slower</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1789,51 +1779,39 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2023,39 +2001,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1004"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I150" sqref="I150"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="6" width="72" customWidth="1"/>
-    <col min="7" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
-    <col min="10" max="10" width="60.33203125" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="44.1640625" customWidth="1"/>
-    <col min="13" max="13" width="16.83203125" customWidth="1"/>
-    <col min="14" max="14" width="28" customWidth="1"/>
-    <col min="15" max="26" width="10.5" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="10.44"/>
+    <col customWidth="1" min="2" max="2" width="52.0"/>
+    <col customWidth="1" min="3" max="3" width="17.78"/>
+    <col customWidth="1" min="4" max="4" width="18.44"/>
+    <col customWidth="1" min="5" max="5" width="24.11"/>
+    <col customWidth="1" min="6" max="6" width="72.0"/>
+    <col customWidth="1" min="7" max="8" width="19.44"/>
+    <col customWidth="1" min="9" max="9" width="19.33"/>
+    <col customWidth="1" min="10" max="10" width="60.33"/>
+    <col customWidth="1" min="11" max="11" width="19.33"/>
+    <col customWidth="1" min="12" max="12" width="44.11"/>
+    <col customWidth="1" min="13" max="13" width="16.78"/>
+    <col customWidth="1" min="14" max="14" width="28.0"/>
+    <col customWidth="1" min="15" max="26" width="10.44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2099,9 +2077,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
-        <v>1291</v>
+        <v>1291.0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -2125,15 +2103,15 @@
         <v>19</v>
       </c>
       <c r="I2" s="2">
-        <v>44584</v>
+        <v>44584.0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
-        <v>167</v>
+        <v>167.0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -2157,27 +2135,27 @@
         <v>19</v>
       </c>
       <c r="I3" s="2">
-        <v>44570</v>
+        <v>44570.0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="2">
-        <v>44585</v>
+        <v>44585.0</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="2">
-        <v>44605</v>
+        <v>44605.0</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
@@ -2201,15 +2179,15 @@
         <v>19</v>
       </c>
       <c r="I4" s="2">
-        <v>44585</v>
+        <v>44585.0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
-        <v>485</v>
+        <v>485.0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -2233,15 +2211,15 @@
         <v>19</v>
       </c>
       <c r="I5" s="2">
-        <v>44585</v>
+        <v>44585.0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
-        <v>209</v>
+        <v>209.0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>37</v>
@@ -2265,15 +2243,15 @@
         <v>19</v>
       </c>
       <c r="I6" s="2">
-        <v>44585</v>
+        <v>44585.0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
-        <v>189</v>
+        <v>189.0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>40</v>
@@ -2297,15 +2275,15 @@
         <v>19</v>
       </c>
       <c r="I7" s="2">
-        <v>44586</v>
+        <v>44586.0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
-        <v>119</v>
+        <v>119.0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>44</v>
@@ -2329,21 +2307,21 @@
         <v>19</v>
       </c>
       <c r="I8" s="2">
-        <v>44586</v>
+        <v>44586.0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K8" s="2">
-        <v>44600</v>
+        <v>44600.0</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1">
-        <v>151</v>
+        <v>151.0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>49</v>
@@ -2367,15 +2345,15 @@
         <v>25</v>
       </c>
       <c r="I9" s="2">
-        <v>44586</v>
+        <v>44586.0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1">
-        <v>557</v>
+        <v>557.0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>53</v>
@@ -2399,15 +2377,15 @@
         <v>25</v>
       </c>
       <c r="I10" s="2">
-        <v>44587</v>
+        <v>44587.0</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>56</v>
@@ -2431,15 +2409,15 @@
         <v>19</v>
       </c>
       <c r="I11" s="2">
-        <v>44587</v>
+        <v>44587.0</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1">
-        <v>283</v>
+        <v>283.0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>59</v>
@@ -2463,15 +2441,15 @@
         <v>19</v>
       </c>
       <c r="I12" s="2">
-        <v>44587</v>
+        <v>44587.0</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1">
-        <v>144</v>
+        <v>144.0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>62</v>
@@ -2495,15 +2473,15 @@
         <v>25</v>
       </c>
       <c r="I13" s="2">
-        <v>44588</v>
+        <v>44588.0</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1">
-        <v>145</v>
+        <v>145.0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>67</v>
@@ -2527,15 +2505,15 @@
         <v>25</v>
       </c>
       <c r="I14" s="2">
-        <v>44588</v>
+        <v>44588.0</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1">
-        <v>94</v>
+        <v>94.0</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>69</v>
@@ -2559,21 +2537,21 @@
         <v>25</v>
       </c>
       <c r="I15" s="2">
-        <v>44588</v>
+        <v>44588.0</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K15" s="2">
-        <v>44618</v>
+        <v>44618.0</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1">
-        <v>102</v>
+        <v>102.0</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>72</v>
@@ -2597,21 +2575,21 @@
         <v>25</v>
       </c>
       <c r="I16" s="2">
-        <v>44589</v>
+        <v>44589.0</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K16" s="2">
-        <v>44618</v>
+        <v>44618.0</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1">
-        <v>104</v>
+        <v>104.0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>75</v>
@@ -2635,21 +2613,21 @@
         <v>79</v>
       </c>
       <c r="I17" s="2">
-        <v>44590</v>
+        <v>44590.0</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K17" s="2">
-        <v>44602</v>
+        <v>44602.0</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1">
-        <v>101</v>
+        <v>101.0</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>82</v>
@@ -2673,15 +2651,15 @@
         <v>79</v>
       </c>
       <c r="I18" s="2">
-        <v>44590</v>
+        <v>44590.0</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
-        <v>112</v>
+        <v>112.0</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>86</v>
@@ -2705,15 +2683,15 @@
         <v>79</v>
       </c>
       <c r="I19" s="2">
-        <v>44590</v>
+        <v>44590.0</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
-        <v>250</v>
+        <v>250.0</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>89</v>
@@ -2737,15 +2715,15 @@
         <v>91</v>
       </c>
       <c r="I20" s="2">
-        <v>44591</v>
+        <v>44591.0</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>93</v>
@@ -2769,15 +2747,15 @@
         <v>25</v>
       </c>
       <c r="I21" s="2">
-        <v>44594</v>
+        <v>44594.0</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
-        <v>106</v>
+        <v>106.0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>98</v>
@@ -2801,15 +2779,15 @@
         <v>25</v>
       </c>
       <c r="I22" s="2">
-        <v>44594</v>
+        <v>44594.0</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
-        <v>105</v>
+        <v>105.0</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>101</v>
@@ -2833,15 +2811,15 @@
         <v>25</v>
       </c>
       <c r="I23" s="2">
-        <v>44594</v>
+        <v>44594.0</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1">
-        <v>116</v>
+        <v>116.0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>103</v>
@@ -2865,15 +2843,15 @@
         <v>19</v>
       </c>
       <c r="I24" s="2">
-        <v>44595</v>
+        <v>44595.0</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>106</v>
@@ -2897,15 +2875,15 @@
         <v>19</v>
       </c>
       <c r="I25" s="2">
-        <v>44595</v>
+        <v>44595.0</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1">
-        <v>236</v>
+        <v>236.0</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>109</v>
@@ -2929,15 +2907,15 @@
         <v>25</v>
       </c>
       <c r="I26" s="2">
-        <v>44596</v>
+        <v>44596.0</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1">
-        <v>297</v>
+        <v>297.0</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>112</v>
@@ -2961,15 +2939,15 @@
         <v>25</v>
       </c>
       <c r="I27" s="2">
-        <v>44596</v>
+        <v>44596.0</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>117</v>
@@ -2993,21 +2971,21 @@
         <v>122</v>
       </c>
       <c r="I28" s="2">
-        <v>44596</v>
+        <v>44596.0</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>123</v>
       </c>
       <c r="K28" s="2">
-        <v>44621</v>
+        <v>44621.0</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1">
-        <v>1507</v>
+        <v>1507.0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>125</v>
@@ -3031,15 +3009,15 @@
         <v>19</v>
       </c>
       <c r="I29" s="2">
-        <v>44597</v>
+        <v>44597.0</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1">
-        <v>567</v>
+        <v>567.0</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>129</v>
@@ -3063,15 +3041,15 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
-        <v>44597</v>
+        <v>44597.0</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1">
-        <v>389</v>
+        <v>389.0</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>134</v>
@@ -3095,15 +3073,15 @@
         <v>19</v>
       </c>
       <c r="I31" s="2">
-        <v>44598</v>
+        <v>44598.0</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1">
-        <v>344</v>
+        <v>344.0</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>138</v>
@@ -3127,27 +3105,27 @@
         <v>19</v>
       </c>
       <c r="I32" s="2">
-        <v>44584</v>
+        <v>44584.0</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>142</v>
       </c>
       <c r="K32" s="2">
-        <v>44598</v>
+        <v>44598.0</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>143</v>
       </c>
       <c r="M32" s="2">
-        <v>44652</v>
-      </c>
-      <c r="N32" s="3" t="s">
+        <v>44652.0</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>145</v>
@@ -3171,15 +3149,15 @@
         <v>19</v>
       </c>
       <c r="I33" s="2">
-        <v>44599</v>
+        <v>44599.0</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>148</v>
@@ -3203,15 +3181,15 @@
         <v>25</v>
       </c>
       <c r="I34" s="2">
-        <v>44599</v>
+        <v>44599.0</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1">
-        <v>206</v>
+        <v>206.0</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>152</v>
@@ -3235,15 +3213,15 @@
         <v>19</v>
       </c>
       <c r="I35" s="2">
-        <v>44600</v>
+        <v>44600.0</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1">
-        <v>700</v>
+        <v>700.0</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>154</v>
@@ -3267,15 +3245,15 @@
         <v>19</v>
       </c>
       <c r="I36" s="2">
-        <v>44600</v>
+        <v>44600.0</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>159</v>
@@ -3299,15 +3277,15 @@
         <v>19</v>
       </c>
       <c r="I37" s="2">
-        <v>44600</v>
+        <v>44600.0</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1">
-        <v>509</v>
+        <v>509.0</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>163</v>
@@ -3331,15 +3309,15 @@
         <v>19</v>
       </c>
       <c r="I38" s="2">
-        <v>44601</v>
+        <v>44601.0</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>166</v>
@@ -3363,24 +3341,24 @@
         <v>19</v>
       </c>
       <c r="I39" s="2">
-        <v>44601</v>
+        <v>44601.0</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K39" s="7">
-        <v>44679</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K39" s="2">
+        <v>44679.0</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1">
-        <v>532</v>
+        <v>532.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
@@ -3392,7 +3370,7 @@
         <v>23</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>25</v>
@@ -3401,18 +3379,18 @@
         <v>25</v>
       </c>
       <c r="I40" s="2">
-        <v>44601</v>
+        <v>44601.0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>15</v>
@@ -3424,7 +3402,7 @@
         <v>83</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>25</v>
@@ -3433,21 +3411,21 @@
         <v>25</v>
       </c>
       <c r="I41" s="2">
-        <v>44602</v>
+        <v>44602.0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K41" s="2">
-        <v>44672</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44672.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1">
-        <v>372</v>
+        <v>372.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>15</v>
@@ -3459,7 +3437,7 @@
         <v>83</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>25</v>
@@ -3468,18 +3446,18 @@
         <v>25</v>
       </c>
       <c r="I42" s="2">
-        <v>44602</v>
+        <v>44602.0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>30</v>
@@ -3491,7 +3469,7 @@
         <v>83</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>25</v>
@@ -3500,18 +3478,18 @@
         <v>19</v>
       </c>
       <c r="I43" s="2">
-        <v>44603</v>
+        <v>44603.0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1">
-        <v>779</v>
+        <v>779.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>15</v>
@@ -3523,27 +3501,27 @@
         <v>83</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I44" s="2">
-        <v>44603</v>
+        <v>44603.0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1">
-        <v>88</v>
+        <v>88.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>30</v>
@@ -3552,30 +3530,30 @@
         <v>130</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I45" s="2">
-        <v>44604</v>
+        <v>44604.0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1">
-        <v>205</v>
+        <v>205.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>30</v>
@@ -3584,74 +3562,74 @@
         <v>22</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I46" s="2">
-        <v>44568</v>
+        <v>44568.0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K46" s="2">
-        <v>44606</v>
+        <v>44606.0</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1">
-        <v>136</v>
+        <v>136.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I47" s="2">
-        <v>44564</v>
+        <v>44564.0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K47" s="2">
-        <v>44607</v>
+        <v>44607.0</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1">
-        <v>95</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>202</v>
+        <v>95.0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>15</v>
@@ -3663,71 +3641,71 @@
         <v>83</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I48" s="2">
-        <v>44609</v>
+        <v>44609.0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1">
-        <v>912</v>
+        <v>912.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I49" s="2">
+        <v>44609.0</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="1">
+        <v>98.0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I49" s="2">
-        <v>44609</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>98</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>25</v>
@@ -3736,56 +3714,56 @@
         <v>25</v>
       </c>
       <c r="I50" s="2">
-        <v>44610</v>
+        <v>44610.0</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K50" s="2">
-        <v>44625</v>
+        <v>44625.0</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1">
-        <v>240</v>
+        <v>240.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I51" s="2">
-        <v>44610</v>
+        <v>44610.0</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>30</v>
@@ -3794,10 +3772,10 @@
         <v>126</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>19</v>
@@ -3806,50 +3784,50 @@
         <v>19</v>
       </c>
       <c r="I52" s="2">
-        <v>44611</v>
+        <v>44611.0</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1">
-        <v>1288</v>
+        <v>1288.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I53" s="2">
-        <v>44612</v>
+        <v>44612.0</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>52.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>113</v>
@@ -3861,7 +3839,7 @@
         <v>119</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>122</v>
@@ -3870,18 +3848,18 @@
         <v>25</v>
       </c>
       <c r="I54" s="2">
-        <v>44613</v>
+        <v>44613.0</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>113</v>
@@ -3893,27 +3871,27 @@
         <v>119</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>122</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I55" s="2">
-        <v>44613</v>
+        <v>44613.0</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1">
-        <v>489</v>
+        <v>489.0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>113</v>
@@ -3925,27 +3903,27 @@
         <v>119</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I56" s="2">
-        <v>44614</v>
+        <v>44614.0</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>113</v>
@@ -3957,27 +3935,27 @@
         <v>119</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I57" s="2">
-        <v>44615</v>
+        <v>44615.0</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>15</v>
@@ -3989,91 +3967,91 @@
         <v>119</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I58" s="2">
-        <v>44616</v>
+        <v>44616.0</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I59" s="2">
-        <v>44617</v>
+        <v>44617.0</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I60" s="2">
-        <v>44617</v>
+        <v>44617.0</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>15</v>
@@ -4085,45 +4063,45 @@
         <v>119</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I61" s="2">
-        <v>44618</v>
+        <v>44618.0</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K61" s="2">
-        <v>44621</v>
+        <v>44621.0</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1">
-        <v>426</v>
+        <v>426.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>25</v>
@@ -4132,30 +4110,30 @@
         <v>25</v>
       </c>
       <c r="I62" s="2">
-        <v>44619</v>
+        <v>44619.0</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1">
-        <v>84</v>
+        <v>84.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>25</v>
@@ -4164,18 +4142,18 @@
         <v>25</v>
       </c>
       <c r="I63" s="2">
-        <v>44620</v>
+        <v>44620.0</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1">
-        <v>79</v>
+        <v>79.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>15</v>
@@ -4187,59 +4165,59 @@
         <v>119</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I64" s="2">
-        <v>44621</v>
+        <v>44621.0</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1">
-        <v>218</v>
+        <v>218.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I65" s="2">
-        <v>44622</v>
+        <v>44622.0</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1">
-        <v>392</v>
+        <v>392.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>30</v>
@@ -4251,27 +4229,27 @@
         <v>23</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I66" s="2">
-        <v>44622</v>
+        <v>44622.0</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>15</v>
@@ -4283,27 +4261,27 @@
         <v>119</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I67" s="2">
-        <v>44623</v>
+        <v>44623.0</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>15</v>
@@ -4315,39 +4293,39 @@
         <v>119</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I68" s="2">
-        <v>44624</v>
+        <v>44624.0</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1">
-        <v>285</v>
+        <v>285.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>25</v>
@@ -4356,30 +4334,30 @@
         <v>19</v>
       </c>
       <c r="I69" s="2">
-        <v>44625</v>
+        <v>44625.0</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1">
-        <v>173</v>
+        <v>173.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>25</v>
@@ -4388,30 +4366,30 @@
         <v>157</v>
       </c>
       <c r="I70" s="2">
-        <v>44626</v>
+        <v>44626.0</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1">
-        <v>701</v>
+        <v>701.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>157</v>
@@ -4420,30 +4398,30 @@
         <v>19</v>
       </c>
       <c r="I71" s="2">
-        <v>44627</v>
+        <v>44627.0</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>450</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C72" s="3" t="s">
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="1">
+        <v>450.0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>157</v>
@@ -4452,68 +4430,68 @@
         <v>157</v>
       </c>
       <c r="I72" s="2">
-        <v>44629</v>
+        <v>44629.0</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>703</v>
-      </c>
-      <c r="B73" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C73" s="3" t="s">
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="1">
+        <v>703.0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I73" s="2">
-        <v>44630</v>
+        <v>44630.0</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K73" s="2">
-        <v>44648</v>
+        <v>44648.0</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>235</v>
-      </c>
-      <c r="B74" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C74" s="3" t="s">
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="1">
+        <v>235.0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>25</v>
@@ -4522,122 +4500,122 @@
         <v>25</v>
       </c>
       <c r="I74" s="2">
-        <v>44631</v>
+        <v>44631.0</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>220</v>
-      </c>
-      <c r="B75" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C75" s="3" t="s">
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="1">
+        <v>220.0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I75" s="2">
-        <v>44572</v>
+        <v>44572.0</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K75" s="2">
-        <v>44632</v>
+        <v>44632.0</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>110</v>
-      </c>
-      <c r="B76" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C76" s="3" t="s">
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" s="2">
+        <v>44633.0</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I76" s="2">
-        <v>44633</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>108</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I77" s="2">
-        <v>44634</v>
+        <v>44634.0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <v>1249</v>
-      </c>
-      <c r="B78" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C78" s="3" t="s">
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="1">
+        <v>1249.0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -4647,7 +4625,7 @@
         <v>95</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>25</v>
@@ -4656,62 +4634,62 @@
         <v>25</v>
       </c>
       <c r="I78" s="2">
-        <v>44635</v>
+        <v>44635.0</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>35</v>
-      </c>
-      <c r="B79" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C79" s="3" t="s">
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I79" s="2">
-        <v>44636</v>
+        <v>44636.0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <v>12</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C80" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>19</v>
@@ -4720,20 +4698,20 @@
         <v>19</v>
       </c>
       <c r="I80" s="2">
-        <v>44637</v>
+        <v>44637.0</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>316</v>
-      </c>
-      <c r="B81" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C81" s="3" t="s">
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="1">
+        <v>316.0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -4743,7 +4721,7 @@
         <v>83</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>25</v>
@@ -4752,20 +4730,20 @@
         <v>25</v>
       </c>
       <c r="I81" s="2">
-        <v>44638</v>
+        <v>44638.0</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
-        <v>47</v>
-      </c>
-      <c r="B82" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C82" s="3" t="s">
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -4775,39 +4753,39 @@
         <v>83</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I82" s="2">
-        <v>44639</v>
+        <v>44639.0</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
-        <v>1007</v>
-      </c>
-      <c r="B83" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C83" s="3" t="s">
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="1">
+        <v>1007.0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>25</v>
@@ -4816,30 +4794,30 @@
         <v>19</v>
       </c>
       <c r="I83" s="2">
-        <v>44640</v>
+        <v>44640.0</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
-        <v>763</v>
-      </c>
-      <c r="B84" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C84" s="3" t="s">
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="1">
+        <v>763.0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>25</v>
@@ -4848,30 +4826,30 @@
         <v>19</v>
       </c>
       <c r="I84" s="2">
-        <v>44641</v>
+        <v>44641.0</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
-        <v>1663</v>
-      </c>
-      <c r="B85" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C85" s="3" t="s">
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="1">
+        <v>1663.0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>25</v>
@@ -4880,52 +4858,52 @@
         <v>19</v>
       </c>
       <c r="I85" s="2">
-        <v>44642</v>
+        <v>44642.0</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
-        <v>991</v>
-      </c>
-      <c r="B86" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C86" s="3" t="s">
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="1">
+        <v>991.0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>160</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I86" s="2">
-        <v>44643</v>
+        <v>44643.0</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
-        <v>881</v>
-      </c>
-      <c r="B87" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C87" s="3" t="s">
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="1">
+        <v>881.0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -4935,217 +4913,217 @@
         <v>23</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I87" s="2">
-        <v>44644</v>
+        <v>44644.0</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
-        <v>1029</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="1">
+        <v>1029.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C88" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>149</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I88" s="2">
-        <v>44645</v>
+        <v>44645.0</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
-        <v>1337</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="1">
+        <v>1337.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C89" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I89" s="2">
-        <v>44646</v>
+        <v>44646.0</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K89" s="2">
-        <v>44650</v>
+        <v>44650.0</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
-        <v>704</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="1">
+        <v>704.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C90" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I90" s="2">
-        <v>44647</v>
+        <v>44647.0</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K90" s="2">
-        <v>44656</v>
+        <v>44656.0</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
-        <v>215</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="1">
+        <v>215.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C91" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F91" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I91" s="2">
+        <v>44648.0</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="1">
+        <v>347.0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="H91" s="1" t="s">
+      <c r="E92" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I91" s="2">
-        <v>44648</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
-        <v>347</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="H92" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I92" s="2">
+        <v>44577.0</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K92" s="2">
+        <v>44648.0</v>
+      </c>
+      <c r="L92" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="I92" s="2">
-        <v>44577</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="K92" s="2">
-        <v>44648</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
-        <v>287</v>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="1">
+        <v>287.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C93" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>25</v>
@@ -5154,196 +5132,196 @@
         <v>19</v>
       </c>
       <c r="I93" s="2">
-        <v>44566</v>
+        <v>44566.0</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K93" s="2">
-        <v>44649</v>
+        <v>44649.0</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
-        <v>1046</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="1">
+        <v>1046.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C94" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F94" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="2">
+        <v>44650.0</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="1">
+        <v>378.0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I94" s="2">
-        <v>44650</v>
-      </c>
-      <c r="J94" s="1" t="s">
+      <c r="E95" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I95" s="2">
+        <v>44650.0</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="1">
+        <v>253.0</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I96" s="2">
+        <v>44651.0</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="1">
+        <v>973.0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
-        <v>378</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="I95" s="2">
-        <v>44650</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
-        <v>253</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I96" s="2">
-        <v>44651</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
-        <v>973</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="I97" s="2">
-        <v>44651</v>
+        <v>44651.0</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
-        <v>222</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="1">
+        <v>222.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C98" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I98" s="2">
-        <v>44652</v>
+        <v>44652.0</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
-        <v>31</v>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="1">
+        <v>31.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C99" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>25</v>
@@ -5352,132 +5330,132 @@
         <v>19</v>
       </c>
       <c r="I99" s="2">
-        <v>44579</v>
+        <v>44579.0</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K99" s="2">
-        <v>44653</v>
+        <v>44653.0</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
-        <v>1167</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="1">
+        <v>1167.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C100" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I100" s="2">
-        <v>44653</v>
+        <v>44653.0</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
-        <v>1642</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="1">
+        <v>1642.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C101" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I101" s="2">
-        <v>44653</v>
+        <v>44653.0</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
-        <v>295</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="1">
+        <v>295.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C102" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I102" s="2">
-        <v>44654</v>
+        <v>44654.0</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
-        <v>1721</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="1">
+        <v>1721.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C103" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>25</v>
@@ -5486,2273 +5464,2336 @@
         <v>19</v>
       </c>
       <c r="I103" s="2">
-        <v>44655</v>
+        <v>44655.0</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
-        <v>69</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="1">
+        <v>69.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C104" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I104" s="2">
-        <v>44595</v>
+        <v>44595.0</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K104" s="2">
-        <v>44656</v>
+        <v>44656.0</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
-        <v>374</v>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="1">
+        <v>374.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C105" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I105" s="2">
-        <v>44656</v>
+        <v>44656.0</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
-        <v>33</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="1">
+        <v>33.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C106" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I106" s="2">
-        <v>44656</v>
+        <v>44656.0</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
-        <v>278</v>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="1">
+        <v>278.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C107" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I107" s="2">
-        <v>44657</v>
+        <v>44657.0</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
-        <v>162</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="1">
+        <v>162.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C108" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I108" s="2">
-        <v>44657</v>
+        <v>44657.0</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K108" s="2">
-        <v>44671</v>
+        <v>44671.0</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
-        <v>153</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="1">
+        <v>153.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C109" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I109" s="2">
-        <v>44657</v>
+        <v>44657.0</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
-        <v>695</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="1">
+        <v>695.0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C110" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F110" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I110" s="2">
+        <v>44666.0</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="E111" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="I110" s="2">
-        <v>44666</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
-        <v>200</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="G111" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I111" s="2">
+        <v>44669.0</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="I111" s="2">
-        <v>44669</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
-        <v>34</v>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="1">
+        <v>34.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C112" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I112" s="2">
-        <v>44670</v>
+        <v>44670.0</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
-        <v>658</v>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="1">
+        <v>658.0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C113" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I113" s="2">
-        <v>44670</v>
+        <v>44670.0</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
-        <v>270</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="1">
+        <v>270.0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C114" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I114" s="2">
-        <v>44671</v>
+        <v>44671.0</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
-        <v>702</v>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="1">
+        <v>702.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C115" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I115" s="2">
-        <v>44672</v>
+        <v>44672.0</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
-        <v>367</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="1">
+        <v>367.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C116" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I116" s="4">
-        <v>44672</v>
+      <c r="I116" s="2">
+        <v>44672.0</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5">
-        <v>48</v>
-      </c>
-      <c r="B117" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="5" t="s">
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E117" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="F117" s="5" t="s">
+      <c r="E117" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G117" s="5" t="s">
+      <c r="F117" s="1" t="s">
         <v>468</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I117" s="4">
-        <v>44673</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="5">
-        <v>744</v>
-      </c>
-      <c r="B118" s="5" t="s">
+      <c r="I117" s="2">
+        <v>44673.0</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C118" s="5" t="s">
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="1">
+        <v>744.0</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>471</v>
+        <v>326</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I118" s="4">
-        <v>44673</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5">
-        <v>154</v>
-      </c>
-      <c r="B119" s="5" t="s">
+      <c r="I118" s="2">
+        <v>44673.0</v>
+      </c>
+      <c r="J118" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C119" s="5" t="s">
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="1">
+        <v>154.0</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D119" s="6" t="s">
-        <v>455</v>
+      <c r="D119" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>474</v>
+        <v>326</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I119" s="4">
-        <v>44673</v>
-      </c>
-      <c r="J119" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5">
-        <v>4</v>
-      </c>
-      <c r="B120" s="5" t="s">
+      <c r="I119" s="2">
+        <v>44673.0</v>
+      </c>
+      <c r="J119" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C120" s="5" t="s">
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>455</v>
+      <c r="D120" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="G120" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H120" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I120" s="4">
-        <v>44674</v>
-      </c>
-      <c r="J120" s="5" t="s">
+      <c r="G120" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="5">
-        <v>719</v>
-      </c>
-      <c r="B121" s="5" t="s">
+      <c r="H120" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I120" s="2">
+        <v>44674.0</v>
+      </c>
+      <c r="J120" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C121" s="5" t="s">
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="1">
+        <v>719.0</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D121" s="6" t="s">
-        <v>455</v>
+      <c r="D121" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="G121" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>482</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I121" s="4">
-        <v>44675</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="5">
-        <v>410</v>
-      </c>
-      <c r="B122" s="5" t="s">
+      <c r="I121" s="2">
+        <v>44675.0</v>
+      </c>
+      <c r="J121" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C122" s="5" t="s">
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="1">
+        <v>410.0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D122" s="6" t="s">
-        <v>455</v>
+      <c r="D122" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="G122" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>486</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I122" s="4">
-        <v>44676</v>
-      </c>
-      <c r="J122" s="5" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>16</v>
-      </c>
-      <c r="B123" t="s">
-        <v>487</v>
-      </c>
-      <c r="C123" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>455</v>
+      <c r="I122" s="2">
+        <v>44676.0</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>235</v>
+        <v>326</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I123" s="4">
-        <v>44677</v>
-      </c>
-      <c r="J123" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>148</v>
-      </c>
-      <c r="B124" t="s">
+        <v>195</v>
+      </c>
+      <c r="I123" s="2">
+        <v>44677.0</v>
+      </c>
+      <c r="J123" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C124" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" s="6" t="s">
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="3">
+        <v>148.0</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="C124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F124" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I124" s="4">
-        <v>44678</v>
-      </c>
-      <c r="J124" s="6" t="s">
+      <c r="F124" s="1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>45</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="G124" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I124" s="2">
+        <v>44678.0</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="3">
+        <v>45.0</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C125" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="6" t="s">
+      <c r="C125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E125" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F125" s="6" t="s">
+      <c r="E125" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="G125" s="6" t="s">
-        <v>194</v>
+      <c r="G125" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I125" s="4">
-        <v>44680</v>
-      </c>
-      <c r="J125" s="6" t="s">
+      <c r="I125" s="2">
+        <v>44680.0</v>
+      </c>
+      <c r="J125" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>225</v>
-      </c>
-      <c r="B126" t="s">
-        <v>509</v>
-      </c>
-      <c r="C126" t="s">
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E126" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>194</v>
+      <c r="E126" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I126" s="4">
-        <v>44687</v>
-      </c>
-      <c r="J126" s="6" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>231</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="I126" s="2">
+        <v>44687.0</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="3">
+        <v>231.0</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I127" s="2">
+        <v>44688.0</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="3">
+        <v>125.0</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C127" t="s">
-        <v>30</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="F127" s="6" t="s">
+      <c r="F128" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G127" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I127" s="4">
-        <v>44688</v>
-      </c>
-      <c r="J127" s="6" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>125</v>
-      </c>
-      <c r="B128" t="s">
-        <v>502</v>
-      </c>
-      <c r="C128" t="s">
-        <v>30</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>194</v>
+      <c r="G128" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I128" s="4">
-        <v>44689</v>
-      </c>
-      <c r="J128" s="6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>198</v>
-      </c>
-      <c r="B129" t="s">
-        <v>498</v>
-      </c>
-      <c r="C129" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>194</v>
+      <c r="I128" s="2">
+        <v>44689.0</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="3">
+        <v>198.0</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I129" s="7">
-        <v>44690</v>
-      </c>
-      <c r="J129" s="6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>746</v>
-      </c>
-      <c r="B130" t="s">
+        <v>195</v>
+      </c>
+      <c r="I129" s="2">
+        <v>44690.0</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="3">
+        <v>746.0</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D130" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F130" s="6" t="s">
+      <c r="D130" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G130" s="6" t="s">
-        <v>194</v>
+      <c r="G130" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I130" s="7">
-        <v>44691</v>
-      </c>
-      <c r="J130" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I130" s="2">
+        <v>44691.0</v>
+      </c>
+      <c r="J130" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>1137</v>
-      </c>
-      <c r="B131" t="s">
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="3">
+        <v>1137.0</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D131" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F131" s="6" t="s">
+      <c r="D131" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="G131" s="6" t="s">
-        <v>194</v>
+      <c r="G131" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I131" s="7">
-        <v>44691</v>
-      </c>
-      <c r="J131" s="6" t="s">
+      <c r="I131" s="2">
+        <v>44691.0</v>
+      </c>
+      <c r="J131" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>740</v>
-      </c>
-      <c r="B132" t="s">
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="3">
+        <v>740.0</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C132" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F132" s="6" t="s">
+      <c r="C132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G132" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="H132" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="I132" s="7">
-        <v>44693</v>
-      </c>
-      <c r="J132" s="6" t="s">
+      <c r="G132" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I132" s="2">
+        <v>44693.0</v>
+      </c>
+      <c r="J132" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>221</v>
-      </c>
-      <c r="B133" t="s">
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="3">
+        <v>221.0</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I133" s="2">
+        <v>44698.0</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="3">
+        <v>62.0</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="C133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F133" s="6" t="s">
+      <c r="C134" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G133" s="6" t="s">
+      <c r="G134" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H133" s="6" t="s">
+      <c r="H134" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="I133" s="7">
-        <v>44698</v>
-      </c>
-      <c r="J133" s="6" t="s">
+      <c r="I134" s="2">
+        <v>44698.0</v>
+      </c>
+      <c r="J134" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>62</v>
-      </c>
-      <c r="B134" t="s">
-        <v>522</v>
-      </c>
-      <c r="C134" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="H134" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="I134" s="7">
-        <v>44698</v>
-      </c>
-      <c r="J134" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="K134" s="7">
-        <v>44707</v>
-      </c>
-      <c r="L134" s="6" t="s">
+      <c r="K134" s="2">
+        <v>44707.0</v>
+      </c>
+      <c r="L134" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>322</v>
-      </c>
-      <c r="B135" t="s">
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="3">
+        <v>322.0</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C135" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F135" s="6" t="s">
+      <c r="C135" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="G135" s="6" t="s">
+      <c r="G135" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="H135" s="6" t="s">
+      <c r="H135" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="I135" s="7">
-        <v>44699</v>
-      </c>
-      <c r="J135" s="6" t="s">
+      <c r="I135" s="2">
+        <v>44699.0</v>
+      </c>
+      <c r="J135" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>1335</v>
-      </c>
-      <c r="B136" t="s">
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="3">
+        <v>1335.0</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D136" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F136" s="6" t="s">
+      <c r="D136" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="G136" s="6" t="s">
+      <c r="G136" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="H136" s="6" t="s">
+      <c r="H136" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="I136" s="7">
-        <v>44700</v>
-      </c>
-      <c r="J136" s="6" t="s">
+      <c r="I136" s="2">
+        <v>44700.0</v>
+      </c>
+      <c r="J136" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>300</v>
-      </c>
-      <c r="B137" t="s">
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C137" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F137" s="6" t="s">
+      <c r="C137" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="G137" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I137" s="7">
-        <v>44701</v>
-      </c>
-      <c r="J137" s="6" t="s">
+      <c r="G137" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I137" s="2">
+        <v>44701.0</v>
+      </c>
+      <c r="J137" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>121</v>
-      </c>
-      <c r="B138" t="s">
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="3">
+        <v>121.0</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D138" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F138" s="6" t="s">
+      <c r="D138" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="G138" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H138" s="6" t="s">
+      <c r="G138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H138" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I138" s="7">
-        <v>44702</v>
-      </c>
-      <c r="J138" s="6" t="s">
+      <c r="I138" s="2">
+        <v>44702.0</v>
+      </c>
+      <c r="J138" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="K138" s="7">
-        <v>44706</v>
-      </c>
-      <c r="L138" s="6" t="s">
+      <c r="K138" s="2">
+        <v>44706.0</v>
+      </c>
+      <c r="L138" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>188</v>
-      </c>
-      <c r="B139" t="s">
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="3">
+        <v>188.0</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D139" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F139" s="6" t="s">
+      <c r="D139" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="G139" s="6" t="s">
+      <c r="G139" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="H139" s="6" t="s">
+      <c r="H139" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="I139" s="7">
-        <v>44703</v>
-      </c>
-      <c r="J139" s="6" t="s">
+      <c r="I139" s="2">
+        <v>44703.0</v>
+      </c>
+      <c r="J139" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>309</v>
-      </c>
-      <c r="B140" t="s">
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="3">
+        <v>309.0</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="C140" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F140" s="6" t="s">
+      <c r="C140" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="G140" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H140" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I140" s="7">
-        <v>44703</v>
-      </c>
-      <c r="J140" s="6" t="s">
+      <c r="G140" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I140" s="2">
+        <v>44703.0</v>
+      </c>
+      <c r="J140" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>276</v>
-      </c>
-      <c r="B141" t="s">
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="3">
+        <v>276.0</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="C141" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F141" s="6" t="s">
+      <c r="C141" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G141" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I141" s="7">
-        <v>44704</v>
-      </c>
-      <c r="J141" s="6" t="s">
+      <c r="G141" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I141" s="2">
+        <v>44704.0</v>
+      </c>
+      <c r="J141" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>518</v>
-      </c>
-      <c r="B142" t="s">
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="3">
+        <v>518.0</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C142" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F142" s="6" t="s">
+      <c r="C142" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="G142" s="6" t="s">
+      <c r="G142" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="H142" s="6" t="s">
+      <c r="H142" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="I142" s="7">
-        <v>44705</v>
-      </c>
-      <c r="J142" s="6" t="s">
+      <c r="I142" s="2">
+        <v>44705.0</v>
+      </c>
+      <c r="J142" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>91</v>
-      </c>
-      <c r="B143" t="s">
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="3">
+        <v>91.0</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C143" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F143" s="6" t="s">
+      <c r="C143" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="G143" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I143" s="7">
-        <v>44705</v>
-      </c>
-      <c r="J143" s="6" t="s">
+      <c r="G143" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I143" s="2">
+        <v>44705.0</v>
+      </c>
+      <c r="J143" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>53</v>
-      </c>
-      <c r="B144" t="s">
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="3">
+        <v>53.0</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E144" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F144" s="6" t="s">
+      <c r="E144" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="G144" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H144" s="6" t="s">
+      <c r="G144" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H144" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I144" s="7">
-        <v>44706</v>
-      </c>
-      <c r="J144" s="6" t="s">
+      <c r="I144" s="2">
+        <v>44706.0</v>
+      </c>
+      <c r="J144" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>918</v>
-      </c>
-      <c r="B145" t="s">
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="3">
+        <v>918.0</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C145" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" s="8" t="s">
+      <c r="C145" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E145" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F145" s="8" t="s">
+      <c r="E145" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G145" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H145" s="6" t="s">
+      <c r="G145" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H145" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I145" s="7">
-        <v>44706</v>
-      </c>
-      <c r="J145" s="8" t="s">
+      <c r="I145" s="2">
+        <v>44706.0</v>
+      </c>
+      <c r="J145" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>63</v>
-      </c>
-      <c r="B146" s="9" t="s">
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="3">
+        <v>63.0</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C146" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F146" s="8" t="s">
+      <c r="C146" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G146" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H146" s="6" t="s">
+      <c r="G146" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H146" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I146" s="7">
-        <v>44707</v>
-      </c>
-      <c r="J146" s="8" t="s">
+      <c r="I146" s="2">
+        <v>44707.0</v>
+      </c>
+      <c r="J146" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I147" s="2">
+        <v>44708.0</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="4">
+        <v>931.0</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I148" s="2">
+        <v>44708.0</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2F3776-A49B-C84B-A398-9B763C049728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgkhbSZEKZq28n5KbZshaUz98yNsg=="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="595">
   <si>
     <t>Number</t>
   </si>
@@ -1750,27 +1759,88 @@
   </si>
   <si>
     <t>Use top-down recursion also works, but way much slower</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Transaction Fee</t>
+  </si>
+  <si>
+    <t>Two state variables change with time / memoization - super slow</t>
+  </si>
+  <si>
+    <t>Cumulatively change the state variables, hold and cash</t>
+  </si>
+  <si>
+    <t>Paint House</t>
+  </si>
+  <si>
+    <t>Memoization method / dp</t>
+  </si>
+  <si>
+    <t>A very good problem to learn dp</t>
+  </si>
+  <si>
+    <t>Check if Number Has Equal Digit Count and Digit Value</t>
+  </si>
+  <si>
+    <t>Count occurrence in a map, match with the map</t>
+  </si>
+  <si>
+    <t>Use a digit map to match the occurrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sender with Largest Word Count </t>
+  </si>
+  <si>
+    <t>Use hashmap store the sender and count, find max when store it</t>
+  </si>
+  <si>
+    <t>Use hashamp to count and compare, string compare</t>
+  </si>
+  <si>
+    <t>Maximum Total Importance of Roads</t>
+  </si>
+  <si>
+    <t>Graph #1</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Calculate degree and corresponding importance</t>
+  </si>
+  <si>
+    <t>Assign large number to large degree, small number to low degree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1779,39 +1849,50 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2001,39 +2082,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.44"/>
-    <col customWidth="1" min="2" max="2" width="52.0"/>
-    <col customWidth="1" min="3" max="3" width="17.78"/>
-    <col customWidth="1" min="4" max="4" width="18.44"/>
-    <col customWidth="1" min="5" max="5" width="24.11"/>
-    <col customWidth="1" min="6" max="6" width="72.0"/>
-    <col customWidth="1" min="7" max="8" width="19.44"/>
-    <col customWidth="1" min="9" max="9" width="19.33"/>
-    <col customWidth="1" min="10" max="10" width="60.33"/>
-    <col customWidth="1" min="11" max="11" width="19.33"/>
-    <col customWidth="1" min="12" max="12" width="44.11"/>
-    <col customWidth="1" min="13" max="13" width="16.78"/>
-    <col customWidth="1" min="14" max="14" width="28.0"/>
-    <col customWidth="1" min="15" max="26" width="10.44"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="72" customWidth="1"/>
+    <col min="7" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="60.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" customWidth="1"/>
+    <col min="14" max="14" width="28" customWidth="1"/>
+    <col min="15" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2077,9 +2158,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1291.0</v>
+        <v>1291</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -2103,15 +2184,15 @@
         <v>19</v>
       </c>
       <c r="I2" s="2">
-        <v>44584.0</v>
+        <v>44584</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -2135,27 +2216,27 @@
         <v>19</v>
       </c>
       <c r="I3" s="2">
-        <v>44570.0</v>
+        <v>44570</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="2">
-        <v>44585.0</v>
+        <v>44585</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="2">
-        <v>44605.0</v>
+        <v>44605</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
@@ -2179,15 +2260,15 @@
         <v>19</v>
       </c>
       <c r="I4" s="2">
-        <v>44585.0</v>
+        <v>44585</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>485.0</v>
+        <v>485</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -2211,15 +2292,15 @@
         <v>19</v>
       </c>
       <c r="I5" s="2">
-        <v>44585.0</v>
+        <v>44585</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>37</v>
@@ -2243,15 +2324,15 @@
         <v>19</v>
       </c>
       <c r="I6" s="2">
-        <v>44585.0</v>
+        <v>44585</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>40</v>
@@ -2275,15 +2356,15 @@
         <v>19</v>
       </c>
       <c r="I7" s="2">
-        <v>44586.0</v>
+        <v>44586</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>44</v>
@@ -2307,21 +2388,21 @@
         <v>19</v>
       </c>
       <c r="I8" s="2">
-        <v>44586.0</v>
+        <v>44586</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K8" s="2">
-        <v>44600.0</v>
+        <v>44600</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>49</v>
@@ -2345,15 +2426,15 @@
         <v>25</v>
       </c>
       <c r="I9" s="2">
-        <v>44586.0</v>
+        <v>44586</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>557.0</v>
+        <v>557</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>53</v>
@@ -2377,15 +2458,15 @@
         <v>25</v>
       </c>
       <c r="I10" s="2">
-        <v>44587.0</v>
+        <v>44587</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>56</v>
@@ -2409,15 +2490,15 @@
         <v>19</v>
       </c>
       <c r="I11" s="2">
-        <v>44587.0</v>
+        <v>44587</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>283.0</v>
+        <v>283</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>59</v>
@@ -2441,15 +2522,15 @@
         <v>19</v>
       </c>
       <c r="I12" s="2">
-        <v>44587.0</v>
+        <v>44587</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>62</v>
@@ -2473,15 +2554,15 @@
         <v>25</v>
       </c>
       <c r="I13" s="2">
-        <v>44588.0</v>
+        <v>44588</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>67</v>
@@ -2505,15 +2586,15 @@
         <v>25</v>
       </c>
       <c r="I14" s="2">
-        <v>44588.0</v>
+        <v>44588</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>69</v>
@@ -2537,21 +2618,21 @@
         <v>25</v>
       </c>
       <c r="I15" s="2">
-        <v>44588.0</v>
+        <v>44588</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K15" s="2">
-        <v>44618.0</v>
+        <v>44618</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>72</v>
@@ -2575,21 +2656,21 @@
         <v>25</v>
       </c>
       <c r="I16" s="2">
-        <v>44589.0</v>
+        <v>44589</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K16" s="2">
-        <v>44618.0</v>
+        <v>44618</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>75</v>
@@ -2613,21 +2694,21 @@
         <v>79</v>
       </c>
       <c r="I17" s="2">
-        <v>44590.0</v>
+        <v>44590</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K17" s="2">
-        <v>44602.0</v>
+        <v>44602</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>82</v>
@@ -2651,15 +2732,15 @@
         <v>79</v>
       </c>
       <c r="I18" s="2">
-        <v>44590.0</v>
+        <v>44590</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>86</v>
@@ -2683,15 +2764,15 @@
         <v>79</v>
       </c>
       <c r="I19" s="2">
-        <v>44590.0</v>
+        <v>44590</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>89</v>
@@ -2715,15 +2796,15 @@
         <v>91</v>
       </c>
       <c r="I20" s="2">
-        <v>44591.0</v>
+        <v>44591</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>93</v>
@@ -2747,15 +2828,15 @@
         <v>25</v>
       </c>
       <c r="I21" s="2">
-        <v>44594.0</v>
+        <v>44594</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>98</v>
@@ -2779,15 +2860,15 @@
         <v>25</v>
       </c>
       <c r="I22" s="2">
-        <v>44594.0</v>
+        <v>44594</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>101</v>
@@ -2811,15 +2892,15 @@
         <v>25</v>
       </c>
       <c r="I23" s="2">
-        <v>44594.0</v>
+        <v>44594</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>103</v>
@@ -2843,15 +2924,15 @@
         <v>19</v>
       </c>
       <c r="I24" s="2">
-        <v>44595.0</v>
+        <v>44595</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>106</v>
@@ -2875,15 +2956,15 @@
         <v>19</v>
       </c>
       <c r="I25" s="2">
-        <v>44595.0</v>
+        <v>44595</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>109</v>
@@ -2907,15 +2988,15 @@
         <v>25</v>
       </c>
       <c r="I26" s="2">
-        <v>44596.0</v>
+        <v>44596</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>112</v>
@@ -2939,15 +3020,15 @@
         <v>25</v>
       </c>
       <c r="I27" s="2">
-        <v>44596.0</v>
+        <v>44596</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>117</v>
@@ -2971,21 +3052,21 @@
         <v>122</v>
       </c>
       <c r="I28" s="2">
-        <v>44596.0</v>
+        <v>44596</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>123</v>
       </c>
       <c r="K28" s="2">
-        <v>44621.0</v>
+        <v>44621</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>1507.0</v>
+        <v>1507</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>125</v>
@@ -3009,15 +3090,15 @@
         <v>19</v>
       </c>
       <c r="I29" s="2">
-        <v>44597.0</v>
+        <v>44597</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>567.0</v>
+        <v>567</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>129</v>
@@ -3041,15 +3122,15 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
-        <v>44597.0</v>
+        <v>44597</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>389.0</v>
+        <v>389</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>134</v>
@@ -3073,15 +3154,15 @@
         <v>19</v>
       </c>
       <c r="I31" s="2">
-        <v>44598.0</v>
+        <v>44598</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>138</v>
@@ -3105,27 +3186,27 @@
         <v>19</v>
       </c>
       <c r="I32" s="2">
-        <v>44584.0</v>
+        <v>44584</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>142</v>
       </c>
       <c r="K32" s="2">
-        <v>44598.0</v>
+        <v>44598</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>143</v>
       </c>
       <c r="M32" s="2">
-        <v>44652.0</v>
+        <v>44652</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>145</v>
@@ -3149,15 +3230,15 @@
         <v>19</v>
       </c>
       <c r="I33" s="2">
-        <v>44599.0</v>
+        <v>44599</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>148</v>
@@ -3181,15 +3262,15 @@
         <v>25</v>
       </c>
       <c r="I34" s="2">
-        <v>44599.0</v>
+        <v>44599</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>152</v>
@@ -3213,15 +3294,15 @@
         <v>19</v>
       </c>
       <c r="I35" s="2">
-        <v>44600.0</v>
+        <v>44600</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>154</v>
@@ -3245,15 +3326,15 @@
         <v>19</v>
       </c>
       <c r="I36" s="2">
-        <v>44600.0</v>
+        <v>44600</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>159</v>
@@ -3277,15 +3358,15 @@
         <v>19</v>
       </c>
       <c r="I37" s="2">
-        <v>44600.0</v>
+        <v>44600</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>509.0</v>
+        <v>509</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>163</v>
@@ -3309,15 +3390,15 @@
         <v>19</v>
       </c>
       <c r="I38" s="2">
-        <v>44601.0</v>
+        <v>44601</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>166</v>
@@ -3341,21 +3422,21 @@
         <v>19</v>
       </c>
       <c r="I39" s="2">
-        <v>44601.0</v>
+        <v>44601</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>168</v>
       </c>
       <c r="K39" s="2">
-        <v>44679.0</v>
+        <v>44679</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>532.0</v>
+        <v>532</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>170</v>
@@ -3379,15 +3460,15 @@
         <v>25</v>
       </c>
       <c r="I40" s="2">
-        <v>44601.0</v>
+        <v>44601</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>173</v>
@@ -3411,18 +3492,18 @@
         <v>25</v>
       </c>
       <c r="I41" s="2">
-        <v>44602.0</v>
+        <v>44602</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>175</v>
       </c>
       <c r="K41" s="2">
-        <v>44672.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>44672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>372.0</v>
+        <v>372</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>176</v>
@@ -3446,15 +3527,15 @@
         <v>25</v>
       </c>
       <c r="I42" s="2">
-        <v>44602.0</v>
+        <v>44602</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>179</v>
@@ -3478,15 +3559,15 @@
         <v>19</v>
       </c>
       <c r="I43" s="2">
-        <v>44603.0</v>
+        <v>44603</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>779.0</v>
+        <v>779</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>182</v>
@@ -3510,15 +3591,15 @@
         <v>184</v>
       </c>
       <c r="I44" s="2">
-        <v>44603.0</v>
+        <v>44603</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>186</v>
@@ -3542,15 +3623,15 @@
         <v>190</v>
       </c>
       <c r="I45" s="2">
-        <v>44604.0</v>
+        <v>44604</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>192</v>
@@ -3574,21 +3655,21 @@
         <v>19</v>
       </c>
       <c r="I46" s="2">
-        <v>44568.0</v>
+        <v>44568</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>196</v>
       </c>
       <c r="K46" s="2">
-        <v>44606.0</v>
+        <v>44606</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>198</v>
@@ -3612,21 +3693,21 @@
         <v>19</v>
       </c>
       <c r="I47" s="2">
-        <v>44564.0</v>
+        <v>44564</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>201</v>
       </c>
       <c r="K47" s="2">
-        <v>44607.0</v>
+        <v>44607</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>203</v>
@@ -3650,15 +3731,15 @@
         <v>205</v>
       </c>
       <c r="I48" s="2">
-        <v>44609.0</v>
+        <v>44609</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>912.0</v>
+        <v>912</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>207</v>
@@ -3682,15 +3763,15 @@
         <v>195</v>
       </c>
       <c r="I49" s="2">
-        <v>44609.0</v>
+        <v>44609</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>212</v>
@@ -3714,21 +3795,21 @@
         <v>25</v>
       </c>
       <c r="I50" s="2">
-        <v>44610.0</v>
+        <v>44610</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>214</v>
       </c>
       <c r="K50" s="2">
-        <v>44625.0</v>
+        <v>44625</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>216</v>
@@ -3752,15 +3833,15 @@
         <v>19</v>
       </c>
       <c r="I51" s="2">
-        <v>44610.0</v>
+        <v>44610</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>222</v>
@@ -3784,15 +3865,15 @@
         <v>19</v>
       </c>
       <c r="I52" s="2">
-        <v>44611.0</v>
+        <v>44611</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>1288.0</v>
+        <v>1288</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>225</v>
@@ -3816,15 +3897,15 @@
         <v>229</v>
       </c>
       <c r="I53" s="2">
-        <v>44612.0</v>
+        <v>44612</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>231</v>
@@ -3848,15 +3929,15 @@
         <v>25</v>
       </c>
       <c r="I54" s="2">
-        <v>44613.0</v>
+        <v>44613</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>234</v>
@@ -3880,15 +3961,15 @@
         <v>236</v>
       </c>
       <c r="I55" s="2">
-        <v>44613.0</v>
+        <v>44613</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>489.0</v>
+        <v>489</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>238</v>
@@ -3912,15 +3993,15 @@
         <v>240</v>
       </c>
       <c r="I56" s="2">
-        <v>44614.0</v>
+        <v>44614</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>242</v>
@@ -3944,15 +4025,15 @@
         <v>19</v>
       </c>
       <c r="I57" s="2">
-        <v>44615.0</v>
+        <v>44615</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>246</v>
@@ -3976,15 +4057,15 @@
         <v>249</v>
       </c>
       <c r="I58" s="2">
-        <v>44616.0</v>
+        <v>44616</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>251</v>
@@ -4008,15 +4089,15 @@
         <v>229</v>
       </c>
       <c r="I59" s="2">
-        <v>44617.0</v>
+        <v>44617</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>254</v>
@@ -4040,15 +4121,15 @@
         <v>205</v>
       </c>
       <c r="I60" s="2">
-        <v>44617.0</v>
+        <v>44617</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>257</v>
@@ -4072,21 +4153,21 @@
         <v>25</v>
       </c>
       <c r="I61" s="2">
-        <v>44618.0</v>
+        <v>44618</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>260</v>
       </c>
       <c r="K61" s="2">
-        <v>44621.0</v>
+        <v>44621</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>426.0</v>
+        <v>426</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>261</v>
@@ -4110,15 +4191,15 @@
         <v>25</v>
       </c>
       <c r="I62" s="2">
-        <v>44619.0</v>
+        <v>44619</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>264</v>
@@ -4142,15 +4223,15 @@
         <v>25</v>
       </c>
       <c r="I63" s="2">
-        <v>44620.0</v>
+        <v>44620</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>267</v>
@@ -4174,15 +4255,15 @@
         <v>270</v>
       </c>
       <c r="I64" s="2">
-        <v>44621.0</v>
+        <v>44621</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>272</v>
@@ -4206,15 +4287,15 @@
         <v>25</v>
       </c>
       <c r="I65" s="2">
-        <v>44622.0</v>
+        <v>44622</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>392.0</v>
+        <v>392</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>275</v>
@@ -4238,15 +4319,15 @@
         <v>19</v>
       </c>
       <c r="I66" s="2">
-        <v>44622.0</v>
+        <v>44622</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>279</v>
@@ -4270,15 +4351,15 @@
         <v>282</v>
       </c>
       <c r="I67" s="2">
-        <v>44623.0</v>
+        <v>44623</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>284</v>
@@ -4302,15 +4383,15 @@
         <v>195</v>
       </c>
       <c r="I68" s="2">
-        <v>44624.0</v>
+        <v>44624</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>287</v>
@@ -4334,15 +4415,15 @@
         <v>19</v>
       </c>
       <c r="I69" s="2">
-        <v>44625.0</v>
+        <v>44625</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>292</v>
@@ -4366,15 +4447,15 @@
         <v>157</v>
       </c>
       <c r="I70" s="2">
-        <v>44626.0</v>
+        <v>44626</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>701.0</v>
+        <v>701</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>295</v>
@@ -4398,15 +4479,15 @@
         <v>19</v>
       </c>
       <c r="I71" s="2">
-        <v>44627.0</v>
+        <v>44627</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>297</v>
@@ -4430,15 +4511,15 @@
         <v>157</v>
       </c>
       <c r="I72" s="2">
-        <v>44629.0</v>
+        <v>44629</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>703.0</v>
+        <v>703</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>300</v>
@@ -4462,21 +4543,21 @@
         <v>25</v>
       </c>
       <c r="I73" s="2">
-        <v>44630.0</v>
+        <v>44630</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>304</v>
       </c>
       <c r="K73" s="2">
-        <v>44648.0</v>
+        <v>44648</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>306</v>
@@ -4500,15 +4581,15 @@
         <v>25</v>
       </c>
       <c r="I74" s="2">
-        <v>44631.0</v>
+        <v>44631</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>309</v>
@@ -4532,21 +4613,21 @@
         <v>313</v>
       </c>
       <c r="I75" s="2">
-        <v>44572.0</v>
+        <v>44572</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>314</v>
       </c>
       <c r="K75" s="2">
-        <v>44632.0</v>
+        <v>44632</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>316</v>
@@ -4570,15 +4651,15 @@
         <v>25</v>
       </c>
       <c r="I76" s="2">
-        <v>44633.0</v>
+        <v>44633</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>319</v>
@@ -4602,15 +4683,15 @@
         <v>229</v>
       </c>
       <c r="I77" s="2">
-        <v>44634.0</v>
+        <v>44634</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>1249.0</v>
+        <v>1249</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>322</v>
@@ -4634,15 +4715,15 @@
         <v>25</v>
       </c>
       <c r="I78" s="2">
-        <v>44635.0</v>
+        <v>44635</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>325</v>
@@ -4666,15 +4747,15 @@
         <v>19</v>
       </c>
       <c r="I79" s="2">
-        <v>44636.0</v>
+        <v>44636</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>328</v>
@@ -4698,15 +4779,15 @@
         <v>19</v>
       </c>
       <c r="I80" s="2">
-        <v>44637.0</v>
+        <v>44637</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>332</v>
@@ -4730,15 +4811,15 @@
         <v>25</v>
       </c>
       <c r="I81" s="2">
-        <v>44638.0</v>
+        <v>44638</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>335</v>
@@ -4762,15 +4843,15 @@
         <v>25</v>
       </c>
       <c r="I82" s="2">
-        <v>44639.0</v>
+        <v>44639</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>1007.0</v>
+        <v>1007</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>339</v>
@@ -4794,15 +4875,15 @@
         <v>19</v>
       </c>
       <c r="I83" s="2">
-        <v>44640.0</v>
+        <v>44640</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>763.0</v>
+        <v>763</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>342</v>
@@ -4826,15 +4907,15 @@
         <v>19</v>
       </c>
       <c r="I84" s="2">
-        <v>44641.0</v>
+        <v>44641</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>1663.0</v>
+        <v>1663</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>345</v>
@@ -4858,15 +4939,15 @@
         <v>19</v>
       </c>
       <c r="I85" s="2">
-        <v>44642.0</v>
+        <v>44642</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>991.0</v>
+        <v>991</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>349</v>
@@ -4890,15 +4971,15 @@
         <v>19</v>
       </c>
       <c r="I86" s="2">
-        <v>44643.0</v>
+        <v>44643</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>881.0</v>
+        <v>881</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>353</v>
@@ -4922,15 +5003,15 @@
         <v>195</v>
       </c>
       <c r="I87" s="2">
-        <v>44644.0</v>
+        <v>44644</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>1029.0</v>
+        <v>1029</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>356</v>
@@ -4954,15 +5035,15 @@
         <v>19</v>
       </c>
       <c r="I88" s="2">
-        <v>44645.0</v>
+        <v>44645</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>1337.0</v>
+        <v>1337</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>359</v>
@@ -4986,21 +5067,21 @@
         <v>19</v>
       </c>
       <c r="I89" s="2">
-        <v>44646.0</v>
+        <v>44646</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>363</v>
       </c>
       <c r="K89" s="2">
-        <v>44650.0</v>
+        <v>44650</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>704.0</v>
+        <v>704</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>326</v>
@@ -5024,21 +5105,21 @@
         <v>19</v>
       </c>
       <c r="I90" s="2">
-        <v>44647.0</v>
+        <v>44647</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>366</v>
       </c>
       <c r="K90" s="2">
-        <v>44656.0</v>
+        <v>44656</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>368</v>
@@ -5062,15 +5143,15 @@
         <v>372</v>
       </c>
       <c r="I91" s="2">
-        <v>44648.0</v>
+        <v>44648</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>347.0</v>
+        <v>347</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>374</v>
@@ -5094,21 +5175,21 @@
         <v>377</v>
       </c>
       <c r="I92" s="2">
-        <v>44577.0</v>
+        <v>44577</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>378</v>
       </c>
       <c r="K92" s="2">
-        <v>44648.0</v>
+        <v>44648</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>379</v>
@@ -5132,21 +5213,21 @@
         <v>19</v>
       </c>
       <c r="I93" s="2">
-        <v>44566.0</v>
+        <v>44566</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>383</v>
       </c>
       <c r="K93" s="2">
-        <v>44649.0</v>
+        <v>44649</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>1046.0</v>
+        <v>1046</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>385</v>
@@ -5170,15 +5251,15 @@
         <v>195</v>
       </c>
       <c r="I94" s="2">
-        <v>44650.0</v>
+        <v>44650</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>378.0</v>
+        <v>378</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>387</v>
@@ -5202,15 +5283,15 @@
         <v>389</v>
       </c>
       <c r="I95" s="2">
-        <v>44650.0</v>
+        <v>44650</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>391</v>
@@ -5234,15 +5315,15 @@
         <v>195</v>
       </c>
       <c r="I96" s="2">
-        <v>44651.0</v>
+        <v>44651</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>973.0</v>
+        <v>973</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>394</v>
@@ -5266,15 +5347,15 @@
         <v>372</v>
       </c>
       <c r="I97" s="2">
-        <v>44651.0</v>
+        <v>44651</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>398</v>
@@ -5298,15 +5379,15 @@
         <v>229</v>
       </c>
       <c r="I98" s="2">
-        <v>44652.0</v>
+        <v>44652</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>401</v>
@@ -5330,21 +5411,21 @@
         <v>19</v>
       </c>
       <c r="I99" s="2">
-        <v>44579.0</v>
+        <v>44579</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>403</v>
       </c>
       <c r="K99" s="2">
-        <v>44653.0</v>
+        <v>44653</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>1167.0</v>
+        <v>1167</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>405</v>
@@ -5368,15 +5449,15 @@
         <v>195</v>
       </c>
       <c r="I100" s="2">
-        <v>44653.0</v>
+        <v>44653</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>1642.0</v>
+        <v>1642</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>408</v>
@@ -5400,15 +5481,15 @@
         <v>195</v>
       </c>
       <c r="I101" s="2">
-        <v>44653.0</v>
+        <v>44653</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>412</v>
@@ -5432,15 +5513,15 @@
         <v>195</v>
       </c>
       <c r="I102" s="2">
-        <v>44654.0</v>
+        <v>44654</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>1721.0</v>
+        <v>1721</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>416</v>
@@ -5464,15 +5545,15 @@
         <v>19</v>
       </c>
       <c r="I103" s="2">
-        <v>44655.0</v>
+        <v>44655</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>420</v>
@@ -5496,21 +5577,21 @@
         <v>19</v>
       </c>
       <c r="I104" s="2">
-        <v>44595.0</v>
+        <v>44595</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>422</v>
       </c>
       <c r="K104" s="2">
-        <v>44656.0</v>
+        <v>44656</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>424</v>
@@ -5534,15 +5615,15 @@
         <v>19</v>
       </c>
       <c r="I105" s="2">
-        <v>44656.0</v>
+        <v>44656</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>427</v>
@@ -5566,15 +5647,15 @@
         <v>19</v>
       </c>
       <c r="I106" s="2">
-        <v>44656.0</v>
+        <v>44656</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>430</v>
@@ -5598,15 +5679,15 @@
         <v>19</v>
       </c>
       <c r="I107" s="2">
-        <v>44657.0</v>
+        <v>44657</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>433</v>
@@ -5630,21 +5711,21 @@
         <v>19</v>
       </c>
       <c r="I108" s="2">
-        <v>44657.0</v>
+        <v>44657</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>435</v>
       </c>
       <c r="K108" s="2">
-        <v>44671.0</v>
+        <v>44671</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>436</v>
@@ -5668,15 +5749,15 @@
         <v>19</v>
       </c>
       <c r="I109" s="2">
-        <v>44657.0</v>
+        <v>44657</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>695.0</v>
+        <v>695</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>439</v>
@@ -5700,15 +5781,15 @@
         <v>442</v>
       </c>
       <c r="I110" s="2">
-        <v>44666.0</v>
+        <v>44666</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>444</v>
@@ -5732,15 +5813,15 @@
         <v>445</v>
       </c>
       <c r="I111" s="2">
-        <v>44669.0</v>
+        <v>44669</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>446</v>
@@ -5764,15 +5845,15 @@
         <v>19</v>
       </c>
       <c r="I112" s="2">
-        <v>44670.0</v>
+        <v>44670</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>658.0</v>
+        <v>658</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>450</v>
@@ -5796,15 +5877,15 @@
         <v>19</v>
       </c>
       <c r="I113" s="2">
-        <v>44670.0</v>
+        <v>44670</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>455</v>
@@ -5828,15 +5909,15 @@
         <v>19</v>
       </c>
       <c r="I114" s="2">
-        <v>44671.0</v>
+        <v>44671</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>702.0</v>
+        <v>702</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>459</v>
@@ -5860,15 +5941,15 @@
         <v>19</v>
       </c>
       <c r="I115" s="2">
-        <v>44672.0</v>
+        <v>44672</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>367.0</v>
+        <v>367</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>463</v>
@@ -5892,15 +5973,15 @@
         <v>19</v>
       </c>
       <c r="I116" s="2">
-        <v>44672.0</v>
+        <v>44672</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>466</v>
@@ -5924,15 +6005,15 @@
         <v>19</v>
       </c>
       <c r="I117" s="2">
-        <v>44673.0</v>
+        <v>44673</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>744.0</v>
+        <v>744</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>471</v>
@@ -5956,15 +6037,15 @@
         <v>19</v>
       </c>
       <c r="I118" s="2">
-        <v>44673.0</v>
+        <v>44673</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>474</v>
@@ -5988,15 +6069,15 @@
         <v>19</v>
       </c>
       <c r="I119" s="2">
-        <v>44673.0</v>
+        <v>44673</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>477</v>
@@ -6020,15 +6101,15 @@
         <v>195</v>
       </c>
       <c r="I120" s="2">
-        <v>44674.0</v>
+        <v>44674</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>719.0</v>
+        <v>719</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>481</v>
@@ -6052,15 +6133,15 @@
         <v>19</v>
       </c>
       <c r="I121" s="2">
-        <v>44675.0</v>
+        <v>44675</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>485</v>
@@ -6084,15 +6165,15 @@
         <v>19</v>
       </c>
       <c r="I122" s="2">
-        <v>44676.0</v>
+        <v>44676</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>488</v>
@@ -6116,15 +6197,15 @@
         <v>195</v>
       </c>
       <c r="I123" s="2">
-        <v>44677.0</v>
+        <v>44677</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>491</v>
@@ -6148,15 +6229,15 @@
         <v>229</v>
       </c>
       <c r="I124" s="2">
-        <v>44678.0</v>
+        <v>44678</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>495</v>
@@ -6180,15 +6261,15 @@
         <v>19</v>
       </c>
       <c r="I125" s="2">
-        <v>44680.0</v>
+        <v>44680</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>498</v>
@@ -6212,15 +6293,15 @@
         <v>19</v>
       </c>
       <c r="I126" s="2">
-        <v>44687.0</v>
+        <v>44687</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>502</v>
@@ -6244,15 +6325,15 @@
         <v>229</v>
       </c>
       <c r="I127" s="2">
-        <v>44688.0</v>
+        <v>44688</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>505</v>
@@ -6276,15 +6357,15 @@
         <v>19</v>
       </c>
       <c r="I128" s="2">
-        <v>44689.0</v>
+        <v>44689</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>509</v>
@@ -6308,15 +6389,15 @@
         <v>195</v>
       </c>
       <c r="I129" s="2">
-        <v>44690.0</v>
+        <v>44690</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>746.0</v>
+        <v>746</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>513</v>
@@ -6340,15 +6421,15 @@
         <v>195</v>
       </c>
       <c r="I130" s="2">
-        <v>44691.0</v>
+        <v>44691</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>1137.0</v>
+        <v>1137</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>516</v>
@@ -6372,15 +6453,15 @@
         <v>19</v>
       </c>
       <c r="I131" s="2">
-        <v>44691.0</v>
+        <v>44691</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>740.0</v>
+        <v>740</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>519</v>
@@ -6404,15 +6485,15 @@
         <v>377</v>
       </c>
       <c r="I132" s="2">
-        <v>44693.0</v>
+        <v>44693</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>522</v>
@@ -6436,15 +6517,15 @@
         <v>524</v>
       </c>
       <c r="I133" s="2">
-        <v>44698.0</v>
+        <v>44698</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>526</v>
@@ -6468,21 +6549,21 @@
         <v>524</v>
       </c>
       <c r="I134" s="2">
-        <v>44698.0</v>
+        <v>44698</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>528</v>
       </c>
       <c r="K134" s="2">
-        <v>44707.0</v>
+        <v>44707</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>322.0</v>
+        <v>322</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>529</v>
@@ -6506,15 +6587,15 @@
         <v>531</v>
       </c>
       <c r="I135" s="2">
-        <v>44699.0</v>
+        <v>44699</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>1335.0</v>
+        <v>1335</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>533</v>
@@ -6538,15 +6619,15 @@
         <v>536</v>
       </c>
       <c r="I136" s="2">
-        <v>44700.0</v>
+        <v>44700</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>538</v>
@@ -6570,15 +6651,15 @@
         <v>25</v>
       </c>
       <c r="I137" s="2">
-        <v>44701.0</v>
+        <v>44701</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>541</v>
@@ -6602,21 +6683,21 @@
         <v>19</v>
       </c>
       <c r="I138" s="2">
-        <v>44702.0</v>
+        <v>44702</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>543</v>
       </c>
       <c r="K138" s="2">
-        <v>44706.0</v>
+        <v>44706</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>544</v>
@@ -6640,15 +6721,15 @@
         <v>546</v>
       </c>
       <c r="I139" s="2">
-        <v>44703.0</v>
+        <v>44703</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>548</v>
@@ -6672,15 +6753,15 @@
         <v>25</v>
       </c>
       <c r="I140" s="2">
-        <v>44703.0</v>
+        <v>44703</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>551</v>
@@ -6704,15 +6785,15 @@
         <v>25</v>
       </c>
       <c r="I141" s="2">
-        <v>44704.0</v>
+        <v>44704</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>518.0</v>
+        <v>518</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>554</v>
@@ -6736,15 +6817,15 @@
         <v>557</v>
       </c>
       <c r="I142" s="2">
-        <v>44705.0</v>
+        <v>44705</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>559</v>
@@ -6768,15 +6849,15 @@
         <v>25</v>
       </c>
       <c r="I143" s="2">
-        <v>44705.0</v>
+        <v>44705</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>562</v>
@@ -6800,15 +6881,15 @@
         <v>19</v>
       </c>
       <c r="I144" s="2">
-        <v>44706.0</v>
+        <v>44706</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>918.0</v>
+        <v>918</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>566</v>
@@ -6832,15 +6913,15 @@
         <v>19</v>
       </c>
       <c r="I145" s="2">
-        <v>44706.0</v>
+        <v>44706</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>569</v>
@@ -6864,15 +6945,15 @@
         <v>19</v>
       </c>
       <c r="I146" s="2">
-        <v>44707.0</v>
+        <v>44707</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>572</v>
@@ -6896,15 +6977,15 @@
         <v>19</v>
       </c>
       <c r="I147" s="2">
-        <v>44708.0</v>
+        <v>44708</v>
       </c>
       <c r="J147" s="4" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
-        <v>931.0</v>
+        <v>931</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>575</v>
@@ -6928,872 +7009,1028 @@
         <v>19</v>
       </c>
       <c r="I148" s="2">
-        <v>44708.0</v>
+        <v>44708</v>
       </c>
       <c r="J148" s="4" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="5">
+        <v>2283</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I149" s="2">
+        <v>44709</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="5">
+        <v>2284</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I150" s="2">
+        <v>44709</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="5">
+        <v>2285</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I151" s="2">
+        <v>44709</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="5">
+        <v>714</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" s="7">
+        <v>44710</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="5">
+        <v>256</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I153" s="7">
+        <v>44711</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2F3776-A49B-C84B-A398-9B763C049728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9B09A8-1C58-1241-9CC3-E3A98E91B3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="599">
   <si>
     <t>Number</t>
   </si>
@@ -1810,13 +1810,25 @@
   </si>
   <si>
     <t>Assign large number to large degree, small number to low degree</t>
+  </si>
+  <si>
+    <t>Paint House II</t>
+  </si>
+  <si>
+    <t>DP #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three nested for loop to find min in last row/only record min and second min </t>
+  </si>
+  <si>
+    <t>Normal dp template</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1839,6 +1851,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2091,9 +2109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I166" sqref="I166"/>
+      <selection pane="bottomLeft" activeCell="I160" sqref="I160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7175,7 +7193,38 @@
         <v>583</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="5">
+        <v>265</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" s="7">
+        <v>44712</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
     <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8030,6 +8079,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9B09A8-1C58-1241-9CC3-E3A98E91B3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019F3986-A5F8-7D40-827D-F5747BE2A500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="604">
   <si>
     <t>Number</t>
   </si>
@@ -1815,24 +1815,46 @@
     <t>Paint House II</t>
   </si>
   <si>
-    <t>DP #2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Three nested for loop to find min in last row/only record min and second min </t>
   </si>
   <si>
     <t>Normal dp template</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>Two state variables change with time</t>
+  </si>
+  <si>
+    <t>Hold and cash two variables</t>
+  </si>
+  <si>
+    <t>Count Vowels Permutation</t>
+  </si>
+  <si>
+    <t>Create corresponding number of variables</t>
+  </si>
+  <si>
+    <t>5 variables and change value with operations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1882,16 +1904,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2109,9 +2132,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I160" sqref="I160"/>
+      <selection pane="bottomLeft" activeCell="J161" sqref="J161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7204,13 +7227,13 @@
         <v>113</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>596</v>
+        <v>563</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>218</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>546</v>
@@ -7222,11 +7245,73 @@
         <v>44712</v>
       </c>
       <c r="J154" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="9">
+        <v>122</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I155" s="7">
+        <v>44714</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="9">
+        <v>1220</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I156" s="7">
+        <v>44714</v>
+      </c>
+      <c r="J156" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
     <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8079,7 +8164,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019F3986-A5F8-7D40-827D-F5747BE2A500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946F1697-FA21-7341-922A-4F3429D7891C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="610">
   <si>
     <t>Number</t>
   </si>
@@ -1837,17 +1837,42 @@
   </si>
   <si>
     <t>5 variables and change value with operations</t>
+  </si>
+  <si>
+    <t>Maximum Length of Repeated Subarray</t>
+  </si>
+  <si>
+    <t>Create 2D Memo to store cumulative value, consider transformation</t>
+  </si>
+  <si>
+    <t>Hard to transfer the question to dp process</t>
+  </si>
+  <si>
+    <t>Number of Dice Rolls with Target Sum</t>
+  </si>
+  <si>
+    <t>Memoization method and minus dice value using for loop</t>
+  </si>
+  <si>
+    <t>Hard to think, if bottom-up, will be three-nested-forloop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1904,16 +1929,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2132,9 +2158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J161" sqref="J161"/>
+      <selection pane="bottomLeft" activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7312,8 +7338,70 @@
         <v>603</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="10">
+        <v>718</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="I157" s="7">
+        <v>44715</v>
+      </c>
+      <c r="J157" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="10">
+        <v>1155</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I158" s="7">
+        <v>44715</v>
+      </c>
+      <c r="J158" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
     <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8164,7 +8252,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946F1697-FA21-7341-922A-4F3429D7891C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6503947D-C342-C04A-B850-84B1CBED5266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="613">
   <si>
     <t>Number</t>
   </si>
@@ -1855,17 +1855,33 @@
   </si>
   <si>
     <t>Hard to think, if bottom-up, will be three-nested-forloop</t>
+  </si>
+  <si>
+    <t>Domino and Tromino Tiling</t>
+  </si>
+  <si>
+    <t>Consider fully cover and partially cover in bottom-up solution</t>
+  </si>
+  <si>
+    <t>Need two memo array for adding up</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1929,16 +1945,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -2158,9 +2175,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J163" sqref="J163"/>
+      <selection pane="bottomLeft" activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7402,7 +7419,38 @@
         <v>609</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="11">
+        <v>790</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I159" s="7">
+        <v>44716</v>
+      </c>
+      <c r="J159" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
     <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8252,7 +8300,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6503947D-C342-C04A-B850-84B1CBED5266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4E7236-AE41-DF43-BFF7-ADB8FBD29351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="619">
   <si>
     <t>Number</t>
   </si>
@@ -1864,17 +1864,42 @@
   </si>
   <si>
     <t>Need two memo array for adding up</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Consider reverse the triangle/keep cumulative the sum</t>
+  </si>
+  <si>
+    <t>Reverse the triangle make it easier</t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider each number to be the root, left times the right sub tree </t>
+  </si>
+  <si>
+    <t>Find pattern is the hardest part</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1945,16 +1970,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2175,9 +2201,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I166" sqref="I166"/>
+      <selection pane="bottomLeft" activeCell="J168" sqref="J168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7451,23 +7477,85 @@
         <v>612</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="12">
+        <v>120</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I160" s="7">
+        <v>44718</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="12">
+        <v>96</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I161" s="7">
+        <v>44718</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8300,7 +8388,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4E7236-AE41-DF43-BFF7-ADB8FBD29351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC54213F-0F44-AA41-983B-B004D27C3BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="626">
   <si>
     <t>Number</t>
   </si>
@@ -1882,17 +1882,45 @@
   </si>
   <si>
     <t>Find pattern is the hardest part</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>Brute force is the simplest method/ record min and max product, product them</t>
+  </si>
+  <si>
+    <t>Compare max and min product and keep product them</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>Backtracking + dp or purely backtracking method</t>
+  </si>
+  <si>
+    <t>O(N*2^N)</t>
+  </si>
+  <si>
+    <t>Backtracking, create 2D boolean memo to see if palindrome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1970,16 +1998,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2202,8 +2231,8 @@
   <dimension ref="A1:N1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J168" sqref="J168"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J167" sqref="J167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7541,8 +7570,70 @@
         <v>618</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="13">
+        <v>152</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I162" s="7">
+        <v>44719</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="13">
+        <v>131</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I163" s="7">
+        <v>44719</v>
+      </c>
+      <c r="J163" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
     <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8388,7 +8479,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC54213F-0F44-AA41-983B-B004D27C3BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46E9F18-04E6-974C-AF47-EBD3B30B038B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="634">
   <si>
     <t>Number</t>
   </si>
@@ -1903,17 +1903,48 @@
   </si>
   <si>
     <t>Backtracking, create 2D boolean memo to see if palindrome</t>
+  </si>
+  <si>
+    <t>House Robber II</t>
+  </si>
+  <si>
+    <t>Use dp twice and compare</t>
+  </si>
+  <si>
+    <t>Use dp twice</t>
+  </si>
+  <si>
+    <t>Rob node or not rob node, use recursion</t>
+  </si>
+  <si>
+    <t>House Robber III</t>
+  </si>
+  <si>
+    <t>Arithmetic Slices</t>
+  </si>
+  <si>
+    <t>Sliding window with 3, dp, cumulative count</t>
+  </si>
+  <si>
+    <t>Do not overthink its complexity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1998,16 +2029,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2231,8 +2263,8 @@
   <dimension ref="A1:N1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J167" sqref="J167"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J168" sqref="J168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7634,9 +7666,102 @@
         <v>625</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="14">
+        <v>213</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I164" s="7">
+        <v>44720</v>
+      </c>
+      <c r="J164" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="14">
+        <v>337</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I165" s="7">
+        <v>44720</v>
+      </c>
+      <c r="J165" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="14">
+        <v>413</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I166" s="7">
+        <v>44720</v>
+      </c>
+      <c r="J166" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
     <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8479,7 +8604,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46E9F18-04E6-974C-AF47-EBD3B30B038B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D3381E-E46A-0B4A-838F-A823DBF950CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="638">
   <si>
     <t>Number</t>
   </si>
@@ -1927,17 +1927,36 @@
   </si>
   <si>
     <t>Do not overthink its complexity</t>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>Backtacking classic problem / cascading</t>
+  </si>
+  <si>
+    <t>Subsets II</t>
+  </si>
+  <si>
+    <t>Backtacking sort array, gap same element / cascading</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2029,16 +2048,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2262,9 +2282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J168" sqref="J168"/>
+      <selection pane="bottomLeft" activeCell="J171" sqref="J171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7762,8 +7782,70 @@
         <v>633</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="15">
+        <v>78</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I167" s="7">
+        <v>44721</v>
+      </c>
+      <c r="J167" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="15">
+        <v>90</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I168" s="7">
+        <v>44721</v>
+      </c>
+      <c r="J168" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
     <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8604,7 +8686,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D3381E-E46A-0B4A-838F-A823DBF950CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAE65EC-014E-754D-9B33-89B8B2CA31D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="644">
   <si>
     <t>Number</t>
   </si>
@@ -1939,17 +1939,42 @@
   </si>
   <si>
     <t>Backtacking sort array, gap same element / cascading</t>
+  </si>
+  <si>
+    <t>Restore IP Address</t>
+  </si>
+  <si>
+    <t>Path Sum II</t>
+  </si>
+  <si>
+    <t>Backtracking, input of step and record step, remove dot at the end</t>
+  </si>
+  <si>
+    <t>Input of count sum number, be careful about null node(may count twice)</t>
+  </si>
+  <si>
+    <t>Add 1 more input to record the count</t>
+  </si>
+  <si>
+    <t>Add 1 more input to record the sum number value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2048,16 +2073,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2282,9 +2308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J171" sqref="J171"/>
+      <selection pane="bottomLeft" activeCell="J172" sqref="J172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7846,8 +7872,70 @@
         <v>283</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="16">
+        <v>93</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I169" s="7">
+        <v>44722</v>
+      </c>
+      <c r="J169" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="16">
+        <v>113</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H170" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I170" s="7">
+        <v>44722</v>
+      </c>
+      <c r="J170" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
     <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8686,7 +8774,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAE65EC-014E-754D-9B33-89B8B2CA31D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E06AEB-7ECF-254B-A581-099F3A60808A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="648">
   <si>
     <t>Number</t>
   </si>
@@ -1957,17 +1957,36 @@
   </si>
   <si>
     <t>Add 1 more input to record the sum number value</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>Backtracking can be slow, dp</t>
+  </si>
+  <si>
+    <t>O(t*n)</t>
+  </si>
+  <si>
+    <t>Backtracking easy to write but slow, dp is hard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2073,16 +2092,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2308,9 +2328,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J172" sqref="J172"/>
+      <selection pane="bottomLeft" activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7936,7 +7956,38 @@
         <v>643</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="17">
+        <v>494</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="H171" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="I171" s="7">
+        <v>44725</v>
+      </c>
+      <c r="J171" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
     <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8774,7 +8825,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E06AEB-7ECF-254B-A581-099F3A60808A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6228DBF-80CE-8D4B-8746-849CF834A90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="655">
   <si>
     <t>Number</t>
   </si>
@@ -1969,17 +1969,52 @@
   </si>
   <si>
     <t>Backtracking easy to write but slow, dp is hard</t>
+  </si>
+  <si>
+    <t>Merge Interval</t>
+  </si>
+  <si>
+    <t>Sort and get linkedlist for storage</t>
+  </si>
+  <si>
+    <t>Sort and get linkedlist</t>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>BFS and use stack or queue to store the node</t>
+  </si>
+  <si>
+    <t>No need to sort but need to record column range number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2092,16 +2127,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2328,9 +2365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J173" sqref="J173"/>
+      <selection pane="bottomLeft" activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7988,8 +8025,70 @@
         <v>647</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="18">
+        <v>56</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I172" s="7">
+        <v>44726</v>
+      </c>
+      <c r="J172" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="19">
+        <v>314</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I173" s="7">
+        <v>44727</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
     <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8825,7 +8924,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6228DBF-80CE-8D4B-8746-849CF834A90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED44B5-896B-2048-9913-730CF634676B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="667">
   <si>
     <t>Number</t>
   </si>
@@ -1990,17 +1990,60 @@
   </si>
   <si>
     <t>No need to sort but need to record column range number</t>
+  </si>
+  <si>
+    <t>Robot Return to Origin</t>
+  </si>
+  <si>
+    <t>DFS #1</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Use two constants for representation</t>
+  </si>
+  <si>
+    <t>No need to build stacks</t>
+  </si>
+  <si>
+    <t>Number of Provinces</t>
+  </si>
+  <si>
+    <t>1 array visited, dfs, loop through the nodes</t>
+  </si>
+  <si>
+    <t>dfs and bfs</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>Use list to store all neighbours, create visited array, loop through the nodes</t>
+  </si>
+  <si>
+    <t>O(E + V)</t>
+  </si>
+  <si>
+    <t>a good example of dfs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2127,16 +2170,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2365,9 +2409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J163" sqref="J163"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J184" sqref="J184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8089,9 +8133,102 @@
         <v>654</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="20">
+        <v>657</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I174" s="7">
+        <v>44728</v>
+      </c>
+      <c r="J174" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="20">
+        <v>547</v>
+      </c>
+      <c r="B175" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H175" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I175" s="7">
+        <v>44728</v>
+      </c>
+      <c r="J175" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="20">
+        <v>323</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="I176" s="7">
+        <v>44728</v>
+      </c>
+      <c r="J176" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
     <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8924,7 +9061,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED44B5-896B-2048-9913-730CF634676B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF0641F-BFFC-AF4D-9614-E73C23513343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="677">
   <si>
     <t>Number</t>
   </si>
@@ -2026,17 +2026,61 @@
   </si>
   <si>
     <t>a good example of dfs</t>
+  </si>
+  <si>
+    <t>Palindrome Permutation II</t>
+  </si>
+  <si>
+    <t>Split the string, use backtracking, then reverse and concat the string</t>
+  </si>
+  <si>
+    <t>O((n/2 + 1)!)</t>
+  </si>
+  <si>
+    <t>Split the string to save more time, reverse concat the string</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement</t>
+  </si>
+  <si>
+    <t>Permutations-Collections and swap, or array swap, if meet requirement then backtrack</t>
+  </si>
+  <si>
+    <t>Same as the backtracking template</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>DFS or union-find, better to check the edge number before apply algorithm</t>
+  </si>
+  <si>
+    <t>Create neighbors list before operations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2170,16 +2214,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2410,8 +2456,8 @@
   <dimension ref="A1:N1007"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J184" sqref="J184"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I182" sqref="I182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8229,22 +8275,115 @@
         <v>666</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="21">
+        <v>267</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="H177" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I177" s="7">
+        <v>44729</v>
+      </c>
+      <c r="J177" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="21">
+        <v>526</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="H178" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I178" s="7">
+        <v>44731</v>
+      </c>
+      <c r="J178" s="6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="22">
+        <v>261</v>
+      </c>
+      <c r="B179" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H179" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I179" s="7">
+        <v>44732</v>
+      </c>
+      <c r="J179" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9061,7 +9200,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF0641F-BFFC-AF4D-9614-E73C23513343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065C186E-4288-3849-8FA9-87B239A05AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="687">
   <si>
     <t>Number</t>
   </si>
@@ -2056,17 +2056,54 @@
   </si>
   <si>
     <t>Create neighbors list before operations</t>
+  </si>
+  <si>
+    <t>Optimize Water Distribution in a Village</t>
+  </si>
+  <si>
+    <t>Union Find</t>
+  </si>
+  <si>
+    <t>Add virtual vertex 0 to connect, union sorted edges(nodes)</t>
+  </si>
+  <si>
+    <t>O((n + m)log(n + m))</t>
+  </si>
+  <si>
+    <t>Virtual node and create more edges, sort edge list</t>
+  </si>
+  <si>
+    <t>Smallest String with Swaps</t>
+  </si>
+  <si>
+    <t>Group the character index based on swaps, sort the char based on index, put them back</t>
+  </si>
+  <si>
+    <t>O((E+V)a(V) + VlogV)</t>
+  </si>
+  <si>
+    <t>O(V)</t>
+  </si>
+  <si>
+    <t>Group index, store group map, sort values in map</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2214,16 +2251,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2455,9 +2493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I182" sqref="I182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J186" sqref="J186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2468,7 +2506,8 @@
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" customWidth="1"/>
     <col min="6" max="6" width="72" customWidth="1"/>
-    <col min="7" max="8" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
     <col min="10" max="10" width="60.33203125" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" customWidth="1"/>
@@ -8371,8 +8410,70 @@
         <v>676</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="23">
+        <v>1168</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="C180" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="H180" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I180" s="7">
+        <v>44734</v>
+      </c>
+      <c r="J180" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="23">
+        <v>1202</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>682</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="I181" s="7">
+        <v>44734</v>
+      </c>
+      <c r="J181" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
     <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9200,7 +9301,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065C186E-4288-3849-8FA9-87B239A05AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9AC24D-5758-F44A-A075-57225AD64EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="698">
   <si>
     <t>Number</t>
   </si>
@@ -2086,17 +2086,57 @@
   </si>
   <si>
     <t>Group index, store group map, sort values in map</t>
+  </si>
+  <si>
+    <t>Accounts Merge</t>
+  </si>
+  <si>
+    <t>Group the email by index and union, group emails into list, replace index with name</t>
+  </si>
+  <si>
+    <t>O(nk log(nk))</t>
+  </si>
+  <si>
+    <t>treat the merge as a graph situation</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Use a map to store number and index, union them if their absolute difference is 1</t>
+  </si>
+  <si>
+    <t>O(a(n)) = O(n)</t>
+  </si>
+  <si>
+    <t>Or use hashset</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>Treat it as graph, build the graph and store node, target node and value</t>
+  </si>
+  <si>
+    <t>use backtracking to find a path</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2251,16 +2291,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2493,9 +2534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J186" sqref="J186"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H187" sqref="H187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8474,9 +8515,102 @@
         <v>686</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="24">
+        <v>721</v>
+      </c>
+      <c r="B182" s="24" t="s">
+        <v>687</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="H182" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="I182" s="7">
+        <v>44735</v>
+      </c>
+      <c r="J182" s="6" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="24">
+        <v>128</v>
+      </c>
+      <c r="B183" s="24" t="s">
+        <v>691</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="I183" s="7">
+        <v>44735</v>
+      </c>
+      <c r="J183" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>399</v>
+      </c>
+      <c r="B184" t="s">
+        <v>695</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H184" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I184" s="7">
+        <v>44735</v>
+      </c>
+      <c r="J184" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
     <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9301,7 +9435,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9AC24D-5758-F44A-A075-57225AD64EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AFF009-A5D5-474B-B573-2A0DCB1845D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="709">
   <si>
     <t>Number</t>
   </si>
@@ -2119,17 +2119,57 @@
   </si>
   <si>
     <t>use backtracking to find a path</t>
+  </si>
+  <si>
+    <t>Find if Path Exists in Graph</t>
+  </si>
+  <si>
+    <t>Standard DFS problem with stack, create neighbor list</t>
+  </si>
+  <si>
+    <t>O(V + E)</t>
+  </si>
+  <si>
+    <t>Standard DFS problem</t>
+  </si>
+  <si>
+    <t>All Paths From Source to Target</t>
+  </si>
+  <si>
+    <t>Backtracking + dfs, add 0 before go into backtracking</t>
+  </si>
+  <si>
+    <t>O(2^V*V)</t>
+  </si>
+  <si>
+    <t>Just backtracking with some tricks</t>
+  </si>
+  <si>
+    <t>Surrounded Regions</t>
+  </si>
+  <si>
+    <t>Any node not connect with the edge O node can be captured, use another mark</t>
+  </si>
+  <si>
+    <t>DFS: right, left, up, down in 2D grid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2291,16 +2331,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2535,8 +2576,8 @@
   <dimension ref="A1:N1007"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H187" sqref="H187"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J187" sqref="J187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8611,9 +8652,102 @@
         <v>697</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>1971</v>
+      </c>
+      <c r="B185" t="s">
+        <v>698</v>
+      </c>
+      <c r="C185" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="I185" s="7">
+        <v>44736</v>
+      </c>
+      <c r="J185" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>797</v>
+      </c>
+      <c r="B186" t="s">
+        <v>702</v>
+      </c>
+      <c r="C186" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="I186" s="7">
+        <v>44736</v>
+      </c>
+      <c r="J186" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>130</v>
+      </c>
+      <c r="B187" t="s">
+        <v>706</v>
+      </c>
+      <c r="C187" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H187" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I187" s="7">
+        <v>44736</v>
+      </c>
+      <c r="J187" s="6" t="s">
+        <v>708</v>
+      </c>
+    </row>
     <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9435,7 +9569,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AFF009-A5D5-474B-B573-2A0DCB1845D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985C6F09-6351-9448-8248-05D6C275781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="715">
   <si>
     <t>Number</t>
   </si>
@@ -2152,17 +2152,42 @@
   </si>
   <si>
     <t>DFS: right, left, up, down in 2D grid</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>Store in list, sort and remove node if traversed dfs</t>
+  </si>
+  <si>
+    <t>O(Elog(E/V))</t>
+  </si>
+  <si>
+    <t>BFS with queue</t>
+  </si>
+  <si>
+    <t>Just backtracking</t>
+  </si>
+  <si>
+    <t>sort and remove from the beginning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2331,16 +2356,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2575,9 +2601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J187" sqref="J187"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8396,7 +8422,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="21">
         <v>267</v>
       </c>
@@ -8428,7 +8454,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="21">
         <v>526</v>
       </c>
@@ -8460,7 +8486,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="22">
         <v>261</v>
       </c>
@@ -8492,7 +8518,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="23">
         <v>1168</v>
       </c>
@@ -8524,7 +8550,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="23">
         <v>1202</v>
       </c>
@@ -8556,7 +8582,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="24">
         <v>721</v>
       </c>
@@ -8588,7 +8614,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="24">
         <v>128</v>
       </c>
@@ -8620,7 +8646,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>399</v>
       </c>
@@ -8652,7 +8678,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1971</v>
       </c>
@@ -8683,8 +8709,14 @@
       <c r="J185" s="6" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K185" s="7">
+        <v>44740</v>
+      </c>
+      <c r="L185" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>797</v>
       </c>
@@ -8715,8 +8747,14 @@
       <c r="J186" s="6" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K186" s="7">
+        <v>44741</v>
+      </c>
+      <c r="L186" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>130</v>
       </c>
@@ -8748,11 +8786,42 @@
         <v>708</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>322</v>
+      </c>
+      <c r="B188" t="s">
+        <v>709</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="H188" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="I188" s="7">
+        <v>44739</v>
+      </c>
+      <c r="J188" s="6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9569,7 +9638,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985C6F09-6351-9448-8248-05D6C275781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C7AF11-F3DE-8248-A93D-21542A48F701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="720">
   <si>
     <t>Number</t>
   </si>
@@ -2170,17 +2170,39 @@
   </si>
   <si>
     <t>sort and remove from the beginning</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>Number of Distinct Islands</t>
+  </si>
+  <si>
+    <t>DFS #2</t>
+  </si>
+  <si>
+    <t>DFS and check if the islands are the same(also dfs in lists)</t>
+  </si>
+  <si>
+    <t>hash by local coordinates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2356,16 +2378,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2602,8 +2625,8 @@
   <dimension ref="A1:N1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J197" sqref="J197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6329,6 +6352,12 @@
       <c r="J111" s="1" t="s">
         <v>443</v>
       </c>
+      <c r="K111" s="2">
+        <v>44744</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
@@ -8818,7 +8847,38 @@
         <v>714</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>694</v>
+      </c>
+      <c r="B189" t="s">
+        <v>716</v>
+      </c>
+      <c r="C189" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H189" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="I189" s="7">
+        <v>44744</v>
+      </c>
+      <c r="J189" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
     <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9638,7 +9698,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C7AF11-F3DE-8248-A93D-21542A48F701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CCAC9A-ED51-1E43-8CDC-BA10DE59E767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="731">
   <si>
     <t>Number</t>
   </si>
@@ -2178,13 +2178,46 @@
     <t>Number of Distinct Islands</t>
   </si>
   <si>
-    <t>DFS #2</t>
-  </si>
-  <si>
     <t>DFS and check if the islands are the same(also dfs in lists)</t>
   </si>
   <si>
     <t>hash by local coordinates</t>
+  </si>
+  <si>
+    <t>Network Delay Time</t>
+  </si>
+  <si>
+    <t>Other Graph</t>
+  </si>
+  <si>
+    <t>Dijkstra</t>
+  </si>
+  <si>
+    <t>DFS and BFS work for the problem, count the time and store in array</t>
+  </si>
+  <si>
+    <t>O((n - 1)! + eloge)</t>
+  </si>
+  <si>
+    <t>O(n + e)</t>
+  </si>
+  <si>
+    <t>Min Cost to Connect All Points</t>
+  </si>
+  <si>
+    <t>Union-Find</t>
+  </si>
+  <si>
+    <t>Kruskal algorithm + union find / prim's algorithm + minheap</t>
+  </si>
+  <si>
+    <t>O(n^2log(n))</t>
+  </si>
+  <si>
+    <t>BFS, DFS, dijkstra</t>
+  </si>
+  <si>
+    <t>Kruskal algorithm</t>
   </si>
 </sst>
 </file>
@@ -2622,11 +2655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1007"/>
+  <dimension ref="A1:N1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J197" sqref="J197"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J193" sqref="J193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8858,13 +8891,13 @@
         <v>15</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>717</v>
+        <v>656</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>440</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G189" s="6" t="s">
         <v>362</v>
@@ -8876,11 +8909,73 @@
         <v>44744</v>
       </c>
       <c r="J189" s="6" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>1584</v>
+      </c>
+      <c r="B190" t="s">
+        <v>725</v>
+      </c>
+      <c r="C190" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="H190" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I190" s="7">
+        <v>44746</v>
+      </c>
+      <c r="J190" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>743</v>
+      </c>
+      <c r="B191" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C191" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="H191" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="I191" s="7">
+        <v>44747</v>
+      </c>
+      <c r="J191" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
     <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9697,6 +9792,7 @@
     <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CCAC9A-ED51-1E43-8CDC-BA10DE59E767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5879E43F-B000-5E42-8FB7-365A54D0ABAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7480" yWindow="2260" windowWidth="21620" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="757">
   <si>
     <t>Number</t>
   </si>
@@ -2218,6 +2218,84 @@
   </si>
   <si>
     <t>Kruskal algorithm</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>Dijkstra + dfs, two arrays to store time and k</t>
+  </si>
+  <si>
+    <t>O(v^2logv)</t>
+  </si>
+  <si>
+    <t>O(v^2)</t>
+  </si>
+  <si>
+    <t>dijkstra + dfs</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>Path With Minimum Effort</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>26 letter array map to count and find 0</t>
+  </si>
+  <si>
+    <t>create letter map</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>hashmap, use letter map as the map key, adding # to the map to dintinct</t>
+  </si>
+  <si>
+    <t>or sort the list</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use hashset to distinguish duplicate </t>
+  </si>
+  <si>
+    <t>Or sorting, but more time compelxity as O(nlogn)</t>
+  </si>
+  <si>
+    <t>Hashmap, store to the map and return, check if contains rest of the value</t>
+  </si>
+  <si>
+    <t>Hashmap two passes or 1 pass</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>Topological Sorting</t>
+  </si>
+  <si>
+    <t>Use queue to store node, a little dfs, in-degree array to count in-degree</t>
+  </si>
+  <si>
+    <t>count and delete the in-degree, when in-degree == 0, put in queue</t>
+  </si>
+  <si>
+    <t>Binary search the max difference and put cell into queue</t>
+  </si>
+  <si>
+    <t>O(mn)</t>
+  </si>
+  <si>
+    <t>Binary search hard problem</t>
   </si>
 </sst>
 </file>
@@ -2391,12 +2469,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2411,35 +2495,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2658,8 +2757,8 @@
   <dimension ref="A1:N1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J193" sqref="J193"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2681,4927 +2780,4927 @@
     <col min="15" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
         <v>1291</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="18">
         <v>44584</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>167</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="18">
         <v>44570</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="18">
         <v>44585</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="18">
         <v>44605</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="18">
         <v>44585</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
         <v>485</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="18">
         <v>44585</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
         <v>209</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="18">
         <v>44585</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
         <v>189</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="18">
         <v>44586</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
         <v>119</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="18">
         <v>44586</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="18">
         <v>44600</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
         <v>151</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="G9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="18">
         <v>44586</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
         <v>557</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="G10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="18">
         <v>44587</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="18">
         <v>44587</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
         <v>283</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="18">
         <v>44587</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
         <v>144</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="G13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="18">
         <v>44588</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
         <v>145</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="G14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="18">
         <v>44588</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
         <v>94</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="G15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="18">
         <v>44588</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="18">
         <v>44618</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
         <v>102</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="G16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="18">
         <v>44589</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="18">
         <v>44618</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
         <v>104</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="18">
         <v>44590</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="18">
         <v>44602</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
         <v>101</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="18">
         <v>44590</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
         <v>112</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="18">
         <v>44590</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17">
         <v>250</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="18">
         <v>44591</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
         <v>150</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="G21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="18">
         <v>44594</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
         <v>106</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="G22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="18">
         <v>44594</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
         <v>105</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="G23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="18">
         <v>44594</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
         <v>116</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="18">
         <v>44595</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
         <v>117</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="18">
         <v>44595</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
         <v>236</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="2">
+      <c r="G26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="18">
         <v>44596</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
         <v>297</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="2">
+      <c r="G27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="18">
         <v>44596</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
         <v>46</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="18">
         <v>44596</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="18">
         <v>44621</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
         <v>1507</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="18">
         <v>44597</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
         <v>567</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="18">
         <v>44597</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
         <v>389</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="18">
         <v>44598</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="17">
         <v>344</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="18">
         <v>44584</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="18">
         <v>44598</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="18">
         <v>44652</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17">
         <v>24</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="G33" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="18">
         <v>44599</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17">
         <v>6</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C34" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="2">
+      <c r="G34" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="18">
         <v>44599</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="17">
         <v>206</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="G35" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="18">
         <v>44600</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17">
         <v>700</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="18">
         <v>44600</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17">
         <v>11</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="G37" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="18">
         <v>44600</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17">
         <v>509</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="G38" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="18">
         <v>44601</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="17">
         <v>70</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="G39" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="18">
         <v>44601</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="18">
         <v>44679</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="40" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17">
         <v>532</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" s="2">
+      <c r="G40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="18">
         <v>44601</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="17">
         <v>50</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" s="2">
+      <c r="G41" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="18">
         <v>44602</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="18">
         <v>44672</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="17">
         <v>372</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I42" s="2">
+      <c r="G42" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="18">
         <v>44602</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="43" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="17">
         <v>21</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="G43" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="18">
         <v>44603</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="44" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="17">
         <v>779</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C44" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="18">
         <v>44603</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="17" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="45" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17">
         <v>88</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="18">
         <v>44604</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="46" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="17">
         <v>205</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="18">
         <v>44568</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="18">
         <v>44606</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="47" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="17">
         <v>136</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="18">
         <v>44564</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="18">
         <v>44607</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L47" s="17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="48" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="17">
         <v>95</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="C48" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="18">
         <v>44609</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17">
         <v>912</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="C49" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="18">
         <v>44609</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="17" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="50" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17">
         <v>98</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="C50" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I50" s="2">
+      <c r="G50" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="18">
         <v>44610</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="18">
         <v>44625</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L50" s="17" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="51" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17">
         <v>240</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C51" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="18">
         <v>44610</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="17" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="52" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="17">
         <v>13</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="18">
         <v>44611</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="17" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="53" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="17">
         <v>1288</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="C53" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="18">
         <v>44612</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="17" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="54" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="17">
         <v>52</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54" s="2">
+      <c r="H54" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="18">
         <v>44613</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="17" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="55" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="17">
         <v>51</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="18">
         <v>44613</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="17" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="56" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="17">
         <v>489</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="18">
         <v>44614</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="17" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="57" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="17">
         <v>37</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="18">
         <v>44615</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="58" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="17">
         <v>77</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="C58" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="18">
         <v>44616</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="17" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="59" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="17">
         <v>100</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="18">
         <v>44617</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="17" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="60" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="17">
         <v>22</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="C60" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="18">
         <v>44617</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="17" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="61" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="17">
         <v>17</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="C61" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I61" s="2">
+      <c r="H61" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" s="18">
         <v>44618</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="18">
         <v>44621</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="62" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="17">
         <v>426</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="C62" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I62" s="2">
+      <c r="G62" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" s="18">
         <v>44619</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="17" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="63" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="17">
         <v>84</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I63" s="2">
+      <c r="G63" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" s="18">
         <v>44620</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="17" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="64" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="17">
         <v>79</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="C64" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="18">
         <v>44621</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="17" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="65" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="17">
         <v>218</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I65" s="2">
+      <c r="H65" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" s="18">
         <v>44622</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="17" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="66" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="17">
         <v>392</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="18">
         <v>44622</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="17" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="67" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="17">
         <v>39</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="C67" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="18">
         <v>44623</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="17" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="68" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="17">
         <v>40</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="C68" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="18">
         <v>44624</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="17" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+    <row r="69" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="17">
         <v>285</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="C69" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H69" s="1" t="s">
+      <c r="G69" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="18">
         <v>44625</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="17" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="70" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="17">
         <v>173</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="C70" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H70" s="1" t="s">
+      <c r="G70" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H70" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="18">
         <v>44626</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="17" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="71" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="17">
         <v>701</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="C71" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="18">
         <v>44627</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="72" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="17">
         <v>450</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="C72" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="18">
         <v>44629</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="17" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="73" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="17">
         <v>703</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I73" s="2">
+      <c r="H73" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" s="18">
         <v>44630</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="18">
         <v>44648</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="L73" s="17" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="74" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="17">
         <v>235</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I74" s="2">
+      <c r="G74" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" s="18">
         <v>44631</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="75" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="17">
         <v>220</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="C75" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="18">
         <v>44572</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="18">
         <v>44632</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="L75" s="17" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+    <row r="76" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="17">
         <v>110</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I76" s="2">
+      <c r="H76" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" s="18">
         <v>44633</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" s="17" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="77" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="17">
         <v>108</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H77" s="1" t="s">
+      <c r="G77" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="18">
         <v>44634</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" s="17" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+    <row r="78" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="17">
         <v>1249</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="C78" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I78" s="2">
+      <c r="G78" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" s="18">
         <v>44635</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J78" s="17" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+    <row r="79" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="17">
         <v>35</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="18">
         <v>44636</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J79" s="17" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+    <row r="80" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="17">
         <v>12</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="C80" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="18">
         <v>44637</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" s="17" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+    <row r="81" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="17">
         <v>316</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="C81" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I81" s="2">
+      <c r="G81" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" s="18">
         <v>44638</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" s="17" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+    <row r="82" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="17">
         <v>47</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="C82" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I82" s="2">
+      <c r="H82" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" s="18">
         <v>44639</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J82" s="17" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+    <row r="83" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="17">
         <v>1007</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="C83" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H83" s="1" t="s">
+      <c r="G83" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I83" s="18">
         <v>44640</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J83" s="17" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+    <row r="84" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="17">
         <v>763</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="C84" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H84" s="1" t="s">
+      <c r="G84" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="18">
         <v>44641</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J84" s="17" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="85" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="17">
         <v>1663</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="C85" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H85" s="1" t="s">
+      <c r="G85" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H85" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="18">
         <v>44642</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J85" s="17" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+    <row r="86" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="17">
         <v>991</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="C86" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I86" s="2">
+      <c r="I86" s="18">
         <v>44643</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="J86" s="17" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+    <row r="87" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="17">
         <v>881</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="C87" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H87" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I87" s="2">
+      <c r="I87" s="18">
         <v>44644</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J87" s="17" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+    <row r="88" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="17">
         <v>1029</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="C88" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H88" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I88" s="2">
+      <c r="I88" s="18">
         <v>44645</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="J88" s="17" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+    <row r="89" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="17">
         <v>1337</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H89" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I89" s="18">
         <v>44646</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="J89" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="K89" s="2">
+      <c r="K89" s="18">
         <v>44650</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="L89" s="17" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+    <row r="90" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="17">
         <v>704</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I90" s="2">
+      <c r="I90" s="18">
         <v>44647</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="J90" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K90" s="18">
         <v>44656</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="L90" s="17" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+    <row r="91" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="17">
         <v>215</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="C91" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H91" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="I91" s="2">
+      <c r="I91" s="18">
         <v>44648</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J91" s="17" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="92" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="19">
         <v>347</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="C92" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H92" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92" s="20">
         <v>44577</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="J92" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K92" s="20">
         <v>44648</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="L92" s="19" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+    <row r="93" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="17">
         <v>287</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="1" t="s">
+      <c r="C93" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H93" s="1" t="s">
+      <c r="G93" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="18">
         <v>44566</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="J93" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K93" s="18">
         <v>44649</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="L93" s="17" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="94" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="17">
         <v>1046</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H94" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="18">
         <v>44650</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="J94" s="17" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+    <row r="95" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="17">
         <v>378</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="C95" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="I95" s="2">
+      <c r="I95" s="18">
         <v>44650</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J95" s="17" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+    <row r="96" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="17">
         <v>253</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="C96" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H96" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I96" s="2">
+      <c r="I96" s="18">
         <v>44651</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="J96" s="17" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+    <row r="97" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="17">
         <v>973</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="C97" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="I97" s="2">
+      <c r="I97" s="18">
         <v>44651</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="J97" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+    <row r="98" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="17">
         <v>222</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="C98" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H98" s="1" t="s">
+      <c r="G98" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H98" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="I98" s="2">
+      <c r="I98" s="18">
         <v>44652</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="J98" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+    <row r="99" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="17">
         <v>31</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="C99" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H99" s="1" t="s">
+      <c r="G99" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H99" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="18">
         <v>44579</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="J99" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99" s="18">
         <v>44653</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="L99" s="17" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+    <row r="100" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="17">
         <v>1167</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="C100" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I100" s="2">
+      <c r="I100" s="18">
         <v>44653</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="J100" s="17" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+    <row r="101" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="17">
         <v>1642</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="C101" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I101" s="2">
+      <c r="I101" s="18">
         <v>44653</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="J101" s="17" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+    <row r="102" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="17">
         <v>295</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G102" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I102" s="2">
+      <c r="I102" s="18">
         <v>44654</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="J102" s="17" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+    <row r="103" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="17">
         <v>1721</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="C103" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H103" s="1" t="s">
+      <c r="G103" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H103" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I103" s="2">
+      <c r="I103" s="18">
         <v>44655</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="J103" s="17" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+    <row r="104" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="17">
         <v>69</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G104" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H104" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I104" s="18">
         <v>44595</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="J104" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="K104" s="2">
+      <c r="K104" s="18">
         <v>44656</v>
       </c>
-      <c r="L104" s="1" t="s">
+      <c r="L104" s="17" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+    <row r="105" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="17">
         <v>374</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G105" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="H105" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I105" s="2">
+      <c r="I105" s="18">
         <v>44656</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="J105" s="17" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+    <row r="106" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="17">
         <v>33</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="C106" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G106" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="H106" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I106" s="2">
+      <c r="I106" s="18">
         <v>44656</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="J106" s="17" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+    <row r="107" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="17">
         <v>278</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G107" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="H107" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I107" s="2">
+      <c r="I107" s="18">
         <v>44657</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="J107" s="17" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+    <row r="108" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="17">
         <v>162</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="C108" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G108" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="H108" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I108" s="2">
+      <c r="I108" s="18">
         <v>44657</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="J108" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="K108" s="2">
+      <c r="K108" s="18">
         <v>44671</v>
       </c>
-      <c r="L108" s="1" t="s">
+      <c r="L108" s="17" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+    <row r="109" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="17">
         <v>153</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="1" t="s">
+      <c r="C109" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G109" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="H109" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I109" s="2">
+      <c r="I109" s="18">
         <v>44657</v>
       </c>
-      <c r="J109" s="1" t="s">
+      <c r="J109" s="17" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+    <row r="110" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="17">
         <v>695</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="C110" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F110" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G110" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="H110" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="I110" s="2">
+      <c r="I110" s="18">
         <v>44666</v>
       </c>
-      <c r="J110" s="1" t="s">
+      <c r="J110" s="17" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+    <row r="111" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="17">
         <v>200</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="C111" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G111" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="H111" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="I111" s="2">
+      <c r="I111" s="18">
         <v>44669</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="J111" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="K111" s="2">
+      <c r="K111" s="18">
         <v>44744</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+    <row r="112" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="17">
         <v>34</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="C112" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G112" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="H112" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I112" s="18">
         <v>44670</v>
       </c>
-      <c r="J112" s="1" t="s">
+      <c r="J112" s="17" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+    <row r="113" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="17">
         <v>658</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="C113" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E113" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H113" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I113" s="2">
+      <c r="I113" s="18">
         <v>44670</v>
       </c>
-      <c r="J113" s="1" t="s">
+      <c r="J113" s="17" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+    <row r="114" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="17">
         <v>270</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G114" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="H114" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I114" s="2">
+      <c r="I114" s="18">
         <v>44671</v>
       </c>
-      <c r="J114" s="1" t="s">
+      <c r="J114" s="17" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+    <row r="115" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="17">
         <v>702</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="1" t="s">
+      <c r="C115" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G115" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H115" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I115" s="2">
+      <c r="I115" s="18">
         <v>44672</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="J115" s="17" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+    <row r="116" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="17">
         <v>367</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G116" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="H116" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I116" s="2">
+      <c r="I116" s="18">
         <v>44672</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="J116" s="17" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+    <row r="117" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="17">
         <v>48</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="C117" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G117" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H117" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I117" s="2">
+      <c r="I117" s="18">
         <v>44673</v>
       </c>
-      <c r="J117" s="1" t="s">
+      <c r="J117" s="17" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+    <row r="118" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="17">
         <v>744</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F118" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G118" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="H118" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I118" s="2">
+      <c r="I118" s="18">
         <v>44673</v>
       </c>
-      <c r="J118" s="1" t="s">
+      <c r="J118" s="17" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+    <row r="119" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="17">
         <v>154</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="G119" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="H119" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I119" s="2">
+      <c r="I119" s="18">
         <v>44673</v>
       </c>
-      <c r="J119" s="1" t="s">
+      <c r="J119" s="17" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+    <row r="120" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="17">
         <v>4</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G120" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="H120" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I120" s="2">
+      <c r="I120" s="18">
         <v>44674</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="J120" s="17" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+    <row r="121" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="17">
         <v>719</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E121" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G121" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="H121" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I121" s="2">
+      <c r="I121" s="18">
         <v>44675</v>
       </c>
-      <c r="J121" s="1" t="s">
+      <c r="J121" s="17" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+    <row r="122" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="17">
         <v>410</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E122" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F122" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G122" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="H122" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I122" s="2">
+      <c r="I122" s="18">
         <v>44676</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="J122" s="17" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
+    <row r="123" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="21">
         <v>16</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="C123" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G123" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="H123" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I123" s="2">
+      <c r="I123" s="18">
         <v>44677</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="J123" s="17" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
+    <row r="124" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="21">
         <v>148</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="C124" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G124" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="H124" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="I124" s="2">
+      <c r="I124" s="18">
         <v>44678</v>
       </c>
-      <c r="J124" s="1" t="s">
+      <c r="J124" s="17" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
+    <row r="125" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="21">
         <v>45</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="1" t="s">
+      <c r="C125" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G125" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H125" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I125" s="2">
+      <c r="I125" s="18">
         <v>44680</v>
       </c>
-      <c r="J125" s="1" t="s">
+      <c r="J125" s="17" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="3">
+    <row r="126" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="21">
         <v>225</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E126" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F126" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G126" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="H126" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I126" s="2">
+      <c r="I126" s="18">
         <v>44687</v>
       </c>
-      <c r="J126" s="1" t="s">
+      <c r="J126" s="17" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
+    <row r="127" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="21">
         <v>231</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G127" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="H127" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="I127" s="2">
+      <c r="I127" s="18">
         <v>44688</v>
       </c>
-      <c r="J127" s="1" t="s">
+      <c r="J127" s="17" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
+    <row r="128" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="21">
         <v>125</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G128" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="H128" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I128" s="2">
+      <c r="I128" s="18">
         <v>44689</v>
       </c>
-      <c r="J128" s="1" t="s">
+      <c r="J128" s="17" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
+    <row r="129" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="21">
         <v>198</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="1" t="s">
+      <c r="C129" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G129" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="H129" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I129" s="2">
+      <c r="I129" s="18">
         <v>44690</v>
       </c>
-      <c r="J129" s="1" t="s">
+      <c r="J129" s="17" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="3">
+    <row r="130" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="21">
         <v>746</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F130" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G130" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="H130" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I130" s="2">
+      <c r="I130" s="18">
         <v>44691</v>
       </c>
-      <c r="J130" s="1" t="s">
+      <c r="J130" s="17" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
+    <row r="131" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="21">
         <v>1137</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E131" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F131" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G131" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="H131" s="1" t="s">
+      <c r="H131" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I131" s="2">
+      <c r="I131" s="18">
         <v>44691</v>
       </c>
-      <c r="J131" s="1" t="s">
+      <c r="J131" s="17" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="3">
+    <row r="132" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="21">
         <v>740</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="21" t="s">
         <v>519</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="1" t="s">
+      <c r="C132" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E132" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F132" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G132" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="H132" s="1" t="s">
+      <c r="H132" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="I132" s="2">
+      <c r="I132" s="18">
         <v>44693</v>
       </c>
-      <c r="J132" s="1" t="s">
+      <c r="J132" s="17" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
+    <row r="133" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="21">
         <v>221</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="1" t="s">
+      <c r="C133" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F133" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G133" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="H133" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="I133" s="2">
+      <c r="I133" s="18">
         <v>44698</v>
       </c>
-      <c r="J133" s="1" t="s">
+      <c r="J133" s="17" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
+    <row r="134" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="21">
         <v>62</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="1" t="s">
+      <c r="C134" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E134" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F134" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G134" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="H134" s="1" t="s">
+      <c r="H134" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="I134" s="2">
+      <c r="I134" s="18">
         <v>44698</v>
       </c>
-      <c r="J134" s="1" t="s">
+      <c r="J134" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="K134" s="2">
+      <c r="K134" s="18">
         <v>44707</v>
       </c>
-      <c r="L134" s="1" t="s">
+      <c r="L134" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
+    <row r="135" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="21">
         <v>322</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="1" t="s">
+      <c r="C135" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E135" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G135" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="H135" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="I135" s="2">
+      <c r="I135" s="18">
         <v>44699</v>
       </c>
-      <c r="J135" s="1" t="s">
+      <c r="J135" s="17" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
+    <row r="136" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="21">
         <v>1335</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G136" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="H136" s="1" t="s">
+      <c r="H136" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="I136" s="2">
+      <c r="I136" s="18">
         <v>44700</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="J136" s="17" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
+    <row r="137" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="21">
         <v>300</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" s="1" t="s">
+      <c r="C137" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E137" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F137" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G137" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="H137" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I137" s="2">
+      <c r="H137" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I137" s="18">
         <v>44701</v>
       </c>
-      <c r="J137" s="1" t="s">
+      <c r="J137" s="17" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
+    <row r="138" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="21">
         <v>121</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E138" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F138" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="G138" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H138" s="1" t="s">
+      <c r="G138" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H138" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I138" s="2">
+      <c r="I138" s="18">
         <v>44702</v>
       </c>
-      <c r="J138" s="1" t="s">
+      <c r="J138" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="K138" s="2">
+      <c r="K138" s="18">
         <v>44706</v>
       </c>
-      <c r="L138" s="1" t="s">
+      <c r="L138" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="3">
+    <row r="139" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="21">
         <v>188</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E139" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F139" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G139" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="H139" s="1" t="s">
+      <c r="H139" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="I139" s="2">
+      <c r="I139" s="18">
         <v>44703</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="J139" s="17" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
+    <row r="140" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="21">
         <v>309</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="C140" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F140" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I140" s="2">
+      <c r="G140" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H140" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I140" s="18">
         <v>44703</v>
       </c>
-      <c r="J140" s="1" t="s">
+      <c r="J140" s="17" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
+    <row r="141" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="21">
         <v>276</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" s="1" t="s">
+      <c r="C141" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F141" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I141" s="2">
+      <c r="G141" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I141" s="18">
         <v>44704</v>
       </c>
-      <c r="J141" s="1" t="s">
+      <c r="J141" s="17" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="3">
+    <row r="142" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="21">
         <v>518</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="1" t="s">
+      <c r="C142" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E142" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F142" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G142" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="H142" s="1" t="s">
+      <c r="H142" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="I142" s="2">
+      <c r="I142" s="18">
         <v>44705</v>
       </c>
-      <c r="J142" s="1" t="s">
+      <c r="J142" s="17" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
+    <row r="143" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="21">
         <v>91</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" s="1" t="s">
+      <c r="C143" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="F143" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I143" s="2">
+      <c r="G143" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H143" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I143" s="18">
         <v>44705</v>
       </c>
-      <c r="J143" s="1" t="s">
+      <c r="J143" s="17" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="3">
+    <row r="144" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="21">
         <v>53</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E144" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F144" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H144" s="1" t="s">
+      <c r="G144" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H144" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I144" s="2">
+      <c r="I144" s="18">
         <v>44706</v>
       </c>
-      <c r="J144" s="1" t="s">
+      <c r="J144" s="17" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="3">
+    <row r="145" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="21">
         <v>918</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" s="1" t="s">
+      <c r="C145" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E145" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="G145" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H145" s="1" t="s">
+      <c r="G145" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H145" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I145" s="2">
+      <c r="I145" s="18">
         <v>44706</v>
       </c>
-      <c r="J145" s="1" t="s">
+      <c r="J145" s="17" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="3">
+    <row r="146" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="21">
         <v>63</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="17" t="s">
         <v>569</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="C146" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E146" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" s="17" t="s">
         <v>570</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H146" s="1" t="s">
+      <c r="G146" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H146" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I146" s="2">
+      <c r="I146" s="18">
         <v>44707</v>
       </c>
-      <c r="J146" s="1" t="s">
+      <c r="J146" s="17" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
+    <row r="147" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="22">
         <v>64</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="22" t="s">
         <v>572</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D147" s="1" t="s">
+      <c r="C147" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F147" s="22" t="s">
         <v>573</v>
       </c>
-      <c r="G147" s="4" t="s">
+      <c r="G147" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="H147" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I147" s="2">
+      <c r="I147" s="18">
         <v>44708</v>
       </c>
-      <c r="J147" s="4" t="s">
+      <c r="J147" s="22" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
+    <row r="148" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="22">
         <v>931</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="22" t="s">
         <v>575</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" s="1" t="s">
+      <c r="C148" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E148" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="F148" s="22" t="s">
         <v>576</v>
       </c>
-      <c r="G148" s="4" t="s">
+      <c r="G148" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="H148" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I148" s="2">
+      <c r="I148" s="18">
         <v>44708</v>
       </c>
-      <c r="J148" s="4" t="s">
+      <c r="J148" s="22" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="5">
+    <row r="149" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="23">
         <v>2283</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" s="17" t="s">
         <v>329</v>
       </c>
       <c r="F149" s="6" t="s">
@@ -7613,59 +7712,59 @@
       <c r="H149" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I149" s="2">
+      <c r="I149" s="18">
         <v>44709</v>
       </c>
       <c r="J149" s="6" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="5">
+    <row r="150" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="23">
         <v>2284</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="22" t="s">
         <v>587</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" s="1" t="s">
+      <c r="C150" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" s="17" t="s">
         <v>329</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="G150" s="4" t="s">
+      <c r="G150" s="22" t="s">
         <v>445</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I150" s="2">
+      <c r="I150" s="18">
         <v>44709</v>
       </c>
       <c r="J150" s="6" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="5">
+    <row r="151" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="23">
         <v>2285</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" s="1" t="s">
+      <c r="C151" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" s="17" t="s">
         <v>592</v>
       </c>
       <c r="F151" s="6" t="s">
@@ -7677,187 +7776,187 @@
       <c r="H151" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I151" s="2">
+      <c r="I151" s="18">
         <v>44709</v>
       </c>
       <c r="J151" s="6" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="5">
+    <row r="152" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="23">
         <v>714</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" s="1" t="s">
+      <c r="C152" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="G152" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H152" s="1" t="s">
+      <c r="G152" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H152" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I152" s="7">
+      <c r="I152" s="12">
         <v>44710</v>
       </c>
       <c r="J152" s="6" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="5">
+    <row r="153" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="23">
         <v>256</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" s="1" t="s">
+      <c r="C153" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="G153" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H153" s="1" t="s">
+      <c r="G153" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H153" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I153" s="7">
+      <c r="I153" s="12">
         <v>44711</v>
       </c>
       <c r="J153" s="6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5">
+    <row r="154" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="23">
         <v>265</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="23" t="s">
         <v>595</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G154" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="H154" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I154" s="7">
+      <c r="I154" s="12">
         <v>44712</v>
       </c>
       <c r="J154" s="6" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="9">
+    <row r="155" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="25">
         <v>122</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="25" t="s">
         <v>598</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" s="1" t="s">
+      <c r="C155" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E155" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H155" s="1" t="s">
+      <c r="G155" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H155" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I155" s="7">
+      <c r="I155" s="12">
         <v>44714</v>
       </c>
       <c r="J155" s="6" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="9">
+    <row r="156" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="25">
         <v>1220</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H156" s="1" t="s">
+      <c r="G156" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H156" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I156" s="7">
+      <c r="I156" s="12">
         <v>44714</v>
       </c>
       <c r="J156" s="6" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="10">
+    <row r="157" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="26">
         <v>718</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="C157" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="C157" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F157" s="6" t="s">
@@ -7869,27 +7968,27 @@
       <c r="H157" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="I157" s="7">
+      <c r="I157" s="12">
         <v>44715</v>
       </c>
       <c r="J157" s="6" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="10">
+    <row r="158" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="26">
         <v>1155</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="C158" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="C158" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F158" s="6" t="s">
@@ -7901,27 +8000,27 @@
       <c r="H158" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="I158" s="7">
+      <c r="I158" s="12">
         <v>44715</v>
       </c>
       <c r="J158" s="6" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="11">
+    <row r="159" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="27">
         <v>790</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="27" t="s">
         <v>610</v>
       </c>
-      <c r="C159" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="C159" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F159" s="6" t="s">
@@ -7930,30 +8029,30 @@
       <c r="G159" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H159" s="1" t="s">
+      <c r="H159" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I159" s="7">
+      <c r="I159" s="12">
         <v>44716</v>
       </c>
       <c r="J159" s="6" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="12">
+    <row r="160" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="28">
         <v>120</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B160" s="28" t="s">
         <v>613</v>
       </c>
-      <c r="C160" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="C160" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F160" s="6" t="s">
@@ -7962,30 +8061,30 @@
       <c r="G160" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="H160" s="1" t="s">
+      <c r="H160" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I160" s="7">
+      <c r="I160" s="12">
         <v>44718</v>
       </c>
       <c r="J160" s="6" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="12">
+    <row r="161" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="28">
         <v>96</v>
       </c>
-      <c r="B161" s="12" t="s">
+      <c r="B161" s="28" t="s">
         <v>616</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="C161" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E161" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F161" s="6" t="s">
@@ -7997,27 +8096,27 @@
       <c r="H161" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I161" s="7">
+      <c r="I161" s="12">
         <v>44718</v>
       </c>
       <c r="J161" s="6" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="13">
+    <row r="162" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="29">
         <v>152</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="29" t="s">
         <v>619</v>
       </c>
-      <c r="C162" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D162" s="1" t="s">
+      <c r="C162" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E162" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F162" s="6" t="s">
@@ -8026,30 +8125,30 @@
       <c r="G162" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H162" s="1" t="s">
+      <c r="H162" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I162" s="7">
+      <c r="I162" s="12">
         <v>44719</v>
       </c>
       <c r="J162" s="6" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="13">
+    <row r="163" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="29">
         <v>131</v>
       </c>
-      <c r="B163" s="13" t="s">
+      <c r="B163" s="29" t="s">
         <v>622</v>
       </c>
-      <c r="C163" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D163" s="1" t="s">
+      <c r="C163" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E163" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F163" s="6" t="s">
@@ -8061,27 +8160,27 @@
       <c r="H163" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="I163" s="7">
+      <c r="I163" s="12">
         <v>44719</v>
       </c>
       <c r="J163" s="6" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="14">
+    <row r="164" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="30">
         <v>213</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="C164" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="C164" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E164" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F164" s="6" t="s">
@@ -8090,30 +8189,30 @@
       <c r="G164" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H164" s="1" t="s">
+      <c r="H164" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I164" s="7">
+      <c r="I164" s="12">
         <v>44720</v>
       </c>
       <c r="J164" s="6" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="14">
+    <row r="165" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="30">
         <v>337</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="30" t="s">
         <v>630</v>
       </c>
-      <c r="C165" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" s="1" t="s">
+      <c r="C165" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E165" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F165" s="6" t="s">
@@ -8125,27 +8224,27 @@
       <c r="H165" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I165" s="7">
+      <c r="I165" s="12">
         <v>44720</v>
       </c>
       <c r="J165" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="14">
+    <row r="166" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="30">
         <v>413</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="B166" s="30" t="s">
         <v>631</v>
       </c>
-      <c r="C166" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="C166" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E166" s="17" t="s">
         <v>218</v>
       </c>
       <c r="F166" s="6" t="s">
@@ -8157,21 +8256,21 @@
       <c r="H166" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I166" s="7">
+      <c r="I166" s="12">
         <v>44720</v>
       </c>
       <c r="J166" s="6" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="15">
+    <row r="167" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="31">
         <v>78</v>
       </c>
-      <c r="B167" s="15" t="s">
+      <c r="B167" s="31" t="s">
         <v>634</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="C167" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D167" s="6" t="s">
@@ -8189,21 +8288,21 @@
       <c r="H167" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="I167" s="7">
+      <c r="I167" s="12">
         <v>44721</v>
       </c>
       <c r="J167" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="15">
+    <row r="168" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="31">
         <v>90</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="31" t="s">
         <v>636</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C168" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D168" s="6" t="s">
@@ -8221,21 +8320,21 @@
       <c r="H168" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="I168" s="7">
+      <c r="I168" s="12">
         <v>44721</v>
       </c>
       <c r="J168" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="16">
+    <row r="169" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="32">
         <v>93</v>
       </c>
-      <c r="B169" s="16" t="s">
+      <c r="B169" s="32" t="s">
         <v>638</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D169" s="6" t="s">
@@ -8253,21 +8352,21 @@
       <c r="H169" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I169" s="7">
+      <c r="I169" s="12">
         <v>44722</v>
       </c>
       <c r="J169" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="16">
+    <row r="170" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="32">
         <v>113</v>
       </c>
-      <c r="B170" s="16" t="s">
+      <c r="B170" s="32" t="s">
         <v>639</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C170" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D170" s="6" t="s">
@@ -8285,21 +8384,21 @@
       <c r="H170" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I170" s="7">
+      <c r="I170" s="12">
         <v>44722</v>
       </c>
       <c r="J170" s="6" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="17">
+    <row r="171" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="33">
         <v>494</v>
       </c>
-      <c r="B171" s="17" t="s">
+      <c r="B171" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D171" s="6" t="s">
@@ -8317,21 +8416,21 @@
       <c r="H171" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="I171" s="7">
+      <c r="I171" s="12">
         <v>44725</v>
       </c>
       <c r="J171" s="6" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="18">
+    <row r="172" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="34">
         <v>56</v>
       </c>
-      <c r="B172" s="18" t="s">
+      <c r="B172" s="34" t="s">
         <v>648</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D172" s="6" t="s">
@@ -8349,21 +8448,21 @@
       <c r="H172" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I172" s="7">
+      <c r="I172" s="12">
         <v>44726</v>
       </c>
       <c r="J172" s="6" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="19">
+    <row r="173" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="35">
         <v>314</v>
       </c>
-      <c r="B173" s="19" t="s">
+      <c r="B173" s="35" t="s">
         <v>651</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D173" s="6" t="s">
@@ -8381,21 +8480,21 @@
       <c r="H173" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I173" s="7">
+      <c r="I173" s="12">
         <v>44727</v>
       </c>
       <c r="J173" s="6" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="20">
+    <row r="174" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="36">
         <v>657</v>
       </c>
-      <c r="B174" s="20" t="s">
+      <c r="B174" s="36" t="s">
         <v>655</v>
       </c>
-      <c r="C174" s="20" t="s">
+      <c r="C174" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D174" s="6" t="s">
@@ -8413,21 +8512,21 @@
       <c r="H174" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I174" s="7">
+      <c r="I174" s="12">
         <v>44728</v>
       </c>
       <c r="J174" s="6" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="20">
+    <row r="175" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="36">
         <v>547</v>
       </c>
-      <c r="B175" s="20" t="s">
+      <c r="B175" s="36" t="s">
         <v>660</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="C175" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D175" s="6" t="s">
@@ -8445,21 +8544,21 @@
       <c r="H175" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I175" s="7">
+      <c r="I175" s="12">
         <v>44728</v>
       </c>
       <c r="J175" s="6" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="20">
+    <row r="176" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="36">
         <v>323</v>
       </c>
-      <c r="B176" s="20" t="s">
+      <c r="B176" s="36" t="s">
         <v>663</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="C176" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D176" s="6" t="s">
@@ -8477,21 +8576,21 @@
       <c r="H176" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="I176" s="7">
+      <c r="I176" s="12">
         <v>44728</v>
       </c>
       <c r="J176" s="6" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="21">
+    <row r="177" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="37">
         <v>267</v>
       </c>
-      <c r="B177" s="21" t="s">
+      <c r="B177" s="37" t="s">
         <v>667</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="C177" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D177" s="6" t="s">
@@ -8509,21 +8608,21 @@
       <c r="H177" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I177" s="7">
+      <c r="I177" s="12">
         <v>44729</v>
       </c>
       <c r="J177" s="6" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="21">
+    <row r="178" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="37">
         <v>526</v>
       </c>
-      <c r="B178" s="21" t="s">
+      <c r="B178" s="37" t="s">
         <v>671</v>
       </c>
-      <c r="C178" s="10" t="s">
+      <c r="C178" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D178" s="6" t="s">
@@ -8541,21 +8640,21 @@
       <c r="H178" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I178" s="7">
+      <c r="I178" s="12">
         <v>44731</v>
       </c>
       <c r="J178" s="6" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="22">
+    <row r="179" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="38">
         <v>261</v>
       </c>
-      <c r="B179" s="22" t="s">
+      <c r="B179" s="38" t="s">
         <v>674</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C179" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D179" s="6" t="s">
@@ -8573,21 +8672,21 @@
       <c r="H179" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I179" s="7">
+      <c r="I179" s="12">
         <v>44732</v>
       </c>
       <c r="J179" s="6" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="23">
+    <row r="180" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="39">
         <v>1168</v>
       </c>
-      <c r="B180" s="23" t="s">
+      <c r="B180" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C180" s="23" t="s">
+      <c r="C180" s="39" t="s">
         <v>113</v>
       </c>
       <c r="D180" s="6" t="s">
@@ -8605,21 +8704,21 @@
       <c r="H180" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="I180" s="7">
+      <c r="I180" s="12">
         <v>44734</v>
       </c>
       <c r="J180" s="6" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="23">
+    <row r="181" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="39">
         <v>1202</v>
       </c>
-      <c r="B181" s="23" t="s">
+      <c r="B181" s="39" t="s">
         <v>682</v>
       </c>
-      <c r="C181" s="10" t="s">
+      <c r="C181" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D181" s="6" t="s">
@@ -8637,21 +8736,21 @@
       <c r="H181" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="I181" s="7">
+      <c r="I181" s="12">
         <v>44734</v>
       </c>
       <c r="J181" s="6" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="24">
+    <row r="182" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="40">
         <v>721</v>
       </c>
-      <c r="B182" s="24" t="s">
+      <c r="B182" s="40" t="s">
         <v>687</v>
       </c>
-      <c r="C182" s="10" t="s">
+      <c r="C182" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D182" s="6" t="s">
@@ -8669,53 +8768,53 @@
       <c r="H182" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="I182" s="7">
+      <c r="I182" s="12">
         <v>44735</v>
       </c>
       <c r="J182" s="6" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="24">
+    <row r="183" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="41">
         <v>128</v>
       </c>
-      <c r="B183" s="24" t="s">
+      <c r="B183" s="41" t="s">
         <v>691</v>
       </c>
-      <c r="C183" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D183" s="6" t="s">
+      <c r="C183" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" s="16" t="s">
         <v>678</v>
       </c>
-      <c r="E183" s="6" t="s">
+      <c r="E183" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="F183" s="16" t="s">
         <v>692</v>
       </c>
-      <c r="G183" s="6" t="s">
+      <c r="G183" s="16" t="s">
         <v>693</v>
       </c>
-      <c r="H183" s="6" t="s">
+      <c r="H183" s="16" t="s">
         <v>693</v>
       </c>
       <c r="I183" s="7">
         <v>44735</v>
       </c>
-      <c r="J183" s="6" t="s">
+      <c r="J183" s="16" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184">
+    <row r="184" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="10">
         <v>399</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="C184" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D184" s="6" t="s">
@@ -8733,21 +8832,21 @@
       <c r="H184" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I184" s="7">
+      <c r="I184" s="12">
         <v>44735</v>
       </c>
       <c r="J184" s="6" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185">
+    <row r="185" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="10">
         <v>1971</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="C185" s="25" t="s">
+      <c r="C185" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D185" s="6" t="s">
@@ -8765,13 +8864,13 @@
       <c r="H185" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="I185" s="7">
+      <c r="I185" s="12">
         <v>44736</v>
       </c>
       <c r="J185" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="K185" s="7">
+      <c r="K185" s="12">
         <v>44740</v>
       </c>
       <c r="L185" s="6" t="s">
@@ -8785,45 +8884,45 @@
       <c r="B186" t="s">
         <v>702</v>
       </c>
-      <c r="C186" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D186" s="6" t="s">
+      <c r="C186" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E186" s="6" t="s">
+      <c r="E186" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="F186" s="6" t="s">
+      <c r="F186" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="G186" s="6" t="s">
+      <c r="G186" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="H186" s="6" t="s">
+      <c r="H186" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="I186" s="7">
+      <c r="I186" s="2">
         <v>44736</v>
       </c>
-      <c r="J186" s="6" t="s">
+      <c r="J186" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="K186" s="7">
+      <c r="K186" s="2">
         <v>44741</v>
       </c>
-      <c r="L186" s="6" t="s">
+      <c r="L186" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187">
+    <row r="187" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="10">
         <v>130</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="C187" s="25" t="s">
+      <c r="C187" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D187" s="6" t="s">
@@ -8841,21 +8940,21 @@
       <c r="H187" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I187" s="7">
+      <c r="I187" s="12">
         <v>44736</v>
       </c>
       <c r="J187" s="6" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188">
+    <row r="188" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="10">
         <v>322</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C188" s="26" t="s">
+      <c r="C188" s="13" t="s">
         <v>113</v>
       </c>
       <c r="D188" s="6" t="s">
@@ -8873,21 +8972,21 @@
       <c r="H188" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="I188" s="7">
+      <c r="I188" s="12">
         <v>44739</v>
       </c>
       <c r="J188" s="6" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189">
+    <row r="189" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="10">
         <v>694</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="C189" s="27" t="s">
+      <c r="C189" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D189" s="6" t="s">
@@ -8905,21 +9004,21 @@
       <c r="H189" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="I189" s="7">
+      <c r="I189" s="12">
         <v>44744</v>
       </c>
       <c r="J189" s="6" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190">
+    <row r="190" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="10">
         <v>1584</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="C190" s="27" t="s">
+      <c r="C190" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D190" s="6" t="s">
@@ -8937,62 +9036,281 @@
       <c r="H190" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="I190" s="7">
+      <c r="I190" s="12">
         <v>44746</v>
       </c>
       <c r="J190" s="6" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191">
+    <row r="191" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="4">
         <v>743</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="C191" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D191" s="6" t="s">
+      <c r="C191" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="E191" s="6" t="s">
+      <c r="E191" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="F191" s="6" t="s">
+      <c r="F191" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="G191" s="6" t="s">
+      <c r="G191" s="16" t="s">
         <v>723</v>
       </c>
-      <c r="H191" s="6" t="s">
+      <c r="H191" s="16" t="s">
         <v>724</v>
       </c>
       <c r="I191" s="7">
         <v>44747</v>
       </c>
-      <c r="J191" s="6" t="s">
+      <c r="J191" s="16" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="10">
+        <v>787</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="C192" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="H192" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="I192" s="12">
+        <v>44748</v>
+      </c>
+      <c r="J192" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="4">
+        <v>217</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I193" s="7">
+        <v>44749</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="4">
+        <v>1</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I194" s="7">
+        <v>44749</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="5">
+        <v>1631</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="I195" s="9">
+        <v>44749</v>
+      </c>
+      <c r="J195" s="5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="4">
+        <v>242</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I196" s="7">
+        <v>44748</v>
+      </c>
+      <c r="J196" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="4">
+        <v>49</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="I197" s="7">
+        <v>44749</v>
+      </c>
+      <c r="J197" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="4">
+        <v>210</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="I198" s="7">
+        <v>44750</v>
+      </c>
+      <c r="J198" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F200" s="5"/>
+    </row>
+    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5879E43F-B000-5E42-8FB7-365A54D0ABAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CEA19F-F1E8-084D-A14F-49F981DC8F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="2260" windowWidth="21620" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4660" yWindow="4540" windowWidth="21620" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="767">
   <si>
     <t>Number</t>
   </si>
@@ -2296,6 +2296,36 @@
   </si>
   <si>
     <t>Binary search hard problem</t>
+  </si>
+  <si>
+    <t>Parallel Courses</t>
+  </si>
+  <si>
+    <t>topological sort + bfs(queue and add fake node), or just dfs</t>
+  </si>
+  <si>
+    <t>in-degree list</t>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topological concept, each time remove leaves until we have less than 2 nodes </t>
+  </si>
+  <si>
+    <t>Each time put new list instead of the old list</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>look for first difference between words, bfs using queue, check prefix</t>
+  </si>
+  <si>
+    <t>O©</t>
+  </si>
+  <si>
+    <t>in-degree, break if has prefix, bfs</t>
   </si>
 </sst>
 </file>
@@ -2754,11 +2784,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1008"/>
+  <dimension ref="A1:N1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="J206" sqref="J206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9299,12 +9329,105 @@
         <v>753</v>
       </c>
     </row>
-    <row r="199" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F200" s="5"/>
-    </row>
-    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="4">
+        <v>269</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I199" s="7">
+        <v>44752</v>
+      </c>
+      <c r="J199" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="5">
+        <v>310</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="I200" s="9">
+        <v>44753</v>
+      </c>
+      <c r="J200" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="5">
+        <v>1136</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="I201" s="9">
+        <v>44753</v>
+      </c>
+      <c r="J201" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F202" s="5"/>
+    </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10111,6 +10234,8 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CEA19F-F1E8-084D-A14F-49F981DC8F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C1A4A9-7551-1A4A-A910-3612D7955E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="4540" windowWidth="21620" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5840" yWindow="2920" windowWidth="21620" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="771">
   <si>
     <t>Number</t>
   </si>
@@ -2326,6 +2326,18 @@
   </si>
   <si>
     <t>in-degree, break if has prefix, bfs</t>
+  </si>
+  <si>
+    <t>Design linked list</t>
+  </si>
+  <si>
+    <t>Linked list</t>
+  </si>
+  <si>
+    <t>Use either doubly linked list or singly linked list</t>
+  </si>
+  <si>
+    <t>If doubly linked list, add index can start from both sides</t>
   </si>
 </sst>
 </file>
@@ -2786,9 +2798,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J206" sqref="J206"/>
+      <selection pane="bottomLeft" activeCell="D206" sqref="D206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9425,8 +9437,37 @@
         <v>759</v>
       </c>
     </row>
-    <row r="202" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F202" s="5"/>
+    <row r="202" spans="1:10" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="5">
+        <v>707</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I202" s="9">
+        <v>44754</v>
+      </c>
+      <c r="J202" s="5" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C1A4A9-7551-1A4A-A910-3612D7955E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980BB25A-058C-A04B-A661-7F85FD8807C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="2920" windowWidth="21620" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="2460" windowWidth="21620" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="781">
   <si>
     <t>Number</t>
   </si>
@@ -2338,6 +2338,36 @@
   </si>
   <si>
     <t>If doubly linked list, add index can start from both sides</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Fast slow runner encouter, fast - 2steps, slow - 1step, or hashset</t>
+  </si>
+  <si>
+    <t>Hashset or two pointers</t>
+  </si>
+  <si>
+    <t>Fast slow runner same start, encouter point, start from the start, same route length</t>
+  </si>
+  <si>
+    <t>Or hashset would be easier</t>
+  </si>
+  <si>
+    <t>Two pointer same speed, a + c + b, or b + c + a, same route length to encouter point</t>
+  </si>
+  <si>
+    <t>Or hashset loop through each list</t>
   </si>
 </sst>
 </file>
@@ -2537,7 +2567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -2581,6 +2611,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2799,8 +2830,8 @@
   <dimension ref="A1:N1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D206" sqref="D206"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9469,9 +9500,102 @@
         <v>770</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="4">
+        <v>141</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I203" s="7">
+        <v>44755</v>
+      </c>
+      <c r="J203" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="5">
+        <v>142</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I204" s="9">
+        <v>44755</v>
+      </c>
+      <c r="J204" s="5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="5">
+        <v>160</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I205" s="9">
+        <v>44755</v>
+      </c>
+      <c r="J205" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
     <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980BB25A-058C-A04B-A661-7F85FD8807C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AE7F53-9A22-FF4D-87F8-DFBF15E803CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2460" windowWidth="21620" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="784">
   <si>
     <t>Number</t>
   </si>
@@ -2368,6 +2368,15 @@
   </si>
   <si>
     <t>Or hashset loop through each list</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>Two pointer 1 pass, n distance; or 2 pass first find location</t>
+  </si>
+  <si>
+    <t>Two pointer only 1 pass</t>
   </si>
 </sst>
 </file>
@@ -2830,8 +2839,8 @@
   <dimension ref="A1:N1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B210" sqref="B210"/>
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J211" sqref="J211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9596,7 +9605,38 @@
         <v>780</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="5">
+        <v>19</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I206" s="9">
+        <v>44756</v>
+      </c>
+      <c r="J206" s="5" t="s">
+        <v>783</v>
+      </c>
+    </row>
     <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AE7F53-9A22-FF4D-87F8-DFBF15E803CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA5CA47-69BD-4947-9A76-CDE7C595036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="2400" windowWidth="21620" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="801">
   <si>
     <t>Number</t>
   </si>
@@ -2377,6 +2377,57 @@
   </si>
   <si>
     <t>Two pointer only 1 pass</t>
+  </si>
+  <si>
+    <t>Compare node and link</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>Carry Over</t>
+  </si>
+  <si>
+    <t>Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>Add two number together, carry over to next one, consider rest of list</t>
+  </si>
+  <si>
+    <t>One pass while loop</t>
+  </si>
+  <si>
+    <t>Conisder two listnode head, put to the right list, and concat the list</t>
+  </si>
+  <si>
+    <t>Consider create more pointers</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>Reverse second half list in-place, find second half by two pointers(1 fast 1 slow)</t>
+  </si>
+  <si>
+    <t>Other methods would cost more space complexity</t>
+  </si>
+  <si>
+    <t>Flatten a Mutlilevel Doubly Lined List</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>dfs with recursion or while loop, connect node to its child</t>
+  </si>
+  <si>
+    <t>Use queue in dfs</t>
+  </si>
+  <si>
+    <t>reverse the second half, each time take one node out</t>
+  </si>
+  <si>
+    <t>Reverse, find second half(two pointers), sort</t>
   </si>
 </sst>
 </file>
@@ -2839,8 +2890,8 @@
   <dimension ref="A1:N1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J211" sqref="J211"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J213" sqref="J213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4016,35 +4067,35 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17">
+    <row r="35" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19">
         <v>206</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="17" t="s">
+      <c r="G35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="20">
         <v>44600</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="19" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4281,36 +4332,42 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="17">
+    <row r="43" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="19">
         <v>21</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="G43" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="17" t="s">
+      <c r="G43" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="20">
         <v>44603</v>
       </c>
-      <c r="J43" s="17" t="s">
+      <c r="J43" s="19" t="s">
         <v>181</v>
+      </c>
+      <c r="K43" s="7">
+        <v>44759</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9637,24 +9694,179 @@
         <v>783</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="5">
+        <v>2</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H207" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I207" s="9">
+        <v>44757</v>
+      </c>
+      <c r="J207" s="5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="5">
+        <v>328</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I208" s="9">
+        <v>44758</v>
+      </c>
+      <c r="J208" s="5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="5">
+        <v>234</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I209" s="9">
+        <v>44759</v>
+      </c>
+      <c r="J209" s="5" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="5">
+        <v>430</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I210" s="9">
+        <v>44760</v>
+      </c>
+      <c r="J210" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="5">
+        <v>143</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H211" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I211" s="9">
+        <v>44760</v>
+      </c>
+      <c r="J211" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA5CA47-69BD-4947-9A76-CDE7C595036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F378878-7F31-9E4F-8B7D-35063F2AA2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2400" windowWidth="21620" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="807">
   <si>
     <t>Number</t>
   </si>
@@ -2428,6 +2428,24 @@
   </si>
   <si>
     <t>Reverse, find second half(two pointers), sort</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>Recursion or iteration, hashmap, orignal node and new node</t>
+  </si>
+  <si>
+    <t>The best case is waived nodes, more complicated, but space O(1)</t>
+  </si>
+  <si>
+    <t>Insert into a Sorted Circular Linked List</t>
+  </si>
+  <si>
+    <t>dummy head, 3 situations:highest, lowest, middle, and have duplicate number</t>
+  </si>
+  <si>
+    <t>do while loop or one more indicator</t>
   </si>
 </sst>
 </file>
@@ -2889,9 +2907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J213" sqref="J213"/>
+      <selection pane="bottomLeft" activeCell="J221" sqref="J221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9694,35 +9712,35 @@
         <v>783</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="5">
+    <row r="207" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="4">
         <v>2</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="C207" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D207" s="5" t="s">
+      <c r="C207" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="E207" s="5" t="s">
+      <c r="E207" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="F207" s="5" t="s">
+      <c r="F207" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="G207" s="5" t="s">
+      <c r="G207" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="H207" s="5" t="s">
+      <c r="H207" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I207" s="9">
+      <c r="I207" s="7">
         <v>44757</v>
       </c>
-      <c r="J207" s="5" t="s">
+      <c r="J207" s="4" t="s">
         <v>789</v>
       </c>
     </row>
@@ -9854,8 +9872,70 @@
         <v>800</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="4">
+        <v>138</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I212" s="7">
+        <v>44761</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="5">
+        <v>147</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H213" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I213" s="9">
+        <v>44761</v>
+      </c>
+      <c r="J213" s="5" t="s">
+        <v>806</v>
+      </c>
+    </row>
     <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F378878-7F31-9E4F-8B7D-35063F2AA2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E99FD9-0B88-5A49-AB11-C789CF23AFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30260" yWindow="1620" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="819">
   <si>
     <t>Number</t>
   </si>
@@ -2446,6 +2446,42 @@
   </si>
   <si>
     <t>do while loop or one more indicator</t>
+  </si>
+  <si>
+    <t>Rotate List</t>
+  </si>
+  <si>
+    <t>dummy head make it a circle, dummy tail, break circle/count length of list, k == 0</t>
+  </si>
+  <si>
+    <t>best way is to connect a circle</t>
+  </si>
+  <si>
+    <t>Min heap, priority queue, comparator in lambda expression</t>
+  </si>
+  <si>
+    <t>Moving Average from Data Stream</t>
+  </si>
+  <si>
+    <t>Queue #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Circular Queue </t>
+  </si>
+  <si>
+    <t>Deque</t>
+  </si>
+  <si>
+    <t>Array, track head and tail, (indicator + 1)%length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Window size, each time remove the front / skip the front/ deque cumulative </t>
+  </si>
+  <si>
+    <t>Array make it a circle, keep track of head and tail</t>
+  </si>
+  <si>
+    <t>Deque or queue, sliding window</t>
   </si>
 </sst>
 </file>
@@ -2645,7 +2681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -2690,6 +2726,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2908,8 +2945,8 @@
   <dimension ref="A1:N1010"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J221" sqref="J221"/>
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J220" sqref="J220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5940,35 +5977,35 @@
         <v>367</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="17">
+    <row r="91" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="19">
         <v>215</v>
       </c>
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="C91" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="17" t="s">
+      <c r="C91" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="E91" s="17" t="s">
+      <c r="E91" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="F91" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G91" s="17" t="s">
+      <c r="F91" s="19" t="s">
+        <v>810</v>
+      </c>
+      <c r="G91" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="H91" s="17" t="s">
+      <c r="H91" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="I91" s="18">
+      <c r="I91" s="20">
         <v>44648</v>
       </c>
-      <c r="J91" s="17" t="s">
+      <c r="J91" s="19" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6010,41 +6047,41 @@
         <v>373</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="17">
+    <row r="93" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="19">
         <v>287</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="C93" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="17" t="s">
+      <c r="C93" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="E93" s="17" t="s">
+      <c r="E93" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="F93" s="17" t="s">
+      <c r="F93" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="G93" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H93" s="17" t="s">
+      <c r="G93" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I93" s="18">
+      <c r="I93" s="20">
         <v>44566</v>
       </c>
-      <c r="J93" s="17" t="s">
+      <c r="J93" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="K93" s="18">
+      <c r="K93" s="20">
         <v>44649</v>
       </c>
-      <c r="L93" s="17" t="s">
+      <c r="L93" s="19" t="s">
         <v>384</v>
       </c>
     </row>
@@ -7486,41 +7523,41 @@
         <v>540</v>
       </c>
     </row>
-    <row r="138" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="21">
+    <row r="138" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="44">
         <v>121</v>
       </c>
-      <c r="B138" s="21" t="s">
+      <c r="B138" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="C138" s="21" t="s">
+      <c r="C138" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D138" s="17" t="s">
+      <c r="D138" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="E138" s="17" t="s">
+      <c r="E138" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F138" s="17" t="s">
+      <c r="F138" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="G138" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H138" s="17" t="s">
+      <c r="G138" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H138" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I138" s="18">
+      <c r="I138" s="20">
         <v>44702</v>
       </c>
-      <c r="J138" s="17" t="s">
+      <c r="J138" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="K138" s="18">
+      <c r="K138" s="20">
         <v>44706</v>
       </c>
-      <c r="L138" s="17" t="s">
+      <c r="L138" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9936,9 +9973,102 @@
         <v>806</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="5">
+        <v>61</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I214" s="9">
+        <v>44762</v>
+      </c>
+      <c r="J214" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="5">
+        <v>622</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" t="s">
+        <v>812</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H215" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I215" s="9">
+        <v>44763</v>
+      </c>
+      <c r="J215" s="5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="5">
+        <v>346</v>
+      </c>
+      <c r="B216" t="s">
+        <v>811</v>
+      </c>
+      <c r="C216" t="s">
+        <v>30</v>
+      </c>
+      <c r="D216" t="s">
+        <v>812</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H216" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I216" s="9">
+        <v>44763</v>
+      </c>
+      <c r="J216" s="5" t="s">
+        <v>818</v>
+      </c>
+    </row>
     <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E99FD9-0B88-5A49-AB11-C789CF23AFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7773A453-428D-1F45-8DB3-C30592E773E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30260" yWindow="1620" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="822">
   <si>
     <t>Number</t>
   </si>
@@ -2482,6 +2482,15 @@
   </si>
   <si>
     <t>Deque or queue, sliding window</t>
+  </si>
+  <si>
+    <t>Walls and Gates</t>
+  </si>
+  <si>
+    <t>BFS/DFS with queue structure, start from the gate</t>
+  </si>
+  <si>
+    <t>Queue structure example</t>
   </si>
 </sst>
 </file>
@@ -2944,9 +2953,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J220" sqref="J220"/>
+      <selection pane="bottomLeft" activeCell="J217" sqref="J217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10069,7 +10078,38 @@
         <v>818</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="5">
+        <v>286</v>
+      </c>
+      <c r="B217" t="s">
+        <v>819</v>
+      </c>
+      <c r="C217" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217" t="s">
+        <v>652</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="G217" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="H217" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="I217" s="9">
+        <v>44764</v>
+      </c>
+      <c r="J217" s="5" t="s">
+        <v>821</v>
+      </c>
+    </row>
     <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7773A453-428D-1F45-8DB3-C30592E773E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405D5FD9-665F-274A-ABFD-05ACF174D890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30260" yWindow="1620" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="838">
   <si>
     <t>Number</t>
   </si>
@@ -2491,6 +2491,54 @@
   </si>
   <si>
     <t>Queue structure example</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Two stack/min stack, or add pair to a stack</t>
+  </si>
+  <si>
+    <t>one normal stack, one min stack, each time store min value</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>create a stack and keep push and pop from stack to check, check stack is empty</t>
+  </si>
+  <si>
+    <t>use stack and hashmap, map to reversely store value</t>
+  </si>
+  <si>
+    <t>Open the Lock</t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>Create a pair to store in the queue, pop from queue, seen and deadendset</t>
+  </si>
+  <si>
+    <t>O(n^2A^N + D)</t>
+  </si>
+  <si>
+    <t>O(A^N + D)</t>
+  </si>
+  <si>
+    <t>BFS queue to store pair</t>
+  </si>
+  <si>
+    <t>DFS #1/BFS</t>
+  </si>
+  <si>
+    <t>Fill array and dp, keep search the square, square array/ bfs each time change queue</t>
+  </si>
+  <si>
+    <t>O(n*root(n))</t>
+  </si>
+  <si>
+    <t>DP is faster and easier in complexity analysis</t>
   </si>
 </sst>
 </file>
@@ -2690,7 +2738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -2736,6 +2784,7 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2951,11 +3000,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1010"/>
+  <dimension ref="A1:N1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J217" sqref="J217"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J228" sqref="J228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6624,73 +6673,73 @@
         <v>438</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="17">
+    <row r="110" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="19">
         <v>695</v>
       </c>
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="C110" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="17" t="s">
+      <c r="C110" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="E110" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="E110" s="17" t="s">
+      <c r="F110" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="I110" s="20">
+        <v>44666</v>
+      </c>
+      <c r="J110" s="19" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="19">
+        <v>200</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="E111" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="F110" s="17" t="s">
+      <c r="F111" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="G110" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="H110" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="I110" s="18">
-        <v>44666</v>
-      </c>
-      <c r="J110" s="17" t="s">
+      <c r="G111" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="H111" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="I111" s="20">
+        <v>44669</v>
+      </c>
+      <c r="J111" s="19" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="17">
-        <v>200</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="E111" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="F111" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="G111" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="H111" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="I111" s="18">
-        <v>44669</v>
-      </c>
-      <c r="J111" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="K111" s="18">
+      <c r="K111" s="20">
         <v>44744</v>
       </c>
-      <c r="L111" s="6" t="s">
+      <c r="L111" s="16" t="s">
         <v>715</v>
       </c>
     </row>
@@ -10078,42 +10127,166 @@
         <v>818</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="5">
+    <row r="217" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="4">
         <v>286</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="43" t="s">
         <v>819</v>
       </c>
-      <c r="C217" t="s">
-        <v>15</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="C217" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217" s="43" t="s">
         <v>652</v>
       </c>
-      <c r="E217" s="5" t="s">
+      <c r="E217" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="F217" s="5" t="s">
+      <c r="F217" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="G217" s="5" t="s">
+      <c r="G217" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="H217" s="5" t="s">
+      <c r="H217" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="I217" s="9">
+      <c r="I217" s="7">
         <v>44764</v>
       </c>
-      <c r="J217" s="5" t="s">
+      <c r="J217" s="4" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="5">
+        <v>752</v>
+      </c>
+      <c r="B218" t="s">
+        <v>828</v>
+      </c>
+      <c r="C218" t="s">
+        <v>15</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="G218" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="H218" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="I218" s="2">
+        <v>44767</v>
+      </c>
+      <c r="J218" s="8" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="5">
+        <v>279</v>
+      </c>
+      <c r="B219" t="s">
+        <v>829</v>
+      </c>
+      <c r="C219" t="s">
+        <v>15</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I219" s="2">
+        <v>44767</v>
+      </c>
+      <c r="J219" s="8" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="43">
+        <v>155</v>
+      </c>
+      <c r="B220" s="43" t="s">
+        <v>822</v>
+      </c>
+      <c r="C220" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E220" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F220" s="43" t="s">
+        <v>823</v>
+      </c>
+      <c r="G220" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H220" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I220" s="45">
+        <v>44768</v>
+      </c>
+      <c r="J220" s="43" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="43">
+        <v>20</v>
+      </c>
+      <c r="B221" s="43" t="s">
+        <v>825</v>
+      </c>
+      <c r="C221" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D221" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E221" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F221" s="43" t="s">
+        <v>826</v>
+      </c>
+      <c r="G221" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H221" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I221" s="45">
+        <v>44768</v>
+      </c>
+      <c r="J221" s="43" t="s">
+        <v>827</v>
+      </c>
+    </row>
     <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10903,6 +11076,7 @@
     <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405D5FD9-665F-274A-ABFD-05ACF174D890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC85E07-40BB-0847-A6F3-0B50BB39F934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="841">
   <si>
     <t>Number</t>
   </si>
@@ -2539,6 +2539,15 @@
   </si>
   <si>
     <t>DP is faster and easier in complexity analysis</t>
+  </si>
+  <si>
+    <t>Daily Temparatures</t>
+  </si>
+  <si>
+    <t>Two pointer works but slow/stack to pop peek element, compare the value</t>
+  </si>
+  <si>
+    <t>array method is hard to understand, two pointer/stack</t>
   </si>
 </sst>
 </file>
@@ -3004,7 +3013,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J228" sqref="J228"/>
+      <selection pane="bottomLeft" activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10287,7 +10296,38 @@
         <v>827</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="43">
+        <v>739</v>
+      </c>
+      <c r="B222" s="43" t="s">
+        <v>838</v>
+      </c>
+      <c r="C222" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D222" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E222" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F222" s="43" t="s">
+        <v>839</v>
+      </c>
+      <c r="G222" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H222" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I222" s="45">
+        <v>44769</v>
+      </c>
+      <c r="J222" s="43" t="s">
+        <v>840</v>
+      </c>
+    </row>
     <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC85E07-40BB-0847-A6F3-0B50BB39F934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D378A5-3410-244A-87CC-26FA361936FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="852">
   <si>
     <t>Number</t>
   </si>
@@ -2548,6 +2548,39 @@
   </si>
   <si>
     <t>array method is hard to understand, two pointer/stack</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>DFS and bfs works, dfs + recursion, use a visited node array</t>
+  </si>
+  <si>
+    <t>dfs recursion</t>
+  </si>
+  <si>
+    <t>Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>Two stacks, pop/peek transfer data from 1 stack to another</t>
+  </si>
+  <si>
+    <t>two stacks</t>
+  </si>
+  <si>
+    <t>Decode Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium </t>
+  </si>
+  <si>
+    <t>One stack, pop and store it back to stack, string to array, string builder</t>
+  </si>
+  <si>
+    <t>O(maxK*n)</t>
+  </si>
+  <si>
+    <t>1 stack or two stack</t>
   </si>
 </sst>
 </file>
@@ -2747,7 +2780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -2781,7 +2814,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2794,6 +2826,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3011,9 +3046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C228" sqref="C228"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H230" sqref="H230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3513,41 +3548,41 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+    <row r="15" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
         <v>94</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="18">
+      <c r="G15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="20">
         <v>44588</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="20">
         <v>44618</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="19" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3723,35 +3758,35 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
+    <row r="21" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
         <v>150</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="18">
+      <c r="G21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="20">
         <v>44594</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="19" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5022,35 +5057,35 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="17">
+    <row r="60" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="19">
         <v>22</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="C60" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="17" t="s">
+      <c r="C60" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="G60" s="17" t="s">
+      <c r="G60" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="H60" s="17" t="s">
+      <c r="H60" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I60" s="20">
         <v>44617</v>
       </c>
-      <c r="J60" s="17" t="s">
+      <c r="J60" s="19" t="s">
         <v>256</v>
       </c>
     </row>
@@ -7591,13 +7626,13 @@
       </c>
     </row>
     <row r="138" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="44">
+      <c r="A138" s="43">
         <v>121</v>
       </c>
-      <c r="B138" s="44" t="s">
+      <c r="B138" s="43" t="s">
         <v>541</v>
       </c>
-      <c r="C138" s="44" t="s">
+      <c r="C138" s="43" t="s">
         <v>30</v>
       </c>
       <c r="D138" s="19" t="s">
@@ -8652,43 +8687,43 @@
         <v>643</v>
       </c>
     </row>
-    <row r="171" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="33">
+    <row r="171" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="45">
         <v>494</v>
       </c>
-      <c r="B171" s="33" t="s">
+      <c r="B171" s="45" t="s">
         <v>644</v>
       </c>
-      <c r="C171" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D171" s="6" t="s">
+      <c r="C171" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E171" s="6" t="s">
+      <c r="E171" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F171" s="6" t="s">
+      <c r="F171" s="16" t="s">
         <v>645</v>
       </c>
-      <c r="G171" s="6" t="s">
+      <c r="G171" s="16" t="s">
         <v>646</v>
       </c>
-      <c r="H171" s="6" t="s">
+      <c r="H171" s="16" t="s">
         <v>646</v>
       </c>
-      <c r="I171" s="12">
+      <c r="I171" s="7">
         <v>44725</v>
       </c>
-      <c r="J171" s="6" t="s">
+      <c r="J171" s="16" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="172" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="34">
+      <c r="A172" s="33">
         <v>56</v>
       </c>
-      <c r="B172" s="34" t="s">
+      <c r="B172" s="33" t="s">
         <v>648</v>
       </c>
       <c r="C172" s="26" t="s">
@@ -8717,10 +8752,10 @@
       </c>
     </row>
     <row r="173" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="35">
+      <c r="A173" s="34">
         <v>314</v>
       </c>
-      <c r="B173" s="35" t="s">
+      <c r="B173" s="34" t="s">
         <v>651</v>
       </c>
       <c r="C173" s="26" t="s">
@@ -8749,13 +8784,13 @@
       </c>
     </row>
     <row r="174" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="36">
+      <c r="A174" s="35">
         <v>657</v>
       </c>
-      <c r="B174" s="36" t="s">
+      <c r="B174" s="35" t="s">
         <v>655</v>
       </c>
-      <c r="C174" s="36" t="s">
+      <c r="C174" s="35" t="s">
         <v>30</v>
       </c>
       <c r="D174" s="6" t="s">
@@ -8781,10 +8816,10 @@
       </c>
     </row>
     <row r="175" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="36">
+      <c r="A175" s="35">
         <v>547</v>
       </c>
-      <c r="B175" s="36" t="s">
+      <c r="B175" s="35" t="s">
         <v>660</v>
       </c>
       <c r="C175" s="26" t="s">
@@ -8813,10 +8848,10 @@
       </c>
     </row>
     <row r="176" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="36">
+      <c r="A176" s="35">
         <v>323</v>
       </c>
-      <c r="B176" s="36" t="s">
+      <c r="B176" s="35" t="s">
         <v>663</v>
       </c>
       <c r="C176" s="26" t="s">
@@ -8845,10 +8880,10 @@
       </c>
     </row>
     <row r="177" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="37">
+      <c r="A177" s="36">
         <v>267</v>
       </c>
-      <c r="B177" s="37" t="s">
+      <c r="B177" s="36" t="s">
         <v>667</v>
       </c>
       <c r="C177" s="26" t="s">
@@ -8877,10 +8912,10 @@
       </c>
     </row>
     <row r="178" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="37">
+      <c r="A178" s="36">
         <v>526</v>
       </c>
-      <c r="B178" s="37" t="s">
+      <c r="B178" s="36" t="s">
         <v>671</v>
       </c>
       <c r="C178" s="26" t="s">
@@ -8909,10 +8944,10 @@
       </c>
     </row>
     <row r="179" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="38">
+      <c r="A179" s="37">
         <v>261</v>
       </c>
-      <c r="B179" s="38" t="s">
+      <c r="B179" s="37" t="s">
         <v>674</v>
       </c>
       <c r="C179" s="26" t="s">
@@ -8941,13 +8976,13 @@
       </c>
     </row>
     <row r="180" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="39">
+      <c r="A180" s="38">
         <v>1168</v>
       </c>
-      <c r="B180" s="39" t="s">
+      <c r="B180" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="C180" s="39" t="s">
+      <c r="C180" s="38" t="s">
         <v>113</v>
       </c>
       <c r="D180" s="6" t="s">
@@ -8973,10 +9008,10 @@
       </c>
     </row>
     <row r="181" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="39">
+      <c r="A181" s="38">
         <v>1202</v>
       </c>
-      <c r="B181" s="39" t="s">
+      <c r="B181" s="38" t="s">
         <v>682</v>
       </c>
       <c r="C181" s="26" t="s">
@@ -9005,10 +9040,10 @@
       </c>
     </row>
     <row r="182" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="40">
+      <c r="A182" s="39">
         <v>721</v>
       </c>
-      <c r="B182" s="40" t="s">
+      <c r="B182" s="39" t="s">
         <v>687</v>
       </c>
       <c r="C182" s="26" t="s">
@@ -9037,13 +9072,13 @@
       </c>
     </row>
     <row r="183" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="41">
+      <c r="A183" s="40">
         <v>128</v>
       </c>
-      <c r="B183" s="41" t="s">
+      <c r="B183" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="C183" s="42" t="s">
+      <c r="C183" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D183" s="16" t="s">
@@ -9688,7 +9723,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="203" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>141</v>
       </c>
@@ -9816,7 +9851,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="207" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>2</v>
       </c>
@@ -9976,7 +10011,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="212" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>138</v>
       </c>
@@ -10136,17 +10171,17 @@
         <v>818</v>
       </c>
     </row>
-    <row r="217" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>286</v>
       </c>
-      <c r="B217" s="43" t="s">
+      <c r="B217" s="42" t="s">
         <v>819</v>
       </c>
-      <c r="C217" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D217" s="43" t="s">
+      <c r="C217" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217" s="42" t="s">
         <v>652</v>
       </c>
       <c r="E217" s="4" t="s">
@@ -10232,120 +10267,213 @@
         <v>837</v>
       </c>
     </row>
-    <row r="220" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="43">
+    <row r="220" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="42">
         <v>155</v>
       </c>
-      <c r="B220" s="43" t="s">
+      <c r="B220" s="42" t="s">
         <v>822</v>
       </c>
-      <c r="C220" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D220" s="43" t="s">
+      <c r="C220" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="E220" s="43" t="s">
+      <c r="E220" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="F220" s="43" t="s">
+      <c r="F220" s="42" t="s">
         <v>823</v>
       </c>
-      <c r="G220" s="43" t="s">
+      <c r="G220" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H220" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="I220" s="45">
+      <c r="H220" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I220" s="44">
         <v>44768</v>
       </c>
-      <c r="J220" s="43" t="s">
+      <c r="J220" s="42" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="221" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="43">
+    <row r="221" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="42">
         <v>20</v>
       </c>
-      <c r="B221" s="43" t="s">
+      <c r="B221" s="42" t="s">
         <v>825</v>
       </c>
-      <c r="C221" s="43" t="s">
+      <c r="C221" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D221" s="43" t="s">
+      <c r="D221" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="E221" s="43" t="s">
+      <c r="E221" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="F221" s="43" t="s">
+      <c r="F221" s="42" t="s">
         <v>826</v>
       </c>
-      <c r="G221" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="H221" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="I221" s="45">
+      <c r="G221" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H221" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I221" s="44">
         <v>44768</v>
       </c>
-      <c r="J221" s="43" t="s">
+      <c r="J221" s="42" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="222" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="43">
+    <row r="222" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="42">
         <v>739</v>
       </c>
-      <c r="B222" s="43" t="s">
+      <c r="B222" s="42" t="s">
         <v>838</v>
       </c>
-      <c r="C222" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D222" s="43" t="s">
+      <c r="C222" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D222" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="E222" s="43" t="s">
+      <c r="E222" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="F222" s="43" t="s">
+      <c r="F222" s="42" t="s">
         <v>839</v>
       </c>
-      <c r="G222" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="H222" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="I222" s="45">
+      <c r="G222" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H222" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I222" s="44">
         <v>44769</v>
       </c>
-      <c r="J222" s="43" t="s">
+      <c r="J222" s="42" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="42">
+        <v>133</v>
+      </c>
+      <c r="B223" s="42" t="s">
+        <v>841</v>
+      </c>
+      <c r="C223" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="E223" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="F223" s="42" t="s">
+        <v>842</v>
+      </c>
+      <c r="G223" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="H223" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I223" s="44">
+        <v>44771</v>
+      </c>
+      <c r="J223" s="42" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="46">
+        <v>232</v>
+      </c>
+      <c r="B224" s="46" t="s">
+        <v>844</v>
+      </c>
+      <c r="C224" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D224" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E224" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F224" s="46" t="s">
+        <v>845</v>
+      </c>
+      <c r="G224" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H224" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I224" s="47">
+        <v>44773</v>
+      </c>
+      <c r="J224" s="46" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="46">
+        <v>394</v>
+      </c>
+      <c r="B225" s="46" t="s">
+        <v>847</v>
+      </c>
+      <c r="C225" s="46" t="s">
+        <v>848</v>
+      </c>
+      <c r="D225" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E225" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F225" s="46" t="s">
+        <v>849</v>
+      </c>
+      <c r="G225" s="46" t="s">
+        <v>850</v>
+      </c>
+      <c r="H225" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="I225" s="47">
+        <v>44773</v>
+      </c>
+      <c r="J225" s="46" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D378A5-3410-244A-87CC-26FA361936FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07120593-878F-AF47-ADAB-D2185E34F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="896">
   <si>
     <t>Number</t>
   </si>
@@ -2322,9 +2322,6 @@
     <t>look for first difference between words, bfs using queue, check prefix</t>
   </si>
   <si>
-    <t>O©</t>
-  </si>
-  <si>
     <t>in-degree, break if has prefix, bfs</t>
   </si>
   <si>
@@ -2581,6 +2578,141 @@
   </si>
   <si>
     <t>1 stack or two stack</t>
+  </si>
+  <si>
+    <t>O(\c)</t>
+  </si>
+  <si>
+    <t>Flood Fill</t>
+  </si>
+  <si>
+    <t>01 Matrix</t>
+  </si>
+  <si>
+    <t>dfs when color is not same as current color</t>
+  </si>
+  <si>
+    <t>Basic dfs problem</t>
+  </si>
+  <si>
+    <t>bfs or dfs or dp, bfs is more direct</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>isSameTree + isSubTree, two recursion method</t>
+  </si>
+  <si>
+    <t>Recursion tree</t>
+  </si>
+  <si>
+    <t>Implement Trie(Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Trie implementation, each node contains a node array, each time go into node</t>
+  </si>
+  <si>
+    <t>Learn trie</t>
+  </si>
+  <si>
+    <t>Keys and Rooms</t>
+  </si>
+  <si>
+    <t>BFS and DFS basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFS </t>
+  </si>
+  <si>
+    <t>Sort Integers by The Number of 1 Bit</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>bit count and sort the array in place with customized comparator</t>
+  </si>
+  <si>
+    <t>O(logn)</t>
+  </si>
+  <si>
+    <t>bit count solution</t>
+  </si>
+  <si>
+    <t>Replace Words</t>
+  </si>
+  <si>
+    <t>Use trie to store prefix, compare prefix and break if found</t>
+  </si>
+  <si>
+    <t>prefix trie tree</t>
+  </si>
+  <si>
+    <t>Meeting Rooms</t>
+  </si>
+  <si>
+    <t>Sort the array, each time compare the value</t>
+  </si>
+  <si>
+    <t>sort and compare value</t>
+  </si>
+  <si>
+    <t>Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>Trie structure, children array, use boolean to indicate end of the trie</t>
+  </si>
+  <si>
+    <t>search if dot, search all the string, use recursion</t>
+  </si>
+  <si>
+    <t>Design Search Autocomplete System</t>
+  </si>
+  <si>
+    <t>System Design #1</t>
+  </si>
+  <si>
+    <t>Trie implement comparable&lt;trienode&gt;, write compare to, list update</t>
+  </si>
+  <si>
+    <t>trie structure with list</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>Two Pointer</t>
+  </si>
+  <si>
+    <t>Two pointer #1</t>
+  </si>
+  <si>
+    <t>Two pointer, low, high + current location, if equal, low++, high--</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>use a helper method to do the two pointer, skip duplicate</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Two pointer #2</t>
+  </si>
+  <si>
+    <t>Two pointer, keep the highest side, find max for both sides</t>
+  </si>
+  <si>
+    <t>If you understand it, it is a medium</t>
   </si>
 </sst>
 </file>
@@ -3044,11 +3176,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1011"/>
+  <dimension ref="A1:N1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H230" sqref="H230"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4288,36 +4420,39 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17">
+    <row r="37" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19">
         <v>11</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="17" t="s">
+      <c r="C37" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G37" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="17" t="s">
+      <c r="G37" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="20">
         <v>44600</v>
       </c>
-      <c r="J37" s="17" t="s">
+      <c r="J37" s="19" t="s">
         <v>162</v>
+      </c>
+      <c r="K37" s="7">
+        <v>44790</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4524,7 +4659,7 @@
         <v>44759</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5025,35 +5160,35 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="17">
+    <row r="59" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="19">
         <v>100</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F59" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="H59" s="17" t="s">
+      <c r="H59" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I59" s="20">
         <v>44617</v>
       </c>
-      <c r="J59" s="17" t="s">
+      <c r="J59" s="19" t="s">
         <v>253</v>
       </c>
     </row>
@@ -5517,35 +5652,35 @@
         <v>305</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="17">
+    <row r="74" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="19">
         <v>235</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="F74" s="17" t="s">
+      <c r="F74" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="G74" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I74" s="18">
+      <c r="G74" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" s="20">
         <v>44631</v>
       </c>
-      <c r="J74" s="17" t="s">
+      <c r="J74" s="19" t="s">
         <v>308</v>
       </c>
     </row>
@@ -6096,7 +6231,7 @@
         <v>301</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G91" s="19" t="s">
         <v>371</v>
@@ -9615,7 +9750,7 @@
         <v>764</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>765</v>
+        <v>851</v>
       </c>
       <c r="H199" s="4" t="s">
         <v>19</v>
@@ -9624,7 +9759,7 @@
         <v>44752</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="200" spans="1:10" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9696,7 +9831,7 @@
         <v>707</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>15</v>
@@ -9705,10 +9840,10 @@
         <v>417</v>
       </c>
       <c r="E202" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="F202" s="5" t="s">
         <v>768</v>
-      </c>
-      <c r="F202" s="5" t="s">
-        <v>769</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>19</v>
@@ -9720,7 +9855,7 @@
         <v>44754</v>
       </c>
       <c r="J202" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="203" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9728,19 +9863,19 @@
         <v>141</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>25</v>
@@ -9752,7 +9887,7 @@
         <v>44755</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9760,19 +9895,19 @@
         <v>142</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>25</v>
@@ -9784,7 +9919,7 @@
         <v>44755</v>
       </c>
       <c r="J204" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9792,19 +9927,19 @@
         <v>160</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>220</v>
@@ -9816,7 +9951,7 @@
         <v>44755</v>
       </c>
       <c r="J205" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9824,19 +9959,19 @@
         <v>19</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>25</v>
@@ -9848,7 +9983,7 @@
         <v>44756</v>
       </c>
       <c r="J206" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="207" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9856,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>15</v>
@@ -9865,10 +10000,10 @@
         <v>417</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G207" s="4" t="s">
         <v>220</v>
@@ -9880,7 +10015,7 @@
         <v>44757</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9888,19 +10023,19 @@
         <v>328</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>25</v>
@@ -9912,7 +10047,7 @@
         <v>44758</v>
       </c>
       <c r="J208" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9920,19 +10055,19 @@
         <v>234</v>
       </c>
       <c r="B209" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="F209" s="5" t="s">
         <v>792</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="E209" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="F209" s="5" t="s">
-        <v>793</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>25</v>
@@ -9944,7 +10079,7 @@
         <v>44759</v>
       </c>
       <c r="J209" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9952,19 +10087,19 @@
         <v>430</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>25</v>
@@ -9976,7 +10111,7 @@
         <v>44760</v>
       </c>
       <c r="J210" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9984,19 +10119,19 @@
         <v>143</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>25</v>
@@ -10008,7 +10143,7 @@
         <v>44760</v>
       </c>
       <c r="J211" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="212" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10016,7 +10151,7 @@
         <v>138</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>15</v>
@@ -10025,10 +10160,10 @@
         <v>417</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>25</v>
@@ -10040,7 +10175,7 @@
         <v>44761</v>
       </c>
       <c r="J212" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10048,7 +10183,7 @@
         <v>147</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>15</v>
@@ -10057,10 +10192,10 @@
         <v>417</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>25</v>
@@ -10072,7 +10207,7 @@
         <v>44761</v>
       </c>
       <c r="J213" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10080,7 +10215,7 @@
         <v>61</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>15</v>
@@ -10089,10 +10224,10 @@
         <v>417</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>25</v>
@@ -10104,7 +10239,7 @@
         <v>44762</v>
       </c>
       <c r="J214" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10112,19 +10247,19 @@
         <v>622</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D215" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>329</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>19</v>
@@ -10136,7 +10271,7 @@
         <v>44763</v>
       </c>
       <c r="J215" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10144,19 +10279,19 @@
         <v>346</v>
       </c>
       <c r="B216" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C216" t="s">
         <v>30</v>
       </c>
       <c r="D216" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>25</v>
@@ -10168,7 +10303,7 @@
         <v>44763</v>
       </c>
       <c r="J216" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="217" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10176,7 +10311,7 @@
         <v>286</v>
       </c>
       <c r="B217" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C217" s="42" t="s">
         <v>15</v>
@@ -10188,7 +10323,7 @@
         <v>652</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G217" s="4" t="s">
         <v>755</v>
@@ -10200,7 +10335,7 @@
         <v>44764</v>
       </c>
       <c r="J217" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10208,31 +10343,31 @@
         <v>752</v>
       </c>
       <c r="B218" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C218" t="s">
         <v>15</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>652</v>
       </c>
       <c r="F218" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="G218" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="G218" s="8" t="s">
+      <c r="H218" s="8" t="s">
         <v>831</v>
-      </c>
-      <c r="H218" s="8" t="s">
-        <v>832</v>
       </c>
       <c r="I218" s="2">
         <v>44767</v>
       </c>
       <c r="J218" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10240,7 +10375,7 @@
         <v>279</v>
       </c>
       <c r="B219" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C219" t="s">
         <v>15</v>
@@ -10252,10 +10387,10 @@
         <v>652</v>
       </c>
       <c r="F219" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="G219" s="8" t="s">
         <v>835</v>
-      </c>
-      <c r="G219" s="8" t="s">
-        <v>836</v>
       </c>
       <c r="H219" s="8" t="s">
         <v>25</v>
@@ -10264,7 +10399,7 @@
         <v>44767</v>
       </c>
       <c r="J219" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="220" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10272,7 +10407,7 @@
         <v>155</v>
       </c>
       <c r="B220" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C220" s="42" t="s">
         <v>15</v>
@@ -10284,7 +10419,7 @@
         <v>95</v>
       </c>
       <c r="F220" s="42" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G220" s="42" t="s">
         <v>19</v>
@@ -10296,7 +10431,7 @@
         <v>44768</v>
       </c>
       <c r="J220" s="42" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="221" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10304,7 +10439,7 @@
         <v>20</v>
       </c>
       <c r="B221" s="42" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C221" s="42" t="s">
         <v>30</v>
@@ -10316,7 +10451,7 @@
         <v>95</v>
       </c>
       <c r="F221" s="42" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G221" s="42" t="s">
         <v>25</v>
@@ -10328,7 +10463,7 @@
         <v>44768</v>
       </c>
       <c r="J221" s="42" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="222" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10336,7 +10471,7 @@
         <v>739</v>
       </c>
       <c r="B222" s="42" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C222" s="42" t="s">
         <v>15</v>
@@ -10348,7 +10483,7 @@
         <v>95</v>
       </c>
       <c r="F222" s="42" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G222" s="42" t="s">
         <v>25</v>
@@ -10360,7 +10495,7 @@
         <v>44769</v>
       </c>
       <c r="J222" s="42" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10368,7 +10503,7 @@
         <v>133</v>
       </c>
       <c r="B223" s="42" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C223" s="42" t="s">
         <v>15</v>
@@ -10380,7 +10515,7 @@
         <v>440</v>
       </c>
       <c r="F223" s="42" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G223" s="42" t="s">
         <v>220</v>
@@ -10392,7 +10527,7 @@
         <v>44771</v>
       </c>
       <c r="J223" s="42" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="224" spans="1:10" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10400,7 +10535,7 @@
         <v>232</v>
       </c>
       <c r="B224" s="46" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C224" s="46" t="s">
         <v>30</v>
@@ -10412,7 +10547,7 @@
         <v>95</v>
       </c>
       <c r="F224" s="46" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G224" s="46" t="s">
         <v>19</v>
@@ -10424,7 +10559,7 @@
         <v>44773</v>
       </c>
       <c r="J224" s="46" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="225" spans="1:10" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10432,10 +10567,10 @@
         <v>394</v>
       </c>
       <c r="B225" s="46" t="s">
+        <v>846</v>
+      </c>
+      <c r="C225" s="46" t="s">
         <v>847</v>
-      </c>
-      <c r="C225" s="46" t="s">
-        <v>848</v>
       </c>
       <c r="D225" s="46" t="s">
         <v>94</v>
@@ -10444,10 +10579,10 @@
         <v>95</v>
       </c>
       <c r="F225" s="46" t="s">
+        <v>848</v>
+      </c>
+      <c r="G225" s="46" t="s">
         <v>849</v>
-      </c>
-      <c r="G225" s="46" t="s">
-        <v>850</v>
       </c>
       <c r="H225" s="46" t="s">
         <v>189</v>
@@ -10456,21 +10591,393 @@
         <v>44773</v>
       </c>
       <c r="J225" s="46" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="46">
+        <v>733</v>
+      </c>
+      <c r="B226" s="46" t="s">
+        <v>852</v>
+      </c>
+      <c r="C226" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D226" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="E226" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="F226" s="46" t="s">
+        <v>854</v>
+      </c>
+      <c r="G226" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H226" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I226" s="47">
+        <v>44774</v>
+      </c>
+      <c r="J226" s="46" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="46">
+        <v>542</v>
+      </c>
+      <c r="B227" s="46" t="s">
+        <v>853</v>
+      </c>
+      <c r="C227" s="46" t="s">
+        <v>847</v>
+      </c>
+      <c r="D227" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="E227" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="F227" s="46" t="s">
+        <v>856</v>
+      </c>
+      <c r="G227" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="H227" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="I227" s="47">
+        <v>44774</v>
+      </c>
+      <c r="J227" s="46" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="42">
+        <v>572</v>
+      </c>
+      <c r="B228" s="42" t="s">
+        <v>857</v>
+      </c>
+      <c r="C228" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D228" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E228" s="42" t="s">
+        <v>858</v>
+      </c>
+      <c r="F228" s="42" t="s">
+        <v>859</v>
+      </c>
+      <c r="G228" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="H228" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="I228" s="44">
+        <v>44775</v>
+      </c>
+      <c r="J228" s="42" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="46">
+        <v>841</v>
+      </c>
+      <c r="B229" s="46" t="s">
+        <v>865</v>
+      </c>
+      <c r="C229" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D229" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="E229" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F229" s="46" t="s">
+        <v>866</v>
+      </c>
+      <c r="G229" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H229" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I229" s="2">
+        <v>44777</v>
+      </c>
+      <c r="J229" s="46" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="42">
+        <v>208</v>
+      </c>
+      <c r="B230" s="42" t="s">
+        <v>861</v>
+      </c>
+      <c r="C230" s="42" t="s">
+        <v>847</v>
+      </c>
+      <c r="D230" s="42" t="s">
+        <v>862</v>
+      </c>
+      <c r="E230" s="42" t="s">
+        <v>862</v>
+      </c>
+      <c r="F230" s="42" t="s">
+        <v>863</v>
+      </c>
+      <c r="G230" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="H230" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="I230" s="44">
+        <v>44778</v>
+      </c>
+      <c r="J230" s="42" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="46">
+        <v>1356</v>
+      </c>
+      <c r="B231" s="46" t="s">
+        <v>868</v>
+      </c>
+      <c r="C231" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D231" s="46" t="s">
+        <v>869</v>
+      </c>
+      <c r="E231" s="46" t="s">
+        <v>869</v>
+      </c>
+      <c r="F231" s="46" t="s">
+        <v>870</v>
+      </c>
+      <c r="G231" s="46" t="s">
+        <v>871</v>
+      </c>
+      <c r="H231" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I231" s="2">
+        <v>44783</v>
+      </c>
+      <c r="J231" s="46" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="46">
+        <v>648</v>
+      </c>
+      <c r="B232" s="46" t="s">
+        <v>873</v>
+      </c>
+      <c r="C232" s="46" t="s">
+        <v>847</v>
+      </c>
+      <c r="D232" s="46" t="s">
+        <v>862</v>
+      </c>
+      <c r="E232" s="46" t="s">
+        <v>862</v>
+      </c>
+      <c r="F232" s="46" t="s">
+        <v>874</v>
+      </c>
+      <c r="G232" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H232" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I232" s="47">
+        <v>44783</v>
+      </c>
+      <c r="J232" s="46" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="46">
+        <v>252</v>
+      </c>
+      <c r="B233" s="46" t="s">
+        <v>876</v>
+      </c>
+      <c r="C233" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D233" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E233" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="F233" s="46" t="s">
+        <v>877</v>
+      </c>
+      <c r="G233" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="H233" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I233" s="47">
+        <v>44786</v>
+      </c>
+      <c r="J233" s="46" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="46">
+        <v>211</v>
+      </c>
+      <c r="B234" s="46" t="s">
+        <v>879</v>
+      </c>
+      <c r="C234" s="46" t="s">
+        <v>847</v>
+      </c>
+      <c r="D234" s="46" t="s">
+        <v>883</v>
+      </c>
+      <c r="E234" s="46" t="s">
+        <v>862</v>
+      </c>
+      <c r="F234" s="46" t="s">
+        <v>880</v>
+      </c>
+      <c r="G234" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="H234" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I234" s="47">
+        <v>44788</v>
+      </c>
+      <c r="J234" s="46" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="46">
+        <v>642</v>
+      </c>
+      <c r="B235" s="46" t="s">
+        <v>882</v>
+      </c>
+      <c r="C235" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D235" s="46" t="s">
+        <v>883</v>
+      </c>
+      <c r="E235" s="46" t="s">
+        <v>862</v>
+      </c>
+      <c r="F235" s="46" t="s">
+        <v>884</v>
+      </c>
+      <c r="G235" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="H235" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="I235" s="47">
+        <v>44788</v>
+      </c>
+      <c r="J235" s="46" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="42">
+        <v>15</v>
+      </c>
+      <c r="B236" s="42" t="s">
+        <v>886</v>
+      </c>
+      <c r="C236" s="42" t="s">
+        <v>847</v>
+      </c>
+      <c r="D236" s="42" t="s">
+        <v>888</v>
+      </c>
+      <c r="E236" s="42" t="s">
+        <v>887</v>
+      </c>
+      <c r="F236" s="42" t="s">
+        <v>889</v>
+      </c>
+      <c r="G236" s="42" t="s">
+        <v>890</v>
+      </c>
+      <c r="H236" s="42" t="s">
+        <v>871</v>
+      </c>
+      <c r="I236" s="44">
+        <v>44789</v>
+      </c>
+      <c r="J236" s="42" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="42">
+        <v>42</v>
+      </c>
+      <c r="B237" s="42" t="s">
+        <v>892</v>
+      </c>
+      <c r="C237" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D237" s="42" t="s">
+        <v>893</v>
+      </c>
+      <c r="E237" s="42" t="s">
+        <v>887</v>
+      </c>
+      <c r="F237" s="42" t="s">
+        <v>894</v>
+      </c>
+      <c r="G237" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H237" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I237" s="44">
+        <v>44789</v>
+      </c>
+      <c r="J237" s="42" t="s">
+        <v>895</v>
+      </c>
+    </row>
     <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11245,6 +11752,7 @@
     <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07120593-878F-AF47-ADAB-D2185E34F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDA7D08-2E5B-044E-BA14-AB41E4DC1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="901">
   <si>
     <t>Number</t>
   </si>
@@ -2713,6 +2713,21 @@
   </si>
   <si>
     <t>If you understand it, it is a medium</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>BST #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursion or iterative solution, get the list </t>
+  </si>
+  <si>
+    <t>O(H + k)</t>
+  </si>
+  <si>
+    <t>Iterative solution is always less space complexity</t>
   </si>
 </sst>
 </file>
@@ -3180,7 +3195,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B241" sqref="B241"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3718,79 +3733,79 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+    <row r="16" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19">
         <v>102</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="18">
+      <c r="G16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="20">
         <v>44589</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="20">
         <v>44618</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19">
         <v>104</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="17" t="s">
+      <c r="G17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="20">
         <v>44590</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="20">
         <v>44602</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="19" t="s">
         <v>81</v>
       </c>
     </row>
@@ -10978,7 +10993,38 @@
         <v>895</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="46">
+        <v>230</v>
+      </c>
+      <c r="B238" s="46" t="s">
+        <v>896</v>
+      </c>
+      <c r="C238" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D238" s="46" t="s">
+        <v>897</v>
+      </c>
+      <c r="E238" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="F238" s="46" t="s">
+        <v>898</v>
+      </c>
+      <c r="G238" s="46" t="s">
+        <v>899</v>
+      </c>
+      <c r="H238" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="I238" s="2">
+        <v>44794</v>
+      </c>
+      <c r="J238" s="46" t="s">
+        <v>900</v>
+      </c>
+    </row>
     <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDA7D08-2E5B-044E-BA14-AB41E4DC1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E77CB7F-E099-7D43-A3D5-C6918D27D55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="917">
   <si>
     <t>Number</t>
   </si>
@@ -2728,17 +2728,79 @@
   </si>
   <si>
     <t>Iterative solution is always less space complexity</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>DP use 2D array to record start and end of string, check palindrome/expand around center</t>
+  </si>
+  <si>
+    <t>Expand around center is a better option</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>HashMap + two pointers to form a sliding window, count the occrrence of char</t>
+  </si>
+  <si>
+    <t>Hashmap, two pointer, sliding window</t>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
+  </si>
+  <si>
+    <t>HashSet array, find the index of block</t>
+  </si>
+  <si>
+    <t>HashSet array</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Hash Table</t>
+  </si>
+  <si>
+    <t>HashMap/LinkedList</t>
+  </si>
+  <si>
+    <t>LinkedHashMap / LinkedList + HashMap</t>
+  </si>
+  <si>
+    <t>O(Capacity)</t>
+  </si>
+  <si>
+    <t>Two ways, better to memorize them</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2927,55 +2989,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3194,8 +3258,8 @@
   <dimension ref="A1:N1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3205,7 +3269,7 @@
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="6" width="72" customWidth="1"/>
+    <col min="6" max="6" width="75" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
@@ -4502,41 +4566,41 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="17">
+    <row r="39" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19">
         <v>70</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="17" t="s">
+      <c r="G39" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="20">
         <v>44601</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="J39" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="20">
         <v>44679</v>
       </c>
-      <c r="L39" s="17" t="s">
+      <c r="L39" s="19" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7481,67 +7545,67 @@
         <v>508</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="21">
+    <row r="129" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="43">
         <v>198</v>
       </c>
-      <c r="B129" s="21" t="s">
+      <c r="B129" s="43" t="s">
         <v>509</v>
       </c>
-      <c r="C129" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="17" t="s">
+      <c r="C129" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="E129" s="17" t="s">
+      <c r="E129" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F129" s="17" t="s">
+      <c r="F129" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="G129" s="17" t="s">
+      <c r="G129" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="H129" s="17" t="s">
+      <c r="H129" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="I129" s="18">
+      <c r="I129" s="20">
         <v>44690</v>
       </c>
-      <c r="J129" s="17" t="s">
+      <c r="J129" s="19" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="21">
+    <row r="130" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="43">
         <v>746</v>
       </c>
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="43" t="s">
         <v>513</v>
       </c>
-      <c r="C130" s="21" t="s">
+      <c r="C130" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D130" s="17" t="s">
+      <c r="D130" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="E130" s="17" t="s">
+      <c r="E130" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F130" s="17" t="s">
+      <c r="F130" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="G130" s="17" t="s">
+      <c r="G130" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="H130" s="17" t="s">
+      <c r="H130" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="I130" s="18">
+      <c r="I130" s="20">
         <v>44691</v>
       </c>
-      <c r="J130" s="17" t="s">
+      <c r="J130" s="19" t="s">
         <v>515</v>
       </c>
     </row>
@@ -11025,24 +11089,148 @@
         <v>900</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="46">
+        <v>5</v>
+      </c>
+      <c r="B239" s="46" t="s">
+        <v>901</v>
+      </c>
+      <c r="C239" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D239" s="46" t="s">
+        <v>902</v>
+      </c>
+      <c r="E239" s="46" t="s">
+        <v>902</v>
+      </c>
+      <c r="F239" s="46" t="s">
+        <v>903</v>
+      </c>
+      <c r="G239" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="H239" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I239" s="2">
+        <v>44795</v>
+      </c>
+      <c r="J239" s="46" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="46">
+        <v>3</v>
+      </c>
+      <c r="B240" s="46" t="s">
+        <v>905</v>
+      </c>
+      <c r="C240" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E240" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="F240" s="46" t="s">
+        <v>906</v>
+      </c>
+      <c r="G240" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H240" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I240" s="2">
+        <v>44796</v>
+      </c>
+      <c r="J240" s="46" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="46">
+        <v>36</v>
+      </c>
+      <c r="B241" s="46" t="s">
+        <v>908</v>
+      </c>
+      <c r="C241" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D241" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E241" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="F241" s="48" t="s">
+        <v>909</v>
+      </c>
+      <c r="G241" s="48" t="s">
+        <v>890</v>
+      </c>
+      <c r="H241" s="48" t="s">
+        <v>890</v>
+      </c>
+      <c r="I241" s="2">
+        <v>44796</v>
+      </c>
+      <c r="J241" s="48" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="46">
+        <v>146</v>
+      </c>
+      <c r="B242" s="46" t="s">
+        <v>911</v>
+      </c>
+      <c r="C242" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D242" s="49" t="s">
+        <v>912</v>
+      </c>
+      <c r="E242" s="49" t="s">
+        <v>913</v>
+      </c>
+      <c r="F242" s="49" t="s">
+        <v>914</v>
+      </c>
+      <c r="G242" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H242" s="49" t="s">
+        <v>915</v>
+      </c>
+      <c r="I242" s="2">
+        <v>44797</v>
+      </c>
+      <c r="J242" s="49" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11800,7 +11988,7 @@
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E77CB7F-E099-7D43-A3D5-C6918D27D55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BADAC68-C3C4-3D4A-8D47-026EBB7EEA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="943">
   <si>
     <t>Number</t>
   </si>
@@ -2776,17 +2776,137 @@
   </si>
   <si>
     <t>Two ways, better to memorize them</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Multiply element from left, then from right, multiply prior product</t>
+  </si>
+  <si>
+    <t>Product twice from both directions</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use char out of 256 ascii code to split the strings, use another char to represent empty </t>
+  </si>
+  <si>
+    <t>Bit manipulation is another way, chunk decode</t>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>Add 1, if exceed length of array, create a new array</t>
+  </si>
+  <si>
+    <t>Need to create new array</t>
+  </si>
+  <si>
+    <t>Plus One Linked List</t>
+  </si>
+  <si>
+    <t>Create a sentinel head, find rightmost not 9 number, add 1</t>
+  </si>
+  <si>
+    <t>Reverse list, add 1, reverse list</t>
+  </si>
+  <si>
+    <t>Largest Number</t>
+  </si>
+  <si>
+    <t>Customize a comparator for string, change order, sort the array then concat them</t>
+  </si>
+  <si>
+    <t>Customize comparator, override compare method</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Set up boundaries and update the boundaries, more the pointer to 4 directions</t>
+  </si>
+  <si>
+    <t>O(m*n)</t>
+  </si>
+  <si>
+    <t>Set up 4 boudaries, update each time reach an edge</t>
+  </si>
+  <si>
+    <t>Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>Min is 1, max is the max pile, binary search find the target, compare to hour</t>
+  </si>
+  <si>
+    <t>O(nlogm)</t>
+  </si>
+  <si>
+    <t>Binary search initialization</t>
+  </si>
+  <si>
+    <t>Path Sum III</t>
+  </si>
+  <si>
+    <t>Use hashmap to store the sum as prefix sum, minus the target to find key</t>
+  </si>
+  <si>
+    <t>Or implement sum from root, then treat each node as root to use algo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2989,57 +3109,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3258,8 +3384,8 @@
   <dimension ref="A1:N1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B247" sqref="B247"/>
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3905,35 +4031,35 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
         <v>112</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="17" t="s">
+      <c r="G19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="20">
         <v>44590</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="19" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4193,41 +4319,41 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19">
         <v>46</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="20">
         <v>44596</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="20">
         <v>44621</v>
       </c>
-      <c r="L28" s="17" t="s">
+      <c r="L28" s="19" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7161,35 +7287,35 @@
         <v>465</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="17">
+    <row r="117" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="19">
         <v>48</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="C117" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="17" t="s">
+      <c r="C117" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E117" s="17" t="s">
+      <c r="E117" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="F117" s="17" t="s">
+      <c r="F117" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="G117" s="17" t="s">
+      <c r="G117" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="H117" s="17" t="s">
+      <c r="H117" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I117" s="18">
+      <c r="I117" s="20">
         <v>44673</v>
       </c>
-      <c r="J117" s="17" t="s">
+      <c r="J117" s="19" t="s">
         <v>470</v>
       </c>
     </row>
@@ -11153,78 +11279,326 @@
         <v>907</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="46">
+    <row r="241" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="42">
         <v>36</v>
       </c>
-      <c r="B241" s="46" t="s">
+      <c r="B241" s="42" t="s">
         <v>908</v>
       </c>
-      <c r="C241" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D241" s="46" t="s">
+      <c r="C241" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D241" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E241" s="48" t="s">
+      <c r="E241" s="54" t="s">
         <v>381</v>
       </c>
-      <c r="F241" s="48" t="s">
+      <c r="F241" s="54" t="s">
         <v>909</v>
       </c>
-      <c r="G241" s="48" t="s">
+      <c r="G241" s="54" t="s">
         <v>890</v>
       </c>
-      <c r="H241" s="48" t="s">
+      <c r="H241" s="54" t="s">
         <v>890</v>
       </c>
-      <c r="I241" s="2">
+      <c r="I241" s="44">
         <v>44796</v>
       </c>
-      <c r="J241" s="48" t="s">
+      <c r="J241" s="54" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="46">
+    <row r="242" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="42">
         <v>146</v>
       </c>
-      <c r="B242" s="46" t="s">
+      <c r="B242" s="42" t="s">
         <v>911</v>
       </c>
-      <c r="C242" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D242" s="49" t="s">
+      <c r="C242" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D242" s="55" t="s">
         <v>912</v>
       </c>
-      <c r="E242" s="49" t="s">
+      <c r="E242" s="55" t="s">
         <v>913</v>
       </c>
-      <c r="F242" s="49" t="s">
+      <c r="F242" s="55" t="s">
         <v>914</v>
       </c>
-      <c r="G242" s="49" t="s">
+      <c r="G242" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H242" s="49" t="s">
+      <c r="H242" s="55" t="s">
         <v>915</v>
       </c>
-      <c r="I242" s="2">
+      <c r="I242" s="44">
         <v>44797</v>
       </c>
-      <c r="J242" s="49" t="s">
+      <c r="J242" s="55" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="46">
+        <v>238</v>
+      </c>
+      <c r="B243" s="46" t="s">
+        <v>917</v>
+      </c>
+      <c r="C243" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D243" s="48" t="s">
+        <v>887</v>
+      </c>
+      <c r="E243" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="F243" s="48" t="s">
+        <v>918</v>
+      </c>
+      <c r="G243" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H243" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I243" s="2">
+        <v>44815</v>
+      </c>
+      <c r="J243" s="48" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="46">
+        <v>271</v>
+      </c>
+      <c r="B244" s="46" t="s">
+        <v>920</v>
+      </c>
+      <c r="C244" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D244" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E244" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="F244" s="49" t="s">
+        <v>921</v>
+      </c>
+      <c r="G244" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H244" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I244" s="2">
+        <v>44816</v>
+      </c>
+      <c r="J244" s="49" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="46">
+        <v>66</v>
+      </c>
+      <c r="B245" s="46" t="s">
+        <v>923</v>
+      </c>
+      <c r="C245" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D245" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E245" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="F245" s="50" t="s">
+        <v>924</v>
+      </c>
+      <c r="G245" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H245" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I245" s="2">
+        <v>44830</v>
+      </c>
+      <c r="J245" s="50" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="46">
+        <v>369</v>
+      </c>
+      <c r="B246" s="46" t="s">
+        <v>926</v>
+      </c>
+      <c r="C246" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D246" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E246" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="F246" s="50" t="s">
+        <v>927</v>
+      </c>
+      <c r="G246" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H246" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I246" s="2">
+        <v>44830</v>
+      </c>
+      <c r="J246" s="50" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="46">
+        <v>179</v>
+      </c>
+      <c r="B247" s="46" t="s">
+        <v>929</v>
+      </c>
+      <c r="C247" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D247" s="50" t="s">
+        <v>492</v>
+      </c>
+      <c r="E247" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="F247" s="50" t="s">
+        <v>930</v>
+      </c>
+      <c r="G247" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="H247" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I247" s="2">
+        <v>44831</v>
+      </c>
+      <c r="J247" s="50" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="46">
+        <v>54</v>
+      </c>
+      <c r="B248" s="46" t="s">
+        <v>932</v>
+      </c>
+      <c r="C248" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D248" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E248" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="F248" s="51" t="s">
+        <v>933</v>
+      </c>
+      <c r="G248" s="51" t="s">
+        <v>934</v>
+      </c>
+      <c r="H248" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I248" s="2">
+        <v>44832</v>
+      </c>
+      <c r="J248" s="51" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="42">
+        <v>875</v>
+      </c>
+      <c r="B249" s="42" t="s">
+        <v>936</v>
+      </c>
+      <c r="C249" s="42" t="s">
+        <v>847</v>
+      </c>
+      <c r="D249" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="E249" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="F249" s="53" t="s">
+        <v>937</v>
+      </c>
+      <c r="G249" s="53" t="s">
+        <v>938</v>
+      </c>
+      <c r="H249" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I249" s="44">
+        <v>44837</v>
+      </c>
+      <c r="J249" s="53" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="46">
+        <v>437</v>
+      </c>
+      <c r="B250" s="46" t="s">
+        <v>940</v>
+      </c>
+      <c r="C250" s="46" t="s">
+        <v>847</v>
+      </c>
+      <c r="D250" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E250" s="52" t="s">
+        <v>858</v>
+      </c>
+      <c r="F250" s="52" t="s">
+        <v>941</v>
+      </c>
+      <c r="G250" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H250" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I250" s="2">
+        <v>44838</v>
+      </c>
+      <c r="J250" s="52" t="s">
+        <v>942</v>
+      </c>
+    </row>
     <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11988,7 +12362,7 @@
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/LeeCode Summary.xlsx.xlsx
+++ b/LeeCode Summary.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenjunhan/Documents/GitHub/leetcode-solution-java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BADAC68-C3C4-3D4A-8D47-026EBB7EEA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48B8B27-EFC7-494F-8C13-981AF8799929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="947">
   <si>
     <t>Number</t>
   </si>
@@ -2854,17 +2854,36 @@
   </si>
   <si>
     <t>Or implement sum from root, then treat each node as root to use algo</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Priority queue to store the list and poll/sort the list/compare one by one</t>
+  </si>
+  <si>
+    <t>O(Nlogk)</t>
+  </si>
+  <si>
+    <t>There are many methods to implement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3109,32 +3128,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3142,30 +3162,30 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3383,9 +3403,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B245" sqref="B245"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J256" sqref="J256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5071,41 +5091,41 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="17">
+    <row r="50" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="19">
         <v>98</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="17" t="s">
+      <c r="C50" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G50" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I50" s="18">
+      <c r="G50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="20">
         <v>44610</v>
       </c>
-      <c r="J50" s="17" t="s">
+      <c r="J50" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="K50" s="18">
+      <c r="K50" s="20">
         <v>44625</v>
       </c>
-      <c r="L50" s="17" t="s">
+      <c r="L50" s="19" t="s">
         <v>215</v>
       </c>
     </row>
@@ -11599,7 +11619,38 @@
         <v>942</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="46">
+        <v>23</v>
+      </c>
+      <c r="B251" s="46" t="s">
+        <v>943</v>
+      </c>
+      <c r="C251" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D251" s="56" t="s">
+        <v>417</v>
+      </c>
+      <c r="E251" s="56" t="s">
+        <v>767</v>
+      </c>
+      <c r="F251" s="56" t="s">
+        <v>944</v>
+      </c>
+      <c r="G251" s="56" t="s">
+        <v>945</v>
+      </c>
+      <c r="H251" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I251" s="2">
+        <v>44842</v>
+      </c>
+      <c r="J251" s="56" t="s">
+        <v>946</v>
+      </c>
+    </row>
     <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12362,7 +12413,7 @@
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
